--- a/analyses/07-additional_figures/output/hgat_tmb_mut_counts_sigs_tel_df.xlsx
+++ b/analyses/07-additional_figures/output/hgat_tmb_mut_counts_sigs_tel_df.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
   <si>
     <t xml:space="preserve">Tumor_Sample_Barcode</t>
   </si>
@@ -48,6 +48,33 @@
   </si>
   <si>
     <t xml:space="preserve">log2_mut_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RefSig_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RefSig_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RefSig_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RefSig_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RefSig_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RefSig_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RefSig_MMR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RefSig_N6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other signatures</t>
   </si>
   <si>
     <t xml:space="preserve">BS_20TBZG09</t>
@@ -1160,10 +1187,37 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B2" t="n">
         <v>8646</v>
@@ -1172,25 +1226,25 @@
         <v>307.049216710925</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
         <v>1.30551947713444</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K2" t="n">
         <v>0.571873002278057</v>
@@ -1198,10 +1252,37 @@
       <c r="L2" t="n">
         <v>13.0778171208959</v>
       </c>
+      <c r="M2" t="n">
+        <v>0.0697604790628198</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.165075926753433</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.645685466825502</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0641460245322681</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.055332102825977</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
         <v>15</v>
@@ -1213,13 +1294,13 @@
         <v>#N/A</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H3" t="n">
         <v>0.892867449440256</v>
@@ -1228,7 +1309,7 @@
         <v>#N/A</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K3" t="e">
         <v>#N/A</v>
@@ -1236,10 +1317,37 @@
       <c r="L3" t="n">
         <v>3.90689059560852</v>
       </c>
+      <c r="M3" t="n">
+        <v>0.334453468112554</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.10089271395975</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.162475212160087</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.16885311626284</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.16805313844356</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0652723510612085</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B4" t="n">
         <v>5796</v>
@@ -1248,25 +1356,25 @@
         <v>187.387654549669</v>
       </c>
       <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
       </c>
       <c r="H4" t="n">
         <v>1.42688611222043</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K4" t="n">
         <v>0.570815120485353</v>
@@ -1274,10 +1382,37 @@
       <c r="L4" t="n">
         <v>12.5008418795569</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.0837204010206548</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.082170512139978</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.510992389173822</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.286197211002525</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0369194866630197</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B5" t="n">
         <v>7163</v>
@@ -1286,25 +1421,25 @@
         <v>274.488056955768</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
         <v>1.49438953400914</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K5" t="n">
         <v>0.454679866017166</v>
@@ -1312,10 +1447,37 @@
       <c r="L5" t="n">
         <v>12.8063482267123</v>
       </c>
+      <c r="M5" t="n">
+        <v>0.251825928625267</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0815253292217893</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.323738675871913</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0790806883320622</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.263829377948969</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B6" t="n">
         <v>293</v>
@@ -1324,25 +1486,25 @@
         <v>7.75532351864012</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
         <v>1.9045233498792</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K6" t="n">
         <v>0.529313271501999</v>
@@ -1350,10 +1512,37 @@
       <c r="L6" t="n">
         <v>8.19475685442225</v>
       </c>
+      <c r="M6" t="n">
+        <v>0.72473350143774</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.211503531592911</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0637629669693487</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B7" t="n">
         <v>44</v>
@@ -1362,25 +1551,25 @@
         <v>1.11990231316103</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
         <v>2.12785443188844</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K7" t="n">
         <v>0.531683566137128</v>
@@ -1388,10 +1577,37 @@
       <c r="L7" t="n">
         <v>5.4594316186373</v>
       </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.176538635123366</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.685278098272759</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0835252770571148</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0546579895467605</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B8" t="n">
         <v>192</v>
@@ -1400,25 +1616,25 @@
         <v>4.73158727310534</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H8" t="n">
         <v>1.49313856463679</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K8" t="n">
         <v>0.529058895321795</v>
@@ -1426,10 +1642,37 @@
       <c r="L8" t="n">
         <v>7.58496250072116</v>
       </c>
+      <c r="M8" t="n">
+        <v>0.775035702115365</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.191042033464313</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.0339222644203223</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B9" t="n">
         <v>573</v>
@@ -1438,25 +1681,25 @@
         <v>15.4826494794512</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H9" t="n">
         <v>1.10358853243914</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K9" t="n">
         <v>0.549328326777937</v>
@@ -1464,10 +1707,37 @@
       <c r="L9" t="n">
         <v>9.16239132875691</v>
       </c>
+      <c r="M9" t="n">
+        <v>0.747059918129611</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.189105061464373</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0638350204060155</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B10" t="n">
         <v>22</v>
@@ -1476,25 +1746,25 @@
         <v>0.531953598751488</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
         <v>0.761383218672575</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K10" t="n">
         <v>0.381370593119562</v>
@@ -1502,10 +1772,37 @@
       <c r="L10" t="n">
         <v>4.4594316186373</v>
       </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0828187158992442</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.165144037701407</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.391468403017733</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.179237879058704</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0737985029811942</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.107532461341718</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B11" t="n">
         <v>60</v>
@@ -1514,25 +1811,25 @@
         <v>1.00791208184492</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H11" t="n">
         <v>0.366265200539345</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K11" t="n">
         <v>0.429811768093937</v>
@@ -1540,10 +1837,37 @@
       <c r="L11" t="n">
         <v>5.90689059560852</v>
       </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.503549175712259</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.342881664544902</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.15356915974284</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B12" t="n">
         <v>20</v>
@@ -1555,22 +1879,22 @@
         <v>#N/A</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H12" t="n">
         <v>3.04285034754224</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K12" t="e">
         <v>#N/A</v>
@@ -1578,10 +1902,37 @@
       <c r="L12" t="n">
         <v>4.32192809488736</v>
       </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.265583989584329</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.177848933899108</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.445687311876346</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.110879764640218</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B13" t="n">
         <v>37</v>
@@ -1590,25 +1941,25 @@
         <v>0.923919408357848</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H13" t="n">
         <v>3.43674119313015</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K13" t="n">
         <v>0.535327213327537</v>
@@ -1616,10 +1967,37 @@
       <c r="L13" t="n">
         <v>5.20945336562895</v>
       </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0925799157475719</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0757558707683777</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.191761198324725</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.14591941716309</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.271829242178154</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.115249394891803</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.106904960926279</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B14" t="n">
         <v>22</v>
@@ -1631,13 +2009,13 @@
         <v>#N/A</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H14" t="n">
         <v>0.744840196923758</v>
@@ -1646,7 +2024,7 @@
         <v>#N/A</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K14" t="e">
         <v>#N/A</v>
@@ -1654,10 +2032,37 @@
       <c r="L14" t="n">
         <v>4.4594316186373</v>
       </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.215880590098165</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.426273641853423</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.151624815868599</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0936827520239467</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.112538200155867</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B15" t="n">
         <v>91</v>
@@ -1666,25 +2071,25 @@
         <v>2.21180706849303</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H15" t="n">
         <v>1.19818573822931</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K15" t="n">
         <v>0.464521382425448</v>
@@ -1692,10 +2097,37 @@
       <c r="L15" t="n">
         <v>6.5077946401987</v>
       </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.188179851974447</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.181146830438943</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.577515679154303</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.0531576384323073</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B16" t="n">
         <v>74</v>
@@ -1704,25 +2136,25 @@
         <v>1.65185591191252</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H16" t="n">
         <v>0.603105148336912</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K16" t="n">
         <v>0.537158894358265</v>
@@ -1730,10 +2162,37 @@
       <c r="L16" t="n">
         <v>6.20945336562895</v>
       </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.342357710509817</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.6078963112825</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.0497459782076837</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B17" t="n">
         <v>25</v>
@@ -1742,16 +2201,16 @@
         <v>0.587948714409539</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H17" t="n">
         <v>0.457387495384936</v>
@@ -1760,7 +2219,7 @@
         <v>#N/A</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K17" t="n">
         <v>0.465290036941175</v>
@@ -1768,10 +2227,37 @@
       <c r="L17" t="n">
         <v>4.64385618977472</v>
       </c>
+      <c r="M17" t="n">
+        <v>0.143793139343376</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.16016076534176</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0996879603561902</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.220793192647928</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.20564242770529</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.115272050826958</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.0546504637784985</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B18" t="n">
         <v>28</v>
@@ -1780,25 +2266,25 @@
         <v>0.643943830067591</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H18" t="n">
         <v>1.15543569807249</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K18" t="n">
         <v>0.515722713008091</v>
@@ -1806,10 +2292,37 @@
       <c r="L18" t="n">
         <v>4.8073549220576</v>
       </c>
+      <c r="M18" t="n">
+        <v>0.160546797083476</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0953089921426336</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.119349880408728</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.106028032451864</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.206734086544961</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.222247364680321</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.0897848466880165</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B19" t="n">
         <v>49</v>
@@ -1818,25 +2331,25 @@
         <v>1.14789987099005</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H19" t="n">
         <v>2.62558793175662</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K19" t="n">
         <v>0.196574062165857</v>
@@ -1844,10 +2357,37 @@
       <c r="L19" t="n">
         <v>5.61470984411521</v>
       </c>
+      <c r="M19" t="n">
+        <v>0.282885125623585</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0921683435356933</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.118296886374186</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.096901027724683</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.147536418135327</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.0934264684523389</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.109727196716572</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.0590585334376148</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B20" t="n">
         <v>11</v>
@@ -1859,13 +2399,13 @@
         <v>#N/A</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H20" t="n">
         <v>0.905929830263928</v>
@@ -1874,7 +2414,7 @@
         <v>#N/A</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K20" t="e">
         <v>#N/A</v>
@@ -1882,10 +2422,37 @@
       <c r="L20" t="n">
         <v>3.4594316186373</v>
       </c>
+      <c r="M20" t="n">
+        <v>0.145281431113922</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0652881947268414</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.171027068352983</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.236877281211508</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.180799375693473</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.10921378066037</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.0714711901164689</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.0200416781244339</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B21" t="n">
         <v>4</v>
@@ -1894,16 +2461,16 @@
         <v>0.0839926734870771</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H21" t="n">
         <v>0.895720234771243</v>
@@ -1912,7 +2479,7 @@
         <v>#N/A</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K21" t="n">
         <v>0.326000478991198</v>
@@ -1920,10 +2487,37 @@
       <c r="L21" t="n">
         <v>2</v>
       </c>
+      <c r="M21" t="n">
+        <v>0.0830827085692397</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.114577665539355</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.120050819970376</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.205530225459334</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.130480576489236</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.306573533906154</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.0397044700663067</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B22" t="n">
         <v>36</v>
@@ -1932,16 +2526,16 @@
         <v>0.727936503554668</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H22" t="n">
         <v>0.954150550892822</v>
@@ -1950,7 +2544,7 @@
         <v>#N/A</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K22" t="n">
         <v>0.39790533951934</v>
@@ -1958,10 +2552,37 @@
       <c r="L22" t="n">
         <v>5.16992500144231</v>
       </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.39985647773547</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.444840344339437</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.155303177925093</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B23" t="n">
         <v>15</v>
@@ -1970,16 +2591,16 @@
         <v>0.279975578290257</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H23" t="n">
         <v>0.862448544389736</v>
@@ -1988,7 +2609,7 @@
         <v>#N/A</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K23" t="n">
         <v>0.57773596166521</v>
@@ -1996,10 +2617,37 @@
       <c r="L23" t="n">
         <v>3.90689059560852</v>
       </c>
+      <c r="M23" t="n">
+        <v>0.101041879251109</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.248198125786166</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.206290481601653</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.324145729477689</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.0728318544940469</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.0474919293893359</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B24" t="n">
         <v>27</v>
@@ -2008,16 +2656,16 @@
         <v>0.615946272238565</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H24" t="n">
         <v>3.88902941072736</v>
@@ -2026,7 +2674,7 @@
         <v>#N/A</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K24" t="n">
         <v>0.238692321358866</v>
@@ -2034,10 +2682,37 @@
       <c r="L24" t="n">
         <v>4.75488750216347</v>
       </c>
+      <c r="M24" t="n">
+        <v>0.178038934231362</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.192224261434057</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.185488313516258</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.196195678849981</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.0937103151313331</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.0836452463124143</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.0706972505245949</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B25" t="n">
         <v>38</v>
@@ -2046,16 +2721,16 @@
         <v>0.895921850528822</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H25" t="n">
         <v>2.21840119242882</v>
@@ -2064,7 +2739,7 @@
         <v>#N/A</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K25" t="n">
         <v>0.694759144239012</v>
@@ -2072,10 +2747,37 @@
       <c r="L25" t="n">
         <v>5.24792751344359</v>
       </c>
+      <c r="M25" t="n">
+        <v>0.208048281599286</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.112037943687474</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.0842330665581947</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.347470707369169</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.130047184641323</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.118162816144553</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B26" t="n">
         <v>27</v>
@@ -2084,16 +2786,16 @@
         <v>0.615946272238565</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H26" t="n">
         <v>1.02548778504827</v>
@@ -2102,7 +2804,7 @@
         <v>#N/A</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K26" t="n">
         <v>0.739487272946599</v>
@@ -2110,10 +2812,37 @@
       <c r="L26" t="n">
         <v>4.75488750216347</v>
       </c>
+      <c r="M26" t="n">
+        <v>0.25505525964931</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.444193213492573</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.138936514246588</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.16181501261153</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B27" t="n">
         <v>66</v>
@@ -2122,16 +2851,16 @@
         <v>1.79184370105764</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H27" t="n">
         <v>0.577817262307432</v>
@@ -2140,7 +2869,7 @@
         <v>#N/A</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K27" t="n">
         <v>0.442138413607538</v>
@@ -2148,10 +2877,37 @@
       <c r="L27" t="n">
         <v>6.04439411935845</v>
       </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B28" t="n">
         <v>8</v>
@@ -2163,13 +2919,13 @@
         <v>#N/A</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H28" t="n">
         <v>0.914171892157005</v>
@@ -2178,7 +2934,7 @@
         <v>#N/A</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K28" t="e">
         <v>#N/A</v>
@@ -2186,10 +2942,37 @@
       <c r="L28" t="n">
         <v>3</v>
       </c>
+      <c r="M28" t="n">
+        <v>0.148811517647993</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.0978420211213368</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.314480654566577</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.100139148277073</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.112331832914823</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.207200138072619</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.0191946873995777</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B29" t="n">
         <v>64</v>
@@ -2198,25 +2981,25 @@
         <v>1.53986568059641</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H29" t="n">
         <v>10.8446102499431</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J29" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K29" t="n">
         <v>0.579794071465646</v>
@@ -2224,10 +3007,37 @@
       <c r="L29" t="n">
         <v>6</v>
       </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.117334264181262</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.15437405584988</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.668233209328069</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.0600584706407892</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B30" t="n">
         <v>28</v>
@@ -2236,16 +3046,16 @@
         <v>0.671941387896617</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H30" t="n">
         <v>0.665158321428583</v>
@@ -2254,7 +3064,7 @@
         <v>#N/A</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K30" t="n">
         <v>0.343950291802219</v>
@@ -2262,10 +3072,37 @@
       <c r="L30" t="n">
         <v>4.8073549220576</v>
       </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.142525070960292</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.575693913219956</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.162289091466054</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.119491924353698</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B31" t="n">
         <v>30</v>
@@ -2274,25 +3111,25 @@
         <v>0.727936503554668</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H31" t="n">
         <v>1.28207794360592</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J31" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K31" t="n">
         <v>0.36957080828844</v>
@@ -2300,10 +3137,37 @@
       <c r="L31" t="n">
         <v>4.90689059560852</v>
       </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.203489888533343</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.63303396138743</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.0621587239845932</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.101317426094634</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B32" t="n">
         <v>188</v>
@@ -2312,25 +3176,25 @@
         <v>1.76384614322862</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H32" t="n">
         <v>1.4264807075319</v>
       </c>
       <c r="I32" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J32" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K32" t="n">
         <v>0.44379977109777</v>
@@ -2338,10 +3202,37 @@
       <c r="L32" t="n">
         <v>7.55458885167764</v>
       </c>
+      <c r="M32" t="n">
+        <v>0.260347486623863</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.210969600029516</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.171933329445916</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.11650075364736</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.105514702541963</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.134734127711382</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B33" t="n">
         <v>158</v>
@@ -2350,25 +3241,25 @@
         <v>3.61168495994431</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H33" t="n">
         <v>1.31325462645445</v>
       </c>
       <c r="I33" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K33" t="n">
         <v>0.375529368735504</v>
@@ -2376,10 +3267,37 @@
       <c r="L33" t="n">
         <v>7.3037807481771</v>
       </c>
+      <c r="M33" t="n">
+        <v>0.0667706039071562</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.537290236189042</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.0951092542705688</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.101712546452514</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.140752677006405</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.0583646821743145</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B34" t="n">
         <v>35</v>
@@ -2388,25 +3306,25 @@
         <v>0.839926734870771</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H34" t="n">
         <v>1.45958969808778</v>
       </c>
       <c r="I34" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J34" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K34" t="n">
         <v>0.569560120565352</v>
@@ -2414,10 +3332,37 @@
       <c r="L34" t="n">
         <v>5.12928301694497</v>
       </c>
+      <c r="M34" t="n">
+        <v>0.0744308586431424</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.0702618447415919</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.143002828939938</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.131911093852583</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.27753147229363</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.0905766243717345</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.175636309759981</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.0366489673973985</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B35" t="n">
         <v>14</v>
@@ -2426,16 +3371,16 @@
         <v>0.363968251777334</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H35" t="n">
         <v>0.623158042621522</v>
@@ -2444,7 +3389,7 @@
         <v>#N/A</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K35" t="n">
         <v>0.510743783594519</v>
@@ -2452,10 +3397,37 @@
       <c r="L35" t="n">
         <v>3.8073549220576</v>
       </c>
+      <c r="M35" t="n">
+        <v>0.262099431304233</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.311422400571269</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.179913145145213</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.0745670130494222</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.171998009929863</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B36" t="n">
         <v>26</v>
@@ -2464,25 +3436,25 @@
         <v>0.643943830067591</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H36" t="n">
         <v>0.585997921932767</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J36" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K36" t="n">
         <v>0.467148540964538</v>
@@ -2490,10 +3462,37 @@
       <c r="L36" t="n">
         <v>4.70043971814109</v>
       </c>
+      <c r="M36" t="n">
+        <v>0.0723245946964431</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.3622156142764</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.189775254643861</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.0769878260750522</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.135094460059115</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.117238163869331</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.0463640863797992</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B37" t="n">
         <v>20</v>
@@ -2502,25 +3501,25 @@
         <v>0.503956040922462</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H37" t="n">
         <v>1.98723126828428</v>
       </c>
       <c r="I37" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J37" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K37" t="n">
         <v>0.623776473962117</v>
@@ -2528,10 +3527,37 @@
       <c r="L37" t="n">
         <v>4.32192809488736</v>
       </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.136363883159419</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.11769634830023</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.380846557632526</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.154537748504795</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.21055546240303</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B38" t="n">
         <v>76</v>
@@ -2540,25 +3566,25 @@
         <v>1.9598290480318</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H38" t="n">
         <v>0.929450577157592</v>
       </c>
       <c r="I38" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J38" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K38" t="n">
         <v>0.771731681526181</v>
@@ -2566,10 +3592,37 @@
       <c r="L38" t="n">
         <v>6.24792751344359</v>
       </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.0846522272353416</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.0627685505952238</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.0804190334806037</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.216443603345105</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.321030797259351</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.0777435454671102</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.134924222081901</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.0220180205353636</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B39" t="n">
         <v>94</v>
@@ -2578,16 +3631,16 @@
         <v>2.49178264678329</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H39" t="n">
         <v>8.82222841823438</v>
@@ -2596,7 +3649,7 @@
         <v>#N/A</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K39" t="n">
         <v>0.283942729670415</v>
@@ -2604,10 +3657,37 @@
       <c r="L39" t="n">
         <v>6.55458885167764</v>
       </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.166284405361149</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.061807995350476</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.257961415613033</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.14874397032413</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.11759747748489</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.24760472449392</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.0000000113724023531603</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B40" t="n">
         <v>41</v>
@@ -2616,25 +3696,25 @@
         <v>1.00791208184492</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H40" t="n">
         <v>0.665895723080379</v>
       </c>
       <c r="I40" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J40" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K40" t="n">
         <v>0.669429405437427</v>
@@ -2642,10 +3722,37 @@
       <c r="L40" t="n">
         <v>5.35755200461808</v>
       </c>
+      <c r="M40" t="n">
+        <v>0.237379885479665</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.0794454036015839</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.392340677704627</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.12776301583957</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.163071017374554</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B41" t="n">
         <v>2</v>
@@ -2654,16 +3761,16 @@
         <v>0.0279975578290257</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H41" t="n">
         <v>0.768361612323582</v>
@@ -2672,7 +3779,7 @@
         <v>#N/A</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K41" t="n">
         <v>0.36707426386722</v>
@@ -2680,10 +3787,37 @@
       <c r="L41" t="n">
         <v>1</v>
       </c>
+      <c r="M41" t="n">
+        <v>0.164339185089231</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.284412466889771</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.220514304472485</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.153567216441294</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.108470423389898</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.0686964037173203</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B42" t="n">
         <v>28</v>
@@ -2692,16 +3826,16 @@
         <v>0.587948714409539</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H42" t="n">
         <v>0.409013987468199</v>
@@ -2710,7 +3844,7 @@
         <v>#N/A</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K42" t="n">
         <v>0.448192683601946</v>
@@ -2718,10 +3852,37 @@
       <c r="L42" t="n">
         <v>4.8073549220576</v>
       </c>
+      <c r="M42" t="n">
+        <v>0.0626309675552648</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.340117157017897</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.0613282673514007</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.0733155248788837</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.25520191369757</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.173586381337026</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.0338197881619576</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B43" t="n">
         <v>26</v>
@@ -2733,13 +3894,13 @@
         <v>#N/A</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H43" t="n">
         <v>0.723145899527039</v>
@@ -2748,7 +3909,7 @@
         <v>#N/A</v>
       </c>
       <c r="J43" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K43" t="e">
         <v>#N/A</v>
@@ -2756,10 +3917,37 @@
       <c r="L43" t="n">
         <v>4.70043971814109</v>
       </c>
+      <c r="M43" t="n">
+        <v>0.220607087259939</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.153032773676259</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.0642898760512596</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.0972878189016665</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.453318373197066</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.0114640709138102</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -2771,13 +3959,13 @@
         <v>#N/A</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H44" t="n">
         <v>0.478672360955709</v>
@@ -2786,7 +3974,7 @@
         <v>#N/A</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K44" t="e">
         <v>#N/A</v>
@@ -2794,10 +3982,37 @@
       <c r="L44" t="n">
         <v>3</v>
       </c>
+      <c r="M44" t="n">
+        <v>0.1589277747914</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.277678350113149</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.0917617066861896</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.173262137410311</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.0934215043171327</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.108601164117549</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.0963473625642688</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B45" t="n">
         <v>19</v>
@@ -2809,22 +4024,22 @@
         <v>#N/A</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H45" t="n">
         <v>1.61098261110919</v>
       </c>
       <c r="I45" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J45" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K45" t="e">
         <v>#N/A</v>
@@ -2832,10 +4047,37 @@
       <c r="L45" t="n">
         <v>4.24792751344359</v>
       </c>
+      <c r="M45" t="n">
+        <v>0.119556069881742</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.163210527273295</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.0994514841734072</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.332465345635853</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.108188190093037</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.0838369516759494</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.0932914312667161</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B46" t="n">
         <v>18</v>
@@ -2847,13 +4089,13 @@
         <v>#N/A</v>
       </c>
       <c r="E46" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H46" t="n">
         <v>0.564259763952774</v>
@@ -2862,7 +4104,7 @@
         <v>#N/A</v>
       </c>
       <c r="J46" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K46" t="e">
         <v>#N/A</v>
@@ -2870,10 +4112,37 @@
       <c r="L46" t="n">
         <v>4.16992500144231</v>
       </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.295352078091409</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.40424174601184</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.155573311845612</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.144832864051139</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B47" t="n">
         <v>34</v>
@@ -2882,25 +4151,25 @@
         <v>0.811929177041745</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E47" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H47" t="n">
         <v>2.65534910941505</v>
       </c>
       <c r="I47" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J47" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K47" t="n">
         <v>0.569510042618928</v>
@@ -2908,10 +4177,37 @@
       <c r="L47" t="n">
         <v>5.08746284125034</v>
       </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.0974558361109378</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.190832739139053</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.471430230588372</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.166457523765244</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.0738236703963927</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B48" t="n">
         <v>32</v>
@@ -2920,16 +4216,16 @@
         <v>0.895921850528822</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E48" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H48" t="n">
         <v>0.911126491571772</v>
@@ -2938,7 +4234,7 @@
         <v>#N/A</v>
       </c>
       <c r="J48" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K48" t="n">
         <v>0.752475929785222</v>
@@ -2946,10 +4242,37 @@
       <c r="L48" t="n">
         <v>5</v>
       </c>
+      <c r="M48" t="n">
+        <v>0.472886905119284</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.0678593020165138</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.154963943608184</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.281897875765768</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.0223919734902498</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B49" t="n">
         <v>42</v>
@@ -2961,22 +4284,22 @@
         <v>#N/A</v>
       </c>
       <c r="E49" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H49" t="n">
         <v>0.596986134005091</v>
       </c>
       <c r="I49" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J49" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K49" t="e">
         <v>#N/A</v>
@@ -2984,10 +4307,37 @@
       <c r="L49" t="n">
         <v>5.39231742277876</v>
       </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.0750720955602486</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.1358204941791</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.10330370283304</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.193193659081989</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.261994880160738</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.175264842651821</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.0553503255330637</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B50" t="n">
         <v>24</v>
@@ -2999,22 +4349,22 @@
         <v>#N/A</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H50" t="n">
         <v>1.7968473065668</v>
       </c>
       <c r="I50" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J50" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K50" t="e">
         <v>#N/A</v>
@@ -3022,10 +4372,37 @@
       <c r="L50" t="n">
         <v>4.58496250072116</v>
       </c>
+      <c r="M50" t="n">
+        <v>0.145729053005684</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.232068950362349</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.338749311671368</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.11282083178813</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.170631853172469</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B51" t="n">
         <v>43</v>
@@ -3034,25 +4411,25 @@
         <v>1.00791208184492</v>
       </c>
       <c r="D51" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E51" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G51" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H51" t="n">
         <v>4.85940326913163</v>
       </c>
       <c r="I51" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J51" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K51" t="n">
         <v>0.76895318071392</v>
@@ -3060,10 +4437,37 @@
       <c r="L51" t="n">
         <v>5.4262647547021</v>
       </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.122334407250177</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.125737972397606</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.501687310455756</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.15763891353997</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.0926013963564916</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B52" t="n">
         <v>26</v>
@@ -3072,25 +4476,25 @@
         <v>0.503956040922462</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E52" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G52" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H52" t="n">
         <v>1.0679414088142</v>
       </c>
       <c r="I52" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J52" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K52" t="n">
         <v>0.615773498394946</v>
@@ -3098,10 +4502,37 @@
       <c r="L52" t="n">
         <v>4.70043971814109</v>
       </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.135680831697954</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.0657526009589426</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.503086529748005</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.124438935694344</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.112372336518937</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.0586687653818174</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B53" t="n">
         <v>36</v>
@@ -3110,25 +4541,25 @@
         <v>0.615946272238565</v>
       </c>
       <c r="D53" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E53" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H53" t="n">
         <v>0.330097988969208</v>
       </c>
       <c r="I53" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J53" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K53" t="n">
         <v>0.427110862734588</v>
@@ -3136,10 +4567,37 @@
       <c r="L53" t="n">
         <v>5.16992500144231</v>
       </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.128228531676709</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.108851598792196</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.425726991280174</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.0977156307044159</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.135875893808304</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.1036013537382</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B54" t="n">
         <v>72</v>
@@ -3148,16 +4606,16 @@
         <v>1.70785102757057</v>
       </c>
       <c r="D54" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E54" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H54" t="n">
         <v>0.407527437990096</v>
@@ -3166,7 +4624,7 @@
         <v>#N/A</v>
       </c>
       <c r="J54" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K54" t="n">
         <v>0.575505938760336</v>
@@ -3174,10 +4632,37 @@
       <c r="L54" t="n">
         <v>6.16992500144231</v>
       </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.0656738080631759</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.152769056616453</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.142720077322932</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.210609360603555</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.110994797722278</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.256001435543513</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.0612314641280916</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B55" t="n">
         <v>46</v>
@@ -3186,16 +4671,16 @@
         <v>1.23189254447713</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H55" t="n">
         <v>1.07733795771883</v>
@@ -3204,7 +4689,7 @@
         <v>#N/A</v>
       </c>
       <c r="J55" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K55" t="n">
         <v>0.449093295038004</v>
@@ -3212,10 +4697,37 @@
       <c r="L55" t="n">
         <v>5.52356195605701</v>
       </c>
+      <c r="M55" t="n">
+        <v>0.08463789634056</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.223364362244255</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.407244606117607</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.115866562926195</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.112807377626826</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.0560791947445571</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B56" t="n">
         <v>12</v>
@@ -3224,25 +4736,25 @@
         <v>0.279975578290257</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E56" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H56" t="n">
         <v>0.953363674208554</v>
       </c>
       <c r="I56" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J56" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K56" t="n">
         <v>0.637965512856903</v>
@@ -3250,10 +4762,37 @@
       <c r="L56" t="n">
         <v>3.58496250072116</v>
       </c>
+      <c r="M56" t="n">
+        <v>0.360043025825591</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.0697848667329232</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.323935720918134</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.0812577870084943</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.126673366733137</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.0383052327817197</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B57" t="n">
         <v>31</v>
@@ -3262,16 +4801,16 @@
         <v>0.643943830067591</v>
       </c>
       <c r="D57" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E57" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H57" t="n">
         <v>0.882805463561211</v>
@@ -3280,7 +4819,7 @@
         <v>#N/A</v>
       </c>
       <c r="J57" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K57" t="n">
         <v>0.808473165895148</v>
@@ -3288,10 +4827,37 @@
       <c r="L57" t="n">
         <v>4.95419631038687</v>
       </c>
+      <c r="M57" t="n">
+        <v>0.0793707864444697</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.0664122191873731</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.212278883274887</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.354654181544493</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.202532629880316</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.084751299668461</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B58" t="n">
         <v>25</v>
@@ -3303,22 +4869,22 @@
         <v>#N/A</v>
       </c>
       <c r="E58" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H58" t="n">
         <v>0.708349747091901</v>
       </c>
       <c r="I58" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J58" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K58" t="e">
         <v>#N/A</v>
@@ -3326,10 +4892,37 @@
       <c r="L58" t="n">
         <v>4.64385618977472</v>
       </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.0764003435841411</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.264910091055278</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.0935240193023368</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.267460645468661</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.147362327939145</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.108377354132105</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.0419652185183339</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B59" t="n">
         <v>14</v>
@@ -3338,25 +4931,25 @@
         <v>0.223980462632206</v>
       </c>
       <c r="D59" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E59" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G59" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H59" t="n">
         <v>1.73296055907925</v>
       </c>
       <c r="I59" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J59" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K59" t="n">
         <v>0.62407659609205</v>
@@ -3364,10 +4957,37 @@
       <c r="L59" t="n">
         <v>3.8073549220576</v>
       </c>
+      <c r="M59" t="n">
+        <v>0.0610205842784469</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.095706354431257</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.17693040358603</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.36292185578016</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.136420537475511</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.0895614154092224</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.0774388490393725</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B60" t="n">
         <v>8</v>
@@ -3379,22 +4999,22 @@
         <v>#N/A</v>
       </c>
       <c r="E60" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H60" t="n">
         <v>0.765076784764917</v>
       </c>
       <c r="I60" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J60" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K60" t="e">
         <v>#N/A</v>
@@ -3402,10 +5022,37 @@
       <c r="L60" t="n">
         <v>3</v>
       </c>
+      <c r="M60" t="n">
+        <v>0.279863412518065</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.0752031023131815</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.150503062695286</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.067722537083597</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.111266978313812</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.211562747648098</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.103878135240894</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.0000000241870663497679</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B61" t="n">
         <v>16</v>
@@ -3417,13 +5064,13 @@
         <v>#N/A</v>
       </c>
       <c r="E61" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H61" t="n">
         <v>1.08950264868542</v>
@@ -3432,7 +5079,7 @@
         <v>#N/A</v>
       </c>
       <c r="J61" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K61" t="e">
         <v>#N/A</v>
@@ -3440,10 +5087,37 @@
       <c r="L61" t="n">
         <v>4</v>
       </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.101573697014105</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.138200236936824</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.116267430491875</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.114008341526327</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.238258311321791</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.103972013734983</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.136592620508165</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.0511273484659296</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B62" t="n">
         <v>26</v>
@@ -3452,16 +5126,16 @@
         <v>0.643943830067591</v>
       </c>
       <c r="D62" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E62" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G62" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H62" t="n">
         <v>3.04039166135154</v>
@@ -3470,7 +5144,7 @@
         <v>#N/A</v>
       </c>
       <c r="J62" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K62" t="n">
         <v>0.49150485279403</v>
@@ -3478,10 +5152,37 @@
       <c r="L62" t="n">
         <v>4.70043971814109</v>
       </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.0663369339961934</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.425301172176932</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.35119215850877</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.113188256260382</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.0439814790577218</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B63" t="n">
         <v>6</v>
@@ -3490,16 +5191,16 @@
         <v>0.0559951156580514</v>
       </c>
       <c r="D63" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E63" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H63" t="n">
         <v>0.828368248951573</v>
@@ -3508,7 +5209,7 @@
         <v>#N/A</v>
       </c>
       <c r="J63" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K63" t="n">
         <v>0.549162269366051</v>
@@ -3516,10 +5217,37 @@
       <c r="L63" t="n">
         <v>2.58496250072116</v>
       </c>
+      <c r="M63" t="n">
+        <v>0.250782011206616</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.111471879530442</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.120779885111439</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.247115544963874</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.10315647754105</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.0874363754789994</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.0792578261675805</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B64" t="n">
         <v>90</v>
@@ -3528,25 +5256,25 @@
         <v>2.12781439500595</v>
       </c>
       <c r="D64" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E64" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H64" t="n">
         <v>0.388138255821767</v>
       </c>
       <c r="I64" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J64" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K64" t="n">
         <v>0.572644393416624</v>
@@ -3554,10 +5282,37 @@
       <c r="L64" t="n">
         <v>6.49185309632967</v>
       </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.128839507628334</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.821218976440908</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.0499415159307577</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B65" t="n">
         <v>16</v>
@@ -3566,16 +5321,16 @@
         <v>0.419963367435385</v>
       </c>
       <c r="D65" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E65" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H65" t="n">
         <v>0.674959180648736</v>
@@ -3584,7 +5339,7 @@
         <v>#N/A</v>
       </c>
       <c r="J65" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K65" t="n">
         <v>0.699064292560397</v>
@@ -3592,10 +5347,37 @@
       <c r="L65" t="n">
         <v>4</v>
       </c>
+      <c r="M65" t="n">
+        <v>0.310140744362781</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.068936002813622</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.213096875782795</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.135272839158107</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.128113552085235</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.0744813049292694</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.0699586808681902</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B66" t="n">
         <v>29</v>
@@ -3604,16 +5386,16 @@
         <v>0.699938945725642</v>
       </c>
       <c r="D66" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E66" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H66" t="n">
         <v>0.775241276378305</v>
@@ -3622,7 +5404,7 @@
         <v>#N/A</v>
       </c>
       <c r="J66" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K66" t="n">
         <v>0.631004972671502</v>
@@ -3630,10 +5412,37 @@
       <c r="L66" t="n">
         <v>4.85798099512757</v>
       </c>
+      <c r="M66" t="n">
+        <v>0.503332521636299</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.0614578925365872</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.213060726659897</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.155699962478648</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.0664488966885677</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B67" t="n">
         <v>26</v>
@@ -3642,25 +5451,25 @@
         <v>0.615946272238565</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E67" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H67" t="n">
         <v>0.571514974019808</v>
       </c>
       <c r="I67" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J67" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K67" t="n">
         <v>0.64973853521711</v>
@@ -3668,10 +5477,37 @@
       <c r="L67" t="n">
         <v>4.70043971814109</v>
       </c>
+      <c r="M67" t="n">
+        <v>0.143833959087215</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.263583588377683</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.150606513852679</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.122545412020891</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.124270161895681</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.106552026574306</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.0886083381915452</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B68" t="n">
         <v>15</v>
@@ -3680,25 +5516,25 @@
         <v>0.363968251777334</v>
       </c>
       <c r="D68" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E68" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H68" t="n">
         <v>2.44907726867045</v>
       </c>
       <c r="I68" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J68" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K68" t="n">
         <v>0.392024954986044</v>
@@ -3706,10 +5542,37 @@
       <c r="L68" t="n">
         <v>3.90689059560852</v>
       </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.156744106069701</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.37108376457957</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.099895946681261</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.353708792576723</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.0185673900927451</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B69" t="n">
         <v>28</v>
@@ -3718,16 +5581,16 @@
         <v>0.615946272238565</v>
       </c>
       <c r="D69" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E69" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H69" t="n">
         <v>0.729525469501158</v>
@@ -3736,7 +5599,7 @@
         <v>#N/A</v>
       </c>
       <c r="J69" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K69" t="n">
         <v>0.596633706208732</v>
@@ -3744,10 +5607,37 @@
       <c r="L69" t="n">
         <v>4.8073549220576</v>
       </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.537439335647318</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.106513851960041</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.348315999690963</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.00773081270167775</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B70" t="n">
         <v>30</v>
@@ -3756,16 +5646,16 @@
         <v>0.671941387896617</v>
       </c>
       <c r="D70" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E70" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G70" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H70" t="n">
         <v>2.78010728661349</v>
@@ -3774,7 +5664,7 @@
         <v>#N/A</v>
       </c>
       <c r="J70" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K70" t="n">
         <v>0.757810200911416</v>
@@ -3782,10 +5672,37 @@
       <c r="L70" t="n">
         <v>4.90689059560852</v>
       </c>
+      <c r="M70" t="n">
+        <v>0.383538367367422</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.147447337305198</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.179699213983772</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.0945875981196528</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.169009918144339</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.0257175650796155</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B71" t="n">
         <v>29</v>
@@ -3794,25 +5711,25 @@
         <v>0.727936503554668</v>
       </c>
       <c r="D71" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E71" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G71" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H71" t="n">
         <v>1.3376016778781</v>
       </c>
       <c r="I71" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J71" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K71" t="n">
         <v>0.539957042295368</v>
@@ -3820,10 +5737,37 @@
       <c r="L71" t="n">
         <v>4.85798099512757</v>
       </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.176730012408873</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.0913838694587305</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.163511238499196</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.264571968989742</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.129770776550119</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.0826876733571825</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.0913444607361567</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B72" t="n">
         <v>36</v>
@@ -3832,25 +5776,25 @@
         <v>0.671941387896617</v>
       </c>
       <c r="D72" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E72" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G72" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H72" t="n">
         <v>1.65241546603447</v>
       </c>
       <c r="I72" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J72" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K72" t="n">
         <v>0.478867672178079</v>
@@ -3858,10 +5802,37 @@
       <c r="L72" t="n">
         <v>5.16992500144231</v>
       </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.0614018026497692</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.0930220195820889</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.0681766454197774</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.21704226829776</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.28408838783251</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.108938565874563</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.119621131142618</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.0477091792009136</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B73" t="n">
         <v>14</v>
@@ -3870,16 +5841,16 @@
         <v>0.307973136119283</v>
       </c>
       <c r="D73" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E73" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H73" t="n">
         <v>0.390536916669804</v>
@@ -3888,7 +5859,7 @@
         <v>#N/A</v>
       </c>
       <c r="J73" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K73" t="n">
         <v>0.666239527934617</v>
@@ -3896,10 +5867,37 @@
       <c r="L73" t="n">
         <v>3.8073549220576</v>
       </c>
+      <c r="M73" t="n">
+        <v>0.216947225425474</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.0630713661457646</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.204830814562037</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.122739282172645</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.0958976712093112</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.113702072223855</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.1562966837089</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.0265148845520116</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B74" t="n">
         <v>27</v>
@@ -3908,25 +5906,25 @@
         <v>0.587948714409539</v>
       </c>
       <c r="D74" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E74" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H74" t="n">
         <v>0.517582750507118</v>
       </c>
       <c r="I74" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J74" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K74" t="n">
         <v>0.622731566582486</v>
@@ -3934,10 +5932,37 @@
       <c r="L74" t="n">
         <v>4.75488750216347</v>
       </c>
+      <c r="M74" t="n">
+        <v>0.112368428954719</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.0693066811271542</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.365029513455725</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.0688816970853302</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.0811070154889089</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.0860055148062056</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.177750628613161</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.0395505204687959</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B75" t="n">
         <v>16</v>
@@ -3946,16 +5971,16 @@
         <v>0.363968251777334</v>
       </c>
       <c r="D75" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E75" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H75" t="n">
         <v>0.550419611007771</v>
@@ -3964,7 +5989,7 @@
         <v>#N/A</v>
       </c>
       <c r="J75" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K75" t="n">
         <v>0.471068959090034</v>
@@ -3972,10 +5997,37 @@
       <c r="L75" t="n">
         <v>4</v>
       </c>
+      <c r="M75" t="n">
+        <v>0.570559572604357</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.0625424071376501</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.253797297232868</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.0872841014576835</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.0258166215674416</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B76" t="n">
         <v>6</v>
@@ -3984,16 +6036,16 @@
         <v>0.0839926734870771</v>
       </c>
       <c r="D76" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E76" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H76" t="n">
         <v>0.785423033777577</v>
@@ -4002,7 +6054,7 @@
         <v>#N/A</v>
       </c>
       <c r="J76" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K76" t="n">
         <v>0.543859344519963</v>
@@ -4010,10 +6062,37 @@
       <c r="L76" t="n">
         <v>2.58496250072116</v>
       </c>
+      <c r="M76" t="n">
+        <v>0.270529990333797</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.103583873849176</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.121544192412978</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.0999823299469701</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.118501312631777</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.129065599745378</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.156792701079924</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B77" t="n">
         <v>18</v>
@@ -4022,16 +6101,16 @@
         <v>0.0839926734870771</v>
       </c>
       <c r="D77" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="E77" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H77" t="n">
         <v>0.453305749936207</v>
@@ -4040,7 +6119,7 @@
         <v>#N/A</v>
       </c>
       <c r="J77" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K77" t="n">
         <v>0.356486627033376</v>
@@ -4048,10 +6127,37 @@
       <c r="L77" t="n">
         <v>4.16992500144231</v>
       </c>
+      <c r="M77" t="n">
+        <v>0.520970687371845</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.0972256937625451</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.100545720341275</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.151706099482703</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.0970001044119977</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.032551694629633</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B78" t="n">
         <v>20</v>
@@ -4063,13 +6169,13 @@
         <v>#N/A</v>
       </c>
       <c r="E78" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G78" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H78" t="n">
         <v>3.95948737822802</v>
@@ -4078,7 +6184,7 @@
         <v>#N/A</v>
       </c>
       <c r="J78" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K78" t="e">
         <v>#N/A</v>
@@ -4086,10 +6192,37 @@
       <c r="L78" t="n">
         <v>4.32192809488736</v>
       </c>
+      <c r="M78" t="n">
+        <v>0.0694034970885765</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.157696415861318</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.134587034365037</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.304079095973372</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.186264963370419</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.103474053638766</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.0444949397025116</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B79" t="n">
         <v>30</v>
@@ -4098,25 +6231,25 @@
         <v>0.531953598751488</v>
       </c>
       <c r="D79" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="E79" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H79" t="n">
         <v>0.662451416600774</v>
       </c>
       <c r="I79" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J79" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K79" t="n">
         <v>0.620267598057406</v>
@@ -4124,10 +6257,37 @@
       <c r="L79" t="n">
         <v>4.90689059560852</v>
       </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.26528956872205</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.480445572632228</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.0631397529026997</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.191125105743023</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B80" t="n">
         <v>14</v>
@@ -4136,25 +6296,25 @@
         <v>0.279975578290257</v>
       </c>
       <c r="D80" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E80" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H80" t="n">
         <v>1.56346077095907</v>
       </c>
       <c r="I80" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J80" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K80" t="n">
         <v>0.674694967634554</v>
@@ -4162,10 +6322,37 @@
       <c r="L80" t="n">
         <v>3.8073549220576</v>
       </c>
+      <c r="M80" t="n">
+        <v>0.148760535083763</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.191419611143476</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.0809454445061807</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.198194819146278</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.0865242820025566</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.197385851722872</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0.0967694563948739</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B81" t="n">
         <v>12</v>
@@ -4174,16 +6361,16 @@
         <v>0.251978020461231</v>
       </c>
       <c r="D81" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E81" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H81" t="n">
         <v>0.724248630404926</v>
@@ -4192,7 +6379,7 @@
         <v>#N/A</v>
       </c>
       <c r="J81" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K81" t="n">
         <v>0.760571263751836</v>
@@ -4200,10 +6387,37 @@
       <c r="L81" t="n">
         <v>3.58496250072116</v>
       </c>
+      <c r="M81" t="n">
+        <v>0.155508635964374</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.0916656313976989</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.204768824569179</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.0868164302487179</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.199049104167971</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.210309335205238</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.0518820384468218</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B82" t="n">
         <v>7</v>
@@ -4212,16 +6426,16 @@
         <v>0.0279975578290257</v>
       </c>
       <c r="D82" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E82" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H82" t="n">
         <v>0.988855477993912</v>
@@ -4230,7 +6444,7 @@
         <v>#N/A</v>
       </c>
       <c r="J82" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K82" t="n">
         <v>0.257086835506525</v>
@@ -4238,10 +6452,37 @@
       <c r="L82" t="n">
         <v>2.8073549220576</v>
       </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.0764064458988235</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.923593554101176</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.000000000000000111022302462516</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B83" t="n">
         <v>20</v>
@@ -4250,16 +6491,16 @@
         <v>0.363968251777334</v>
       </c>
       <c r="D83" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E83" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H83" t="n">
         <v>0.466801169472898</v>
@@ -4268,7 +6509,7 @@
         <v>#N/A</v>
       </c>
       <c r="J83" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K83" t="n">
         <v>0.48880709589267</v>
@@ -4276,10 +6517,37 @@
       <c r="L83" t="n">
         <v>4.32192809488736</v>
       </c>
+      <c r="M83" t="n">
+        <v>0.0785783128295887</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.0750021473702883</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.172962479086884</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.44042006198329</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.115794368532733</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.0754232691319546</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.0418193610652614</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B84" t="n">
         <v>6</v>
@@ -4288,16 +6556,16 @@
         <v>0.0839926734870771</v>
       </c>
       <c r="D84" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="E84" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G84" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H84" t="n">
         <v>0.935436254064433</v>
@@ -4306,7 +6574,7 @@
         <v>#N/A</v>
       </c>
       <c r="J84" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K84" t="n">
         <v>0.263417416871963</v>
@@ -4314,10 +6582,37 @@
       <c r="L84" t="n">
         <v>2.58496250072116</v>
       </c>
+      <c r="M84" t="n">
+        <v>0.421856281219284</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.238175344029036</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.122182560086</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.0825144550173773</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.0840604798772543</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.0512108797710477</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B85" t="n">
         <v>3</v>
@@ -4326,16 +6621,16 @@
         <v>0.0279975578290257</v>
       </c>
       <c r="D85" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="E85" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H85" t="n">
         <v>0.574163528083403</v>
@@ -4344,7 +6639,7 @@
         <v>#N/A</v>
       </c>
       <c r="J85" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K85" t="n">
         <v>0.575590445721698</v>
@@ -4352,10 +6647,37 @@
       <c r="L85" t="n">
         <v>1.58496250072116</v>
       </c>
+      <c r="M85" t="n">
+        <v>0.527771817465587</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.0872046483395278</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.117060508256837</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.165646281315747</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0.102316744622302</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B86" t="n">
         <v>3</v>
@@ -4364,31 +6686,58 @@
         <v>0.0279975578290257</v>
       </c>
       <c r="D86" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="E86" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H86" t="n">
         <v>0.859182287154718</v>
       </c>
       <c r="I86" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J86" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K86" t="n">
         <v>0.479093805144225</v>
       </c>
       <c r="L86" t="n">
         <v>1.58496250072116</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.415539791654947</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.158302221030284</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.0773582255260954</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.125230642953602</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.173313921586915</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.050255197248157</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/07-additional_figures/output/hgat_tmb_mut_counts_sigs_tel_df.xlsx
+++ b/analyses/07-additional_figures/output/hgat_tmb_mut_counts_sigs_tel_df.xlsx
@@ -62,64 +62,64 @@
     <t xml:space="preserve">ATRX_mut</t>
   </si>
   <si>
+    <t xml:space="preserve">Oncogenic or Likely Oncogenic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATRX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS_CGXTFM67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7316-3212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nonATRX_mut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not mutated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS_VW4XN9Y7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS_FX2P2WEG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7316-2640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS_02YBZSBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS_HJRTC9JQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7316-2189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS_S0T3CQ97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS_29X4ZX6Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7316-2980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS_TRGECFNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS_MWWZBQ60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7316-2756</t>
+  </si>
+  <si>
     <t xml:space="preserve">VUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS_CGXTFM67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7316-3212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nonATRX_mut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not mutated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS_VW4XN9Y7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS_FX2P2WEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7316-2640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oncogenic or Likely Oncogenic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS_02YBZSBY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS_HJRTC9JQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7316-2189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS_S0T3CQ97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS_29X4ZX6Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7316-2980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS_TRGECFNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS_MWWZBQ60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7316-2756</t>
   </si>
   <si>
     <t xml:space="preserve">BS_85Q5P8GF</t>
@@ -1245,7 +1245,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
         <v>187.387654549669</v>
@@ -1262,13 +1262,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>1.49438953400914</v>
@@ -1280,7 +1280,7 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
         <v>274.488056955768</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
       </c>
       <c r="D6" t="n">
         <v>1.9045233498792</v>
@@ -1315,7 +1315,7 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H6" t="n">
         <v>7.75532351864012</v>
@@ -1332,13 +1332,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
       </c>
       <c r="D7" t="n">
         <v>2.12785443188844</v>
@@ -1347,10 +1347,10 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
         <v>1.11990231316103</v>
@@ -1361,8 +1361,8 @@
       <c r="J7" t="n">
         <v>44</v>
       </c>
-      <c r="K7" t="e">
-        <v>#N/A</v>
+      <c r="K7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -1385,7 +1385,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
         <v>4.73158727310534</v>
@@ -1420,7 +1420,7 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H9" t="n">
         <v>15.4826494794512</v>
@@ -1452,10 +1452,10 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
         <v>0.531953598751488</v>
@@ -1466,8 +1466,8 @@
       <c r="J10" t="n">
         <v>22</v>
       </c>
-      <c r="K10" t="e">
-        <v>#N/A</v>
+      <c r="K10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -1630,7 +1630,7 @@
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H15" t="n">
         <v>2.21180706849303</v>
@@ -1662,10 +1662,10 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H16" t="n">
         <v>1.65185591191252</v>
@@ -1676,8 +1676,8 @@
       <c r="J16" t="n">
         <v>74</v>
       </c>
-      <c r="K16" t="s">
-        <v>17</v>
+      <c r="K16" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17">
@@ -1767,10 +1767,10 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H19" t="n">
         <v>1.14789987099005</v>
@@ -1781,8 +1781,8 @@
       <c r="J19" t="n">
         <v>49</v>
       </c>
-      <c r="K19" t="e">
-        <v>#N/A</v>
+      <c r="K19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -1942,10 +1942,10 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H24" t="n">
         <v>0.615946272238565</v>
@@ -1956,8 +1956,8 @@
       <c r="J24" t="n">
         <v>27</v>
       </c>
-      <c r="K24" t="s">
-        <v>17</v>
+      <c r="K24" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25">
@@ -2152,10 +2152,10 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H30" t="n">
         <v>0.671941387896617</v>
@@ -2166,8 +2166,8 @@
       <c r="J30" t="n">
         <v>28</v>
       </c>
-      <c r="K30" t="s">
-        <v>17</v>
+      <c r="K30" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31">
@@ -2222,10 +2222,10 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H32" t="n">
         <v>1.76384614322862</v>
@@ -2236,8 +2236,8 @@
       <c r="J32" t="n">
         <v>188</v>
       </c>
-      <c r="K32" t="e">
-        <v>#N/A</v>
+      <c r="K32" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -2257,10 +2257,10 @@
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H33" t="n">
         <v>3.61168495994431</v>
@@ -2271,8 +2271,8 @@
       <c r="J33" t="n">
         <v>158</v>
       </c>
-      <c r="K33" t="e">
-        <v>#N/A</v>
+      <c r="K33" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -2295,7 +2295,7 @@
         <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H34" t="n">
         <v>0.839926734870771</v>
@@ -2362,10 +2362,10 @@
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H36" t="n">
         <v>0.643943830067591</v>
@@ -2376,8 +2376,8 @@
       <c r="J36" t="n">
         <v>26</v>
       </c>
-      <c r="K36" t="s">
-        <v>17</v>
+      <c r="K36" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37">
@@ -2400,7 +2400,7 @@
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H37" t="n">
         <v>0.503956040922462</v>
@@ -2467,10 +2467,10 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H39" t="n">
         <v>2.49178264678329</v>
@@ -2481,8 +2481,8 @@
       <c r="J39" t="n">
         <v>94</v>
       </c>
-      <c r="K39" t="s">
-        <v>17</v>
+      <c r="K39" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40">
@@ -2677,10 +2677,10 @@
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H45" t="n">
         <v>0.39196580960636</v>
@@ -2691,8 +2691,8 @@
       <c r="J45" t="n">
         <v>19</v>
       </c>
-      <c r="K45" t="e">
-        <v>#N/A</v>
+      <c r="K45" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46">
@@ -2747,10 +2747,10 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H47" t="n">
         <v>0.811929177041745</v>
@@ -2761,8 +2761,8 @@
       <c r="J47" t="n">
         <v>34</v>
       </c>
-      <c r="K47" t="e">
-        <v>#N/A</v>
+      <c r="K47" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
@@ -2852,10 +2852,10 @@
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H50" t="n">
         <v>0.615946272238565</v>
@@ -2866,8 +2866,8 @@
       <c r="J50" t="n">
         <v>24</v>
       </c>
-      <c r="K50" t="e">
-        <v>#N/A</v>
+      <c r="K50" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51">
@@ -2887,10 +2887,10 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H51" t="n">
         <v>1.00791208184492</v>
@@ -2901,8 +2901,8 @@
       <c r="J51" t="n">
         <v>43</v>
       </c>
-      <c r="K51" t="e">
-        <v>#N/A</v>
+      <c r="K51" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52">
@@ -2957,10 +2957,10 @@
         <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H53" t="n">
         <v>0.615946272238565</v>
@@ -2971,8 +2971,8 @@
       <c r="J53" t="n">
         <v>36</v>
       </c>
-      <c r="K53" t="s">
-        <v>17</v>
+      <c r="K53" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54">
@@ -3170,7 +3170,7 @@
         <v>15</v>
       </c>
       <c r="G59" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H59" t="n">
         <v>0.223980462632206</v>
@@ -3342,10 +3342,10 @@
         <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G64" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H64" t="n">
         <v>2.12781439500595</v>
@@ -3356,8 +3356,8 @@
       <c r="J64" t="n">
         <v>90</v>
       </c>
-      <c r="K64" t="s">
-        <v>17</v>
+      <c r="K64" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65">
@@ -3482,10 +3482,10 @@
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H68" t="n">
         <v>0.363968251777334</v>
@@ -3496,8 +3496,8 @@
       <c r="J68" t="n">
         <v>15</v>
       </c>
-      <c r="K68" t="e">
-        <v>#N/A</v>
+      <c r="K68" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69">
@@ -3657,10 +3657,10 @@
         <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G73" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H73" t="n">
         <v>0.307973136119283</v>
@@ -3671,8 +3671,8 @@
       <c r="J73" t="n">
         <v>14</v>
       </c>
-      <c r="K73" t="s">
-        <v>17</v>
+      <c r="K73" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="74">
@@ -4007,10 +4007,10 @@
         <v>20</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G83" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H83" t="n">
         <v>0.363968251777334</v>
@@ -4021,8 +4021,8 @@
       <c r="J83" t="n">
         <v>20</v>
       </c>
-      <c r="K83" t="s">
-        <v>17</v>
+      <c r="K83" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="84">

--- a/analyses/07-additional_figures/output/hgat_tmb_mut_counts_sigs_tel_df.xlsx
+++ b/analyses/07-additional_figures/output/hgat_tmb_mut_counts_sigs_tel_df.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
   <si>
     <t xml:space="preserve">Kids_First_Biospecimen_ID_DNA</t>
   </si>
@@ -41,10 +41,37 @@
     <t xml:space="preserve">log2_mut_count</t>
   </si>
   <si>
-    <t xml:space="preserve">mut_count</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hugo_Symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">telomerase_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RefSig_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RefSig_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RefSig_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RefSig_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RefSig_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RefSig_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RefSig_MMR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RefSig_N6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other signatures</t>
   </si>
   <si>
     <t xml:space="preserve">BS_20TBZG09</t>
@@ -1154,28 +1181,55 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
         <v>1.30551947713444</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
         <v>307.049216710925</v>
@@ -1183,34 +1237,61 @@
       <c r="I2" t="n">
         <v>13.0778171208959</v>
       </c>
-      <c r="J2" t="n">
-        <v>8646</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.571873002278057</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0697604790628198</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.165075926753433</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.645685466825502</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0641460245322681</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.055332102825977</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B3" t="e">
         <v>#N/A</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>0.892867449440256</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H3" t="n">
         <v>0.139987789145128</v>
@@ -1218,34 +1299,61 @@
       <c r="I3" t="n">
         <v>3.90689059560852</v>
       </c>
-      <c r="J3" t="n">
-        <v>15</v>
+      <c r="J3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K3" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.334453468112554</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.10089271395975</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.162475212160087</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.16885311626284</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.16805313844356</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0652723510612085</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
         <v>1.42688611222043</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
         <v>187.387654549669</v>
@@ -1253,34 +1361,61 @@
       <c r="I4" t="n">
         <v>12.5008418795569</v>
       </c>
-      <c r="J4" t="n">
-        <v>5796</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.570815120485353</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0837204010206548</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.082170512139978</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.510992389173822</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.286197211002525</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0369194866630197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
         <v>1.49438953400914</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
         <v>274.488056955768</v>
@@ -1288,34 +1423,61 @@
       <c r="I5" t="n">
         <v>12.8063482267123</v>
       </c>
-      <c r="J5" t="n">
-        <v>7163</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.454679866017166</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.251825928625267</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0815253292217893</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.323738675871913</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0790806883320622</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.263829377948969</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
         <v>1.9045233498792</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
         <v>7.75532351864012</v>
@@ -1323,34 +1485,61 @@
       <c r="I6" t="n">
         <v>8.19475685442225</v>
       </c>
-      <c r="J6" t="n">
-        <v>293</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.529313271501999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.72473350143774</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.211503531592911</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0637629669693487</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
         <v>2.12785443188844</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H7" t="n">
         <v>1.11990231316103</v>
@@ -1358,34 +1547,61 @@
       <c r="I7" t="n">
         <v>5.4594316186373</v>
       </c>
-      <c r="J7" t="n">
-        <v>44</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.531683566137128</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.176538635123366</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.685278098272759</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0835252770571148</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0546579895467605</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D8" t="n">
         <v>1.49313856463679</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H8" t="n">
         <v>4.73158727310534</v>
@@ -1393,34 +1609,61 @@
       <c r="I8" t="n">
         <v>7.58496250072116</v>
       </c>
-      <c r="J8" t="n">
-        <v>192</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.529058895321795</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.775035702115365</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.191042033464313</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.0339222644203223</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
         <v>1.10358853243914</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H9" t="n">
         <v>15.4826494794512</v>
@@ -1428,34 +1671,61 @@
       <c r="I9" t="n">
         <v>9.16239132875691</v>
       </c>
-      <c r="J9" t="n">
-        <v>573</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.549328326777937</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.747059918129611</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.189105061464373</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.0638350204060155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D10" t="n">
         <v>0.761383218672575</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H10" t="n">
         <v>0.531953598751488</v>
@@ -1463,34 +1733,61 @@
       <c r="I10" t="n">
         <v>4.4594316186373</v>
       </c>
-      <c r="J10" t="n">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.381370593119562</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0828187158992442</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.165144037701407</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.391468403017733</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.179237879058704</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0737985029811942</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.107532461341718</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D11" t="n">
         <v>0.366265200539345</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H11" t="n">
         <v>1.00791208184492</v>
@@ -1498,34 +1795,61 @@
       <c r="I11" t="n">
         <v>5.90689059560852</v>
       </c>
-      <c r="J11" t="n">
-        <v>60</v>
-      </c>
-      <c r="K11" t="e">
-        <v>#N/A</v>
+      <c r="J11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.429811768093937</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.503549175712259</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.342881664544902</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.15356915974284</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B12" t="e">
         <v>#N/A</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D12" t="n">
         <v>3.04285034754224</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H12" t="n">
         <v>0.475958483093437</v>
@@ -1533,34 +1857,61 @@
       <c r="I12" t="n">
         <v>4.32192809488736</v>
       </c>
-      <c r="J12" t="n">
-        <v>20</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.265583989584329</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.177848933899108</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.445687311876346</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.110879764640218</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D13" t="n">
         <v>3.43674119313015</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H13" t="n">
         <v>0.923919408357848</v>
@@ -1568,34 +1919,61 @@
       <c r="I13" t="n">
         <v>5.20945336562895</v>
       </c>
-      <c r="J13" t="n">
-        <v>37</v>
-      </c>
-      <c r="K13" t="e">
-        <v>#N/A</v>
+      <c r="J13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.535327213327537</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0925799157475719</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0757558707683777</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.191761198324725</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.14591941716309</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.271829242178154</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.115249394891803</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.106904960926279</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B14" t="e">
         <v>#N/A</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D14" t="n">
         <v>0.744840196923758</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H14" t="n">
         <v>0.503956040922462</v>
@@ -1603,34 +1981,61 @@
       <c r="I14" t="n">
         <v>4.4594316186373</v>
       </c>
-      <c r="J14" t="n">
-        <v>22</v>
+      <c r="J14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K14" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.215880590098165</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.426273641853423</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.151624815868599</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0936827520239467</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.112538200155867</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D15" t="n">
         <v>1.19818573822931</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H15" t="n">
         <v>2.21180706849303</v>
@@ -1638,34 +2043,61 @@
       <c r="I15" t="n">
         <v>6.5077946401987</v>
       </c>
-      <c r="J15" t="n">
-        <v>91</v>
-      </c>
-      <c r="K15" t="s">
-        <v>17</v>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.464521382425448</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.188179851974447</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.181146830438943</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.577515679154303</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.0531576384323073</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D16" t="n">
         <v>0.603105148336912</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H16" t="n">
         <v>1.65185591191252</v>
@@ -1673,34 +2105,61 @@
       <c r="I16" t="n">
         <v>6.20945336562895</v>
       </c>
-      <c r="J16" t="n">
-        <v>74</v>
-      </c>
-      <c r="K16" t="e">
-        <v>#N/A</v>
+      <c r="J16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.537158894358265</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.342357710509817</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.6078963112825</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.0497459782076837</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D17" t="n">
         <v>0.457387495384936</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H17" t="n">
         <v>0.587948714409539</v>
@@ -1708,34 +2167,61 @@
       <c r="I17" t="n">
         <v>4.64385618977472</v>
       </c>
-      <c r="J17" t="n">
-        <v>25</v>
-      </c>
-      <c r="K17" t="e">
-        <v>#N/A</v>
+      <c r="J17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.465290036941175</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.143793139343376</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.16016076534176</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0996879603561902</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.220793192647928</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.20564242770529</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.115272050826958</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.0546504637784985</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D18" t="n">
         <v>1.15543569807249</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H18" t="n">
         <v>0.643943830067591</v>
@@ -1743,34 +2229,61 @@
       <c r="I18" t="n">
         <v>4.8073549220576</v>
       </c>
-      <c r="J18" t="n">
-        <v>28</v>
-      </c>
-      <c r="K18" t="e">
-        <v>#N/A</v>
+      <c r="J18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.515722713008091</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.160546797083476</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0953089921426336</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.119349880408728</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.106028032451864</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.206734086544961</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.222247364680321</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.0897848466880165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D19" t="n">
         <v>2.62558793175662</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H19" t="n">
         <v>1.14789987099005</v>
@@ -1778,34 +2291,61 @@
       <c r="I19" t="n">
         <v>5.61470984411521</v>
       </c>
-      <c r="J19" t="n">
-        <v>49</v>
-      </c>
-      <c r="K19" t="s">
-        <v>17</v>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.196574062165857</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.282885125623585</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0921683435356933</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.118296886374186</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.096901027724683</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.147536418135327</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.0934264684523389</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.109727196716572</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.0590585334376148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B20" t="e">
         <v>#N/A</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D20" t="n">
         <v>0.905929830263928</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H20" t="n">
         <v>0.223980462632206</v>
@@ -1813,34 +2353,61 @@
       <c r="I20" t="n">
         <v>3.4594316186373</v>
       </c>
-      <c r="J20" t="n">
-        <v>11</v>
+      <c r="J20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K20" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.145281431113922</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0652881947268414</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.171027068352983</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.236877281211508</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.180799375693473</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.10921378066037</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.0714711901164689</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.0200416781244339</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D21" t="n">
         <v>0.895720234771243</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H21" t="n">
         <v>0.0839926734870771</v>
@@ -1848,34 +2415,61 @@
       <c r="I21" t="n">
         <v>2</v>
       </c>
-      <c r="J21" t="n">
-        <v>4</v>
-      </c>
-      <c r="K21" t="e">
-        <v>#N/A</v>
+      <c r="J21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.326000478991198</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0830827085692397</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.114577665539355</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.120050819970376</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.205530225459334</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.130480576489236</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.306573533906154</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.0397044700663067</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D22" t="n">
         <v>0.954150550892822</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H22" t="n">
         <v>0.727936503554668</v>
@@ -1883,34 +2477,61 @@
       <c r="I22" t="n">
         <v>5.16992500144231</v>
       </c>
-      <c r="J22" t="n">
-        <v>36</v>
-      </c>
-      <c r="K22" t="e">
-        <v>#N/A</v>
+      <c r="J22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.39790533951934</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.39985647773547</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.444840344339437</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.155303177925093</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D23" t="n">
         <v>0.862448544389736</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H23" t="n">
         <v>0.279975578290257</v>
@@ -1918,34 +2539,61 @@
       <c r="I23" t="n">
         <v>3.90689059560852</v>
       </c>
-      <c r="J23" t="n">
-        <v>15</v>
-      </c>
-      <c r="K23" t="e">
-        <v>#N/A</v>
+      <c r="J23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.57773596166521</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.101041879251109</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.248198125786166</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.206290481601653</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.324145729477689</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.0728318544940469</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.0474919293893359</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D24" t="n">
         <v>3.88902941072736</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H24" t="n">
         <v>0.615946272238565</v>
@@ -1953,34 +2601,61 @@
       <c r="I24" t="n">
         <v>4.75488750216347</v>
       </c>
-      <c r="J24" t="n">
-        <v>27</v>
-      </c>
-      <c r="K24" t="e">
-        <v>#N/A</v>
+      <c r="J24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.238692321358866</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.178038934231362</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.192224261434057</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.185488313516258</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.196195678849981</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.0937103151313331</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.0836452463124143</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.0706972505245949</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D25" t="n">
         <v>2.21840119242882</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H25" t="n">
         <v>0.895921850528822</v>
@@ -1988,34 +2663,61 @@
       <c r="I25" t="n">
         <v>5.24792751344359</v>
       </c>
-      <c r="J25" t="n">
-        <v>38</v>
-      </c>
-      <c r="K25" t="e">
-        <v>#N/A</v>
+      <c r="J25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.694759144239012</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.208048281599286</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.112037943687474</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.0842330665581947</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.347470707369169</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.130047184641323</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.118162816144553</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D26" t="n">
         <v>1.02548778504827</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H26" t="n">
         <v>0.615946272238565</v>
@@ -2023,34 +2725,61 @@
       <c r="I26" t="n">
         <v>4.75488750216347</v>
       </c>
-      <c r="J26" t="n">
-        <v>27</v>
-      </c>
-      <c r="K26" t="e">
-        <v>#N/A</v>
+      <c r="J26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.739487272946599</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.25505525964931</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.444193213492573</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.138936514246588</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.16181501261153</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D27" t="n">
         <v>0.577817262307432</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H27" t="n">
         <v>1.79184370105764</v>
@@ -2058,34 +2787,61 @@
       <c r="I27" t="n">
         <v>6.04439411935845</v>
       </c>
-      <c r="J27" t="n">
-        <v>66</v>
-      </c>
-      <c r="K27" t="e">
-        <v>#N/A</v>
+      <c r="J27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.442138413607538</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B28" t="e">
         <v>#N/A</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D28" t="n">
         <v>0.914171892157005</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H28" t="n">
         <v>0.167985346974154</v>
@@ -2093,34 +2849,61 @@
       <c r="I28" t="n">
         <v>3</v>
       </c>
-      <c r="J28" t="n">
-        <v>8</v>
+      <c r="J28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K28" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.148811517647993</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0978420211213368</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.314480654566577</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.100139148277073</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.112331832914823</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.207200138072619</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.0191946873995777</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D29" t="n">
         <v>10.8446102499431</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H29" t="n">
         <v>1.53986568059641</v>
@@ -2128,34 +2911,61 @@
       <c r="I29" t="n">
         <v>6</v>
       </c>
-      <c r="J29" t="n">
-        <v>64</v>
-      </c>
-      <c r="K29" t="e">
-        <v>#N/A</v>
+      <c r="J29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.579794071465646</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.117334264181262</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.15437405584988</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.668233209328069</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.0600584706407892</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D30" t="n">
         <v>0.665158321428583</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H30" t="n">
         <v>0.671941387896617</v>
@@ -2163,34 +2973,61 @@
       <c r="I30" t="n">
         <v>4.8073549220576</v>
       </c>
-      <c r="J30" t="n">
-        <v>28</v>
-      </c>
-      <c r="K30" t="e">
-        <v>#N/A</v>
+      <c r="J30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.343950291802219</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.142525070960292</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.575693913219956</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.162289091466054</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.119491924353698</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D31" t="n">
         <v>1.28207794360592</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H31" t="n">
         <v>0.727936503554668</v>
@@ -2198,34 +3035,61 @@
       <c r="I31" t="n">
         <v>4.90689059560852</v>
       </c>
-      <c r="J31" t="n">
-        <v>30</v>
-      </c>
-      <c r="K31" t="e">
-        <v>#N/A</v>
+      <c r="J31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.36957080828844</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.203489888533343</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.63303396138743</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0621587239845932</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.101317426094634</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D32" t="n">
         <v>1.4264807075319</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H32" t="n">
         <v>1.76384614322862</v>
@@ -2233,34 +3097,61 @@
       <c r="I32" t="n">
         <v>7.55458885167764</v>
       </c>
-      <c r="J32" t="n">
-        <v>188</v>
-      </c>
-      <c r="K32" t="s">
-        <v>17</v>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.44379977109777</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.260347486623863</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.210969600029516</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.171933329445916</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.11650075364736</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.105514702541963</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.134734127711382</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D33" t="n">
         <v>1.31325462645445</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H33" t="n">
         <v>3.61168495994431</v>
@@ -2268,34 +3159,61 @@
       <c r="I33" t="n">
         <v>7.3037807481771</v>
       </c>
-      <c r="J33" t="n">
-        <v>158</v>
-      </c>
-      <c r="K33" t="s">
-        <v>17</v>
+      <c r="J33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.375529368735504</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.0667706039071562</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.537290236189042</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.0951092542705688</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.101712546452514</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.140752677006405</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.0583646821743145</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D34" t="n">
         <v>1.45958969808778</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H34" t="n">
         <v>0.839926734870771</v>
@@ -2303,34 +3221,61 @@
       <c r="I34" t="n">
         <v>5.12928301694497</v>
       </c>
-      <c r="J34" t="n">
-        <v>35</v>
-      </c>
-      <c r="K34" t="s">
-        <v>17</v>
+      <c r="J34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.569560120565352</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0744308586431424</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0702618447415919</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.143002828939938</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.131911093852583</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.27753147229363</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.0905766243717345</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.175636309759981</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.0366489673973985</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D35" t="n">
         <v>0.623158042621522</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H35" t="n">
         <v>0.363968251777334</v>
@@ -2338,34 +3283,61 @@
       <c r="I35" t="n">
         <v>3.8073549220576</v>
       </c>
-      <c r="J35" t="n">
-        <v>14</v>
-      </c>
-      <c r="K35" t="e">
-        <v>#N/A</v>
+      <c r="J35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.510743783594519</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.262099431304233</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.311422400571269</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.179913145145213</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.0745670130494222</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.171998009929863</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D36" t="n">
         <v>0.585997921932767</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H36" t="n">
         <v>0.643943830067591</v>
@@ -2373,34 +3345,61 @@
       <c r="I36" t="n">
         <v>4.70043971814109</v>
       </c>
-      <c r="J36" t="n">
-        <v>26</v>
-      </c>
-      <c r="K36" t="e">
-        <v>#N/A</v>
+      <c r="J36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.467148540964538</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0723245946964431</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.3622156142764</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.189775254643861</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.0769878260750522</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.135094460059115</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.117238163869331</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.0463640863797992</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D37" t="n">
         <v>1.98723126828428</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H37" t="n">
         <v>0.503956040922462</v>
@@ -2408,34 +3407,61 @@
       <c r="I37" t="n">
         <v>4.32192809488736</v>
       </c>
-      <c r="J37" t="n">
-        <v>20</v>
-      </c>
-      <c r="K37" t="s">
-        <v>17</v>
+      <c r="J37" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.623776473962117</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.136363883159419</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.11769634830023</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.380846557632526</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.154537748504795</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.21055546240303</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D38" t="n">
         <v>0.929450577157592</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H38" t="n">
         <v>1.9598290480318</v>
@@ -2443,34 +3469,61 @@
       <c r="I38" t="n">
         <v>6.24792751344359</v>
       </c>
-      <c r="J38" t="n">
-        <v>76</v>
-      </c>
-      <c r="K38" t="e">
-        <v>#N/A</v>
+      <c r="J38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.771731681526181</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0846522272353416</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.0627685505952238</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.0804190334806037</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.216443603345105</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.321030797259351</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.0777435454671102</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.134924222081901</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.0220180205353636</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D39" t="n">
         <v>8.82222841823438</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H39" t="n">
         <v>2.49178264678329</v>
@@ -2478,34 +3531,61 @@
       <c r="I39" t="n">
         <v>6.55458885167764</v>
       </c>
-      <c r="J39" t="n">
-        <v>94</v>
-      </c>
-      <c r="K39" t="e">
-        <v>#N/A</v>
+      <c r="J39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.283942729670415</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.166284405361149</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.061807995350476</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.257961415613033</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.14874397032413</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.11759747748489</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.24760472449392</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.0000000113724023531603</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D40" t="n">
         <v>0.665895723080379</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H40" t="n">
         <v>1.00791208184492</v>
@@ -2513,34 +3593,61 @@
       <c r="I40" t="n">
         <v>5.35755200461808</v>
       </c>
-      <c r="J40" t="n">
-        <v>41</v>
-      </c>
-      <c r="K40" t="e">
-        <v>#N/A</v>
+      <c r="J40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.669429405437427</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.237379885479665</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.0794454036015839</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.392340677704627</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.12776301583957</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.163071017374554</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D41" t="n">
         <v>0.768361612323582</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H41" t="n">
         <v>0.0279975578290257</v>
@@ -2548,34 +3655,61 @@
       <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="J41" t="n">
-        <v>2</v>
-      </c>
-      <c r="K41" t="e">
-        <v>#N/A</v>
+      <c r="J41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.36707426386722</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.164339185089231</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.284412466889771</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.220514304472485</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.153567216441294</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.108470423389898</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.0686964037173203</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D42" t="n">
         <v>0.409013987468199</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H42" t="n">
         <v>0.587948714409539</v>
@@ -2583,34 +3717,61 @@
       <c r="I42" t="n">
         <v>4.8073549220576</v>
       </c>
-      <c r="J42" t="n">
-        <v>28</v>
-      </c>
-      <c r="K42" t="e">
-        <v>#N/A</v>
+      <c r="J42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.448192683601946</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0626309675552648</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.340117157017897</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.0613282673514007</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.0733155248788837</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.25520191369757</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.173586381337026</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.0338197881619576</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B43" t="e">
         <v>#N/A</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D43" t="n">
         <v>0.723145899527039</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H43" t="n">
         <v>0.419963367435385</v>
@@ -2618,34 +3779,61 @@
       <c r="I43" t="n">
         <v>4.70043971814109</v>
       </c>
-      <c r="J43" t="n">
-        <v>26</v>
+      <c r="J43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K43" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.220607087259939</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.153032773676259</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.0642898760512596</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.0972878189016665</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.453318373197066</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.0114640709138102</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B44" t="e">
         <v>#N/A</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D44" t="n">
         <v>0.478672360955709</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H44" t="n">
         <v>0.167985346974154</v>
@@ -2653,34 +3841,61 @@
       <c r="I44" t="n">
         <v>3</v>
       </c>
-      <c r="J44" t="n">
-        <v>8</v>
+      <c r="J44" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K44" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.1589277747914</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.277678350113149</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.0917617066861896</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.173262137410311</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.0934215043171327</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.108601164117549</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.0963473625642688</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B45" t="e">
         <v>#N/A</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D45" t="n">
         <v>1.61098261110919</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H45" t="n">
         <v>0.39196580960636</v>
@@ -2688,34 +3903,61 @@
       <c r="I45" t="n">
         <v>4.24792751344359</v>
       </c>
-      <c r="J45" t="n">
-        <v>19</v>
-      </c>
-      <c r="K45" t="s">
-        <v>17</v>
+      <c r="J45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.119556069881742</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.163210527273295</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.0994514841734072</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.332465345635853</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.108188190093037</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.0838369516759494</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.0932914312667161</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B46" t="e">
         <v>#N/A</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D46" t="n">
         <v>0.564259763952774</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H46" t="n">
         <v>0.307973136119283</v>
@@ -2723,34 +3965,61 @@
       <c r="I46" t="n">
         <v>4.16992500144231</v>
       </c>
-      <c r="J46" t="n">
-        <v>18</v>
+      <c r="J46" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K46" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.295352078091409</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.40424174601184</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.155573311845612</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.144832864051139</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D47" t="n">
         <v>2.65534910941505</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H47" t="n">
         <v>0.811929177041745</v>
@@ -2758,34 +4027,61 @@
       <c r="I47" t="n">
         <v>5.08746284125034</v>
       </c>
-      <c r="J47" t="n">
-        <v>34</v>
-      </c>
-      <c r="K47" t="s">
-        <v>17</v>
+      <c r="J47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.569510042618928</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.0974558361109378</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.190832739139053</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.471430230588372</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.166457523765244</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.0738236703963927</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D48" t="n">
         <v>0.911126491571772</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H48" t="n">
         <v>0.895921850528822</v>
@@ -2793,34 +4089,61 @@
       <c r="I48" t="n">
         <v>5</v>
       </c>
-      <c r="J48" t="n">
-        <v>32</v>
-      </c>
-      <c r="K48" t="e">
-        <v>#N/A</v>
+      <c r="J48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.752475929785222</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.472886905119284</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0678593020165138</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.154963943608184</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.281897875765768</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.0223919734902498</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B49" t="e">
         <v>#N/A</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D49" t="n">
         <v>0.596986134005091</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H49" t="n">
         <v>1.06390719750298</v>
@@ -2828,34 +4151,61 @@
       <c r="I49" t="n">
         <v>5.39231742277876</v>
       </c>
-      <c r="J49" t="n">
-        <v>42</v>
+      <c r="J49" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K49" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0750720955602486</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.1358204941791</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.10330370283304</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.193193659081989</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.261994880160738</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.175264842651821</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.0553503255330637</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B50" t="e">
         <v>#N/A</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D50" t="n">
         <v>1.7968473065668</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H50" t="n">
         <v>0.615946272238565</v>
@@ -2863,34 +4213,61 @@
       <c r="I50" t="n">
         <v>4.58496250072116</v>
       </c>
-      <c r="J50" t="n">
-        <v>24</v>
-      </c>
-      <c r="K50" t="s">
-        <v>17</v>
+      <c r="J50" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.145729053005684</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.232068950362349</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.338749311671368</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.11282083178813</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.170631853172469</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D51" t="n">
         <v>4.85940326913163</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G51" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H51" t="n">
         <v>1.00791208184492</v>
@@ -2898,34 +4275,61 @@
       <c r="I51" t="n">
         <v>5.4262647547021</v>
       </c>
-      <c r="J51" t="n">
-        <v>43</v>
-      </c>
-      <c r="K51" t="s">
-        <v>17</v>
+      <c r="J51" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.76895318071392</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.122334407250177</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.125737972397606</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.501687310455756</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.15763891353997</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.0926013963564916</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D52" t="n">
         <v>1.0679414088142</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H52" t="n">
         <v>0.503956040922462</v>
@@ -2933,34 +4337,61 @@
       <c r="I52" t="n">
         <v>4.70043971814109</v>
       </c>
-      <c r="J52" t="n">
-        <v>26</v>
-      </c>
-      <c r="K52" t="e">
-        <v>#N/A</v>
+      <c r="J52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.615773498394946</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.135680831697954</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.0657526009589426</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.503086529748005</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.124438935694344</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.112372336518937</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.0586687653818174</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D53" t="n">
         <v>0.330097988969208</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H53" t="n">
         <v>0.615946272238565</v>
@@ -2968,34 +4399,61 @@
       <c r="I53" t="n">
         <v>5.16992500144231</v>
       </c>
-      <c r="J53" t="n">
-        <v>36</v>
-      </c>
-      <c r="K53" t="e">
-        <v>#N/A</v>
+      <c r="J53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.427110862734588</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.128228531676709</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.108851598792196</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.425726991280174</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.0977156307044159</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.135875893808304</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.1036013537382</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C54" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D54" t="n">
         <v>0.407527437990096</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H54" t="n">
         <v>1.70785102757057</v>
@@ -3003,34 +4461,61 @@
       <c r="I54" t="n">
         <v>6.16992500144231</v>
       </c>
-      <c r="J54" t="n">
-        <v>72</v>
-      </c>
-      <c r="K54" t="e">
-        <v>#N/A</v>
+      <c r="J54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.575505938760336</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0656738080631759</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.152769056616453</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.142720077322932</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.210609360603555</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.110994797722278</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.256001435543513</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.0612314641280916</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D55" t="n">
         <v>1.07733795771883</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H55" t="n">
         <v>1.23189254447713</v>
@@ -3038,34 +4523,61 @@
       <c r="I55" t="n">
         <v>5.52356195605701</v>
       </c>
-      <c r="J55" t="n">
-        <v>46</v>
-      </c>
-      <c r="K55" t="e">
-        <v>#N/A</v>
+      <c r="J55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.449093295038004</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.08463789634056</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.223364362244255</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.407244606117607</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.115866562926195</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.112807377626826</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.0560791947445571</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D56" t="n">
         <v>0.953363674208554</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H56" t="n">
         <v>0.279975578290257</v>
@@ -3073,34 +4585,61 @@
       <c r="I56" t="n">
         <v>3.58496250072116</v>
       </c>
-      <c r="J56" t="n">
-        <v>12</v>
-      </c>
-      <c r="K56" t="e">
-        <v>#N/A</v>
+      <c r="J56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.637965512856903</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.360043025825591</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.0697848667329232</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.323935720918134</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.0812577870084943</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.126673366733137</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.0383052327817197</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B57" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D57" t="n">
         <v>0.882805463561211</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H57" t="n">
         <v>0.643943830067591</v>
@@ -3108,34 +4647,61 @@
       <c r="I57" t="n">
         <v>4.95419631038687</v>
       </c>
-      <c r="J57" t="n">
-        <v>31</v>
-      </c>
-      <c r="K57" t="e">
-        <v>#N/A</v>
+      <c r="J57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.808473165895148</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.0793707864444697</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.0664122191873731</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.212278883274887</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.354654181544493</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.202532629880316</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.084751299668461</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B58" t="e">
         <v>#N/A</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D58" t="n">
         <v>0.708349747091901</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H58" t="n">
         <v>0.503956040922462</v>
@@ -3143,34 +4709,61 @@
       <c r="I58" t="n">
         <v>4.64385618977472</v>
       </c>
-      <c r="J58" t="n">
-        <v>25</v>
+      <c r="J58" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K58" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.0764003435841411</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.264910091055278</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.0935240193023368</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.267460645468661</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.147362327939145</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.108377354132105</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.0419652185183339</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D59" t="n">
         <v>1.73296055907925</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G59" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H59" t="n">
         <v>0.223980462632206</v>
@@ -3178,34 +4771,61 @@
       <c r="I59" t="n">
         <v>3.8073549220576</v>
       </c>
-      <c r="J59" t="n">
-        <v>14</v>
-      </c>
-      <c r="K59" t="s">
-        <v>17</v>
+      <c r="J59" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.62407659609205</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.0610205842784469</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.095706354431257</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.17693040358603</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.36292185578016</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.136420537475511</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.0895614154092224</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.0774388490393725</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B60" t="e">
         <v>#N/A</v>
       </c>
       <c r="C60" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D60" t="n">
         <v>0.765076784764917</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H60" t="n">
         <v>0.111990231316103</v>
@@ -3213,34 +4833,61 @@
       <c r="I60" t="n">
         <v>3</v>
       </c>
-      <c r="J60" t="n">
-        <v>8</v>
+      <c r="J60" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K60" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.279863412518065</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.0752031023131815</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.150503062695286</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.067722537083597</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.111266978313812</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.211562747648098</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.103878135240894</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.0000000241870663497679</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B61" t="e">
         <v>#N/A</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D61" t="n">
         <v>1.08950264868542</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H61" t="n">
         <v>0.19598290480318</v>
@@ -3248,34 +4895,61 @@
       <c r="I61" t="n">
         <v>4</v>
       </c>
-      <c r="J61" t="n">
-        <v>16</v>
+      <c r="J61" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K61" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.101573697014105</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.138200236936824</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.116267430491875</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.114008341526327</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.238258311321791</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.103972013734983</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.136592620508165</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.0511273484659296</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D62" t="n">
         <v>3.04039166135154</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H62" t="n">
         <v>0.643943830067591</v>
@@ -3283,34 +4957,61 @@
       <c r="I62" t="n">
         <v>4.70043971814109</v>
       </c>
-      <c r="J62" t="n">
-        <v>26</v>
-      </c>
-      <c r="K62" t="e">
-        <v>#N/A</v>
+      <c r="J62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.49150485279403</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.0663369339961934</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.425301172176932</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.35119215850877</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.113188256260382</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.0439814790577218</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B63" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C63" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D63" t="n">
         <v>0.828368248951573</v>
       </c>
       <c r="E63" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H63" t="n">
         <v>0.0559951156580514</v>
@@ -3318,34 +5019,61 @@
       <c r="I63" t="n">
         <v>2.58496250072116</v>
       </c>
-      <c r="J63" t="n">
-        <v>6</v>
-      </c>
-      <c r="K63" t="e">
-        <v>#N/A</v>
+      <c r="J63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.549162269366051</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.250782011206616</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.111471879530442</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.120779885111439</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.247115544963874</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.10315647754105</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.0874363754789994</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.0792578261675805</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B64" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C64" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D64" t="n">
         <v>0.388138255821767</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H64" t="n">
         <v>2.12781439500595</v>
@@ -3353,34 +5081,61 @@
       <c r="I64" t="n">
         <v>6.49185309632967</v>
       </c>
-      <c r="J64" t="n">
-        <v>90</v>
-      </c>
-      <c r="K64" t="e">
-        <v>#N/A</v>
+      <c r="J64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.572644393416624</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.128839507628334</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.821218976440908</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.0499415159307577</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C65" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D65" t="n">
         <v>0.674959180648736</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H65" t="n">
         <v>0.419963367435385</v>
@@ -3388,34 +5143,61 @@
       <c r="I65" t="n">
         <v>4</v>
       </c>
-      <c r="J65" t="n">
-        <v>16</v>
-      </c>
-      <c r="K65" t="e">
-        <v>#N/A</v>
+      <c r="J65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.699064292560397</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.310140744362781</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.068936002813622</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.213096875782795</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.135272839158107</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.128113552085235</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.0744813049292694</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.0699586808681902</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B66" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D66" t="n">
         <v>0.775241276378305</v>
       </c>
       <c r="E66" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H66" t="n">
         <v>0.699938945725642</v>
@@ -3423,34 +5205,61 @@
       <c r="I66" t="n">
         <v>4.85798099512757</v>
       </c>
-      <c r="J66" t="n">
-        <v>29</v>
-      </c>
-      <c r="K66" t="e">
-        <v>#N/A</v>
+      <c r="J66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.631004972671502</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.503332521636299</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.0614578925365872</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.213060726659897</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.155699962478648</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.0664488966885677</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B67" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C67" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D67" t="n">
         <v>0.571514974019808</v>
       </c>
       <c r="E67" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H67" t="n">
         <v>0.615946272238565</v>
@@ -3458,34 +5267,61 @@
       <c r="I67" t="n">
         <v>4.70043971814109</v>
       </c>
-      <c r="J67" t="n">
-        <v>26</v>
-      </c>
-      <c r="K67" t="e">
-        <v>#N/A</v>
+      <c r="J67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.64973853521711</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.143833959087215</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.263583588377683</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.150606513852679</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.122545412020891</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.124270161895681</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.106552026574306</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.0886083381915452</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C68" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D68" t="n">
         <v>2.44907726867045</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H68" t="n">
         <v>0.363968251777334</v>
@@ -3493,34 +5329,61 @@
       <c r="I68" t="n">
         <v>3.90689059560852</v>
       </c>
-      <c r="J68" t="n">
-        <v>15</v>
-      </c>
-      <c r="K68" t="s">
-        <v>17</v>
+      <c r="J68" t="s">
+        <v>26</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.392024954986044</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.156744106069701</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.37108376457957</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.099895946681261</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.353708792576723</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.0185673900927451</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B69" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C69" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D69" t="n">
         <v>0.729525469501158</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H69" t="n">
         <v>0.615946272238565</v>
@@ -3528,34 +5391,61 @@
       <c r="I69" t="n">
         <v>4.8073549220576</v>
       </c>
-      <c r="J69" t="n">
-        <v>28</v>
-      </c>
-      <c r="K69" t="e">
-        <v>#N/A</v>
+      <c r="J69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.596633706208732</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.537439335647318</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.106513851960041</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.348315999690963</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.00773081270167775</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B70" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C70" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D70" t="n">
         <v>2.78010728661349</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H70" t="n">
         <v>0.671941387896617</v>
@@ -3563,34 +5453,61 @@
       <c r="I70" t="n">
         <v>4.90689059560852</v>
       </c>
-      <c r="J70" t="n">
-        <v>30</v>
-      </c>
-      <c r="K70" t="e">
-        <v>#N/A</v>
+      <c r="J70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.757810200911416</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.383538367367422</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.147447337305198</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.179699213983772</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.0945875981196528</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.169009918144339</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.0257175650796155</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B71" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C71" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D71" t="n">
         <v>1.3376016778781</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H71" t="n">
         <v>0.727936503554668</v>
@@ -3598,34 +5515,61 @@
       <c r="I71" t="n">
         <v>4.85798099512757</v>
       </c>
-      <c r="J71" t="n">
-        <v>29</v>
-      </c>
-      <c r="K71" t="e">
-        <v>#N/A</v>
+      <c r="J71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.539957042295368</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.176730012408873</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.0913838694587305</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.163511238499196</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.264571968989742</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.129770776550119</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.0826876733571825</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.0913444607361567</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C72" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D72" t="n">
         <v>1.65241546603447</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H72" t="n">
         <v>0.671941387896617</v>
@@ -3633,34 +5577,61 @@
       <c r="I72" t="n">
         <v>5.16992500144231</v>
       </c>
-      <c r="J72" t="n">
-        <v>36</v>
-      </c>
-      <c r="K72" t="e">
-        <v>#N/A</v>
+      <c r="J72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.478867672178079</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.0614018026497692</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.0930220195820889</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.0681766454197774</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.21704226829776</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.28408838783251</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.108938565874563</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.119621131142618</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.0477091792009136</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B73" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C73" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D73" t="n">
         <v>0.390536916669804</v>
       </c>
       <c r="E73" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H73" t="n">
         <v>0.307973136119283</v>
@@ -3668,34 +5639,61 @@
       <c r="I73" t="n">
         <v>3.8073549220576</v>
       </c>
-      <c r="J73" t="n">
-        <v>14</v>
-      </c>
-      <c r="K73" t="e">
-        <v>#N/A</v>
+      <c r="J73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.666239527934617</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.216947225425474</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.0630713661457646</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.204830814562037</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.122739282172645</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.0958976712093112</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.113702072223855</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.1562966837089</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.0265148845520116</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B74" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D74" t="n">
         <v>0.517582750507118</v>
       </c>
       <c r="E74" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H74" t="n">
         <v>0.587948714409539</v>
@@ -3703,34 +5701,61 @@
       <c r="I74" t="n">
         <v>4.75488750216347</v>
       </c>
-      <c r="J74" t="n">
-        <v>27</v>
-      </c>
-      <c r="K74" t="e">
-        <v>#N/A</v>
+      <c r="J74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.622731566582486</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.112368428954719</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.0693066811271542</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.365029513455725</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.0688816970853302</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.0811070154889089</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.0860055148062056</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.177750628613161</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.0395505204687959</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C75" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D75" t="n">
         <v>0.550419611007771</v>
       </c>
       <c r="E75" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H75" t="n">
         <v>0.363968251777334</v>
@@ -3738,34 +5763,61 @@
       <c r="I75" t="n">
         <v>4</v>
       </c>
-      <c r="J75" t="n">
-        <v>16</v>
-      </c>
-      <c r="K75" t="e">
-        <v>#N/A</v>
+      <c r="J75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.471068959090034</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.570559572604357</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.0625424071376501</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.253797297232868</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.0872841014576835</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.0258166215674416</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B76" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C76" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D76" t="n">
         <v>0.785423033777577</v>
       </c>
       <c r="E76" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H76" t="n">
         <v>0.0839926734870771</v>
@@ -3773,34 +5825,61 @@
       <c r="I76" t="n">
         <v>2.58496250072116</v>
       </c>
-      <c r="J76" t="n">
-        <v>6</v>
-      </c>
-      <c r="K76" t="e">
-        <v>#N/A</v>
+      <c r="J76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.543859344519963</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.270529990333797</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.103583873849176</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.121544192412978</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.0999823299469701</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.118501312631777</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.129065599745378</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.156792701079924</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B77" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C77" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D77" t="n">
         <v>0.453305749936207</v>
       </c>
       <c r="E77" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H77" t="n">
         <v>0.0839926734870771</v>
@@ -3808,34 +5887,61 @@
       <c r="I77" t="n">
         <v>4.16992500144231</v>
       </c>
-      <c r="J77" t="n">
-        <v>18</v>
-      </c>
-      <c r="K77" t="e">
-        <v>#N/A</v>
+      <c r="J77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.356486627033376</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.520970687371845</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.0972256937625451</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.100545720341275</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.151706099482703</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.0970001044119977</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.032551694629633</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B78" t="e">
         <v>#N/A</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D78" t="n">
         <v>3.95948737822802</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H78" t="n">
         <v>0.39196580960636</v>
@@ -3843,34 +5949,61 @@
       <c r="I78" t="n">
         <v>4.32192809488736</v>
       </c>
-      <c r="J78" t="n">
-        <v>20</v>
+      <c r="J78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K78" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.0694034970885765</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.157696415861318</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.134587034365037</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.304079095973372</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.186264963370419</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.103474053638766</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.0444949397025116</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C79" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D79" t="n">
         <v>0.662451416600774</v>
       </c>
       <c r="E79" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H79" t="n">
         <v>0.531953598751488</v>
@@ -3878,34 +6011,61 @@
       <c r="I79" t="n">
         <v>4.90689059560852</v>
       </c>
-      <c r="J79" t="n">
-        <v>30</v>
-      </c>
-      <c r="K79" t="e">
-        <v>#N/A</v>
+      <c r="J79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.620267598057406</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.26528956872205</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.480445572632228</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.0631397529026997</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.191125105743023</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C80" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D80" t="n">
         <v>1.56346077095907</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H80" t="n">
         <v>0.279975578290257</v>
@@ -3913,34 +6073,61 @@
       <c r="I80" t="n">
         <v>3.8073549220576</v>
       </c>
-      <c r="J80" t="n">
-        <v>14</v>
-      </c>
-      <c r="K80" t="e">
-        <v>#N/A</v>
+      <c r="J80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.674694967634554</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.148760535083763</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.191419611143476</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.0809454445061807</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.198194819146278</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.0865242820025566</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.197385851722872</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.0967694563948739</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B81" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C81" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D81" t="n">
         <v>0.724248630404926</v>
       </c>
       <c r="E81" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H81" t="n">
         <v>0.251978020461231</v>
@@ -3948,34 +6135,61 @@
       <c r="I81" t="n">
         <v>3.58496250072116</v>
       </c>
-      <c r="J81" t="n">
-        <v>12</v>
-      </c>
-      <c r="K81" t="e">
-        <v>#N/A</v>
+      <c r="J81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.760571263751836</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.155508635964374</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.0916656313976989</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.204768824569179</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.0868164302487179</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.199049104167971</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.210309335205238</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.0518820384468218</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B82" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C82" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D82" t="n">
         <v>0.988855477993912</v>
       </c>
       <c r="E82" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H82" t="n">
         <v>0.0279975578290257</v>
@@ -3983,34 +6197,61 @@
       <c r="I82" t="n">
         <v>2.8073549220576</v>
       </c>
-      <c r="J82" t="n">
-        <v>7</v>
-      </c>
-      <c r="K82" t="e">
-        <v>#N/A</v>
+      <c r="J82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.257086835506525</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.0764064458988235</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.923593554101176</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.000000000000000111022302462516</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B83" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C83" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D83" t="n">
         <v>0.466801169472898</v>
       </c>
       <c r="E83" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H83" t="n">
         <v>0.363968251777334</v>
@@ -4018,34 +6259,61 @@
       <c r="I83" t="n">
         <v>4.32192809488736</v>
       </c>
-      <c r="J83" t="n">
-        <v>20</v>
-      </c>
-      <c r="K83" t="e">
-        <v>#N/A</v>
+      <c r="J83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.48880709589267</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.0785783128295887</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.0750021473702883</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.172962479086884</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.44042006198329</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.115794368532733</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.0754232691319546</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.0418193610652614</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B84" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C84" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D84" t="n">
         <v>0.935436254064433</v>
       </c>
       <c r="E84" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H84" t="n">
         <v>0.0839926734870771</v>
@@ -4053,34 +6321,61 @@
       <c r="I84" t="n">
         <v>2.58496250072116</v>
       </c>
-      <c r="J84" t="n">
-        <v>6</v>
-      </c>
-      <c r="K84" t="e">
-        <v>#N/A</v>
+      <c r="J84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.263417416871963</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.421856281219284</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.238175344029036</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.122182560086</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.0825144550173773</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.0840604798772543</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.0512108797710477</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B85" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C85" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="D85" t="n">
         <v>0.574163528083403</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H85" t="n">
         <v>0.0279975578290257</v>
@@ -4088,34 +6383,61 @@
       <c r="I85" t="n">
         <v>1.58496250072116</v>
       </c>
-      <c r="J85" t="n">
-        <v>3</v>
-      </c>
-      <c r="K85" t="e">
-        <v>#N/A</v>
+      <c r="J85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.575590445721698</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.527771817465587</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.0872046483395278</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.117060508256837</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.165646281315747</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.102316744622302</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B86" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C86" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D86" t="n">
         <v>0.859182287154718</v>
       </c>
       <c r="E86" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H86" t="n">
         <v>0.0279975578290257</v>
@@ -4123,11 +6445,38 @@
       <c r="I86" t="n">
         <v>1.58496250072116</v>
       </c>
-      <c r="J86" t="n">
-        <v>3</v>
-      </c>
-      <c r="K86" t="e">
-        <v>#N/A</v>
+      <c r="J86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.479093805144225</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.415539791654947</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.158302221030284</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.0773582255260954</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.125230642953602</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.173313921586915</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.050255197248157</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/07-additional_figures/output/hgat_tmb_mut_counts_sigs_tel_df.xlsx
+++ b/analyses/07-additional_figures/output/hgat_tmb_mut_counts_sigs_tel_df.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
   <si>
     <t xml:space="preserve">Kids_First_Biospecimen_ID_DNA</t>
   </si>
@@ -44,6 +44,9 @@
     <t xml:space="preserve">Hugo_Symbol</t>
   </si>
   <si>
+    <t xml:space="preserve">VAF</t>
+  </si>
+  <si>
     <t xml:space="preserve">telomerase_score</t>
   </si>
   <si>
@@ -89,12 +92,15 @@
     <t xml:space="preserve">ATRX_mut</t>
   </si>
   <si>
+    <t xml:space="preserve">VUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATRX</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oncogenic or Likely Oncogenic</t>
   </si>
   <si>
-    <t xml:space="preserve">ATRX</t>
-  </si>
-  <si>
     <t xml:space="preserve">BS_CGXTFM67</t>
   </si>
   <si>
@@ -144,9 +150,6 @@
   </si>
   <si>
     <t xml:space="preserve">7316-2756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VUS</t>
   </si>
   <si>
     <t xml:space="preserve">BS_85Q5P8GF</t>
@@ -1208,53 +1211,56 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
         <v>1.30551947713444</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
         <v>307.049216710925</v>
       </c>
       <c r="I2" t="n">
-        <v>13.0778171208959</v>
+        <v>13.7886163862508</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.571873002278057</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.0697604790628198</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.165075926753433</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.645685466825502</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
@@ -1262,122 +1268,128 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>0.0641460245322681</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.055332102825977</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.30551947713444</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="n">
+        <v>307.049216710925</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13.7886163862508</v>
+      </c>
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.892867449440256</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.139987789145128</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.90689059560852</v>
-      </c>
-      <c r="J3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K3" t="e">
-        <v>#N/A</v>
+      <c r="K3" t="n">
+        <v>0.295081967213115</v>
       </c>
       <c r="L3" t="n">
-        <v>0.334453468112554</v>
+        <v>0.571873002278057</v>
       </c>
       <c r="M3" t="n">
-        <v>0.10089271395975</v>
+        <v>0.0697604790628198</v>
       </c>
       <c r="N3" t="n">
-        <v>0.162475212160087</v>
+        <v>0.165075926753433</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.645685466825502</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.16885311626284</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.16805313844356</v>
+        <v>0.0641460245322681</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0652723510612085</v>
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.055332102825977</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>1.42688611222043</v>
+        <v>1.30551947713444</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
-        <v>187.387654549669</v>
+        <v>307.049216710925</v>
       </c>
       <c r="I4" t="n">
-        <v>12.5008418795569</v>
+        <v>13.7886163862508</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" t="n">
-        <v>0.570815120485353</v>
+        <v>0.397058823529412</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0837204010206548</v>
+        <v>0.571873002278057</v>
       </c>
       <c r="M4" t="n">
-        <v>0.082170512139978</v>
+        <v>0.0697604790628198</v>
       </c>
       <c r="N4" t="n">
-        <v>0.510992389173822</v>
+        <v>0.165075926753433</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.645685466825502</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1386,60 +1398,63 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.286197211002525</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.0641460245322681</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0369194866630197</v>
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.055332102825977</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>1.49438953400914</v>
+        <v>1.30551947713444</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5" t="n">
-        <v>274.488056955768</v>
+        <v>307.049216710925</v>
       </c>
       <c r="I5" t="n">
-        <v>12.8063482267123</v>
+        <v>13.7886163862508</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" t="n">
-        <v>0.454679866017166</v>
+        <v>0.40625</v>
       </c>
       <c r="L5" t="n">
-        <v>0.251825928625267</v>
+        <v>0.571873002278057</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0815253292217893</v>
+        <v>0.0697604790628198</v>
       </c>
       <c r="N5" t="n">
-        <v>0.323738675871913</v>
+        <v>0.165075926753433</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0790806883320622</v>
+        <v>0.645685466825502</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -1448,60 +1463,63 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.263829377948969</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.0641460245322681</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.055332102825977</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>1.9045233498792</v>
+        <v>1.30551947713444</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" t="n">
-        <v>7.75532351864012</v>
+        <v>307.049216710925</v>
       </c>
       <c r="I6" t="n">
-        <v>8.19475685442225</v>
+        <v>13.7886163862508</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" t="n">
-        <v>0.529313271501999</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="L6" t="n">
-        <v>0.72473350143774</v>
+        <v>0.571873002278057</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.0697604790628198</v>
       </c>
       <c r="N6" t="n">
-        <v>0.211503531592911</v>
+        <v>0.165075926753433</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0637629669693487</v>
+        <v>0.645685466825502</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1513,119 +1531,125 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.0641460245322681</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.055332102825977</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>2.12785443188844</v>
+        <v>1.30551947713444</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H7" t="n">
-        <v>1.11990231316103</v>
+        <v>307.049216710925</v>
       </c>
       <c r="I7" t="n">
-        <v>5.4594316186373</v>
+        <v>13.7886163862508</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7" t="n">
-        <v>0.531683566137128</v>
+        <v>0.542372881355932</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.571873002278057</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.0697604790628198</v>
       </c>
       <c r="N7" t="n">
-        <v>0.176538635123366</v>
+        <v>0.165075926753433</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.645685466825502</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.685278098272759</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0835252770571148</v>
+        <v>0.0641460245322681</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0546579895467605</v>
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.055332102825977</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
+        <v>29</v>
+      </c>
+      <c r="B8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>1.49313856463679</v>
+        <v>0.892867449440256</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H8" t="n">
-        <v>4.73158727310534</v>
+        <v>0.139987789145128</v>
       </c>
       <c r="I8" t="n">
-        <v>7.58496250072116</v>
-      </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.529058895321795</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.775035702115365</v>
+        <v>3.90689059560852</v>
+      </c>
+      <c r="J8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.334453468112554</v>
       </c>
       <c r="N8" t="n">
-        <v>0.191042033464313</v>
+        <v>0.10089271395975</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.162475212160087</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1634,60 +1658,63 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.16885311626284</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0339222644203223</v>
+        <v>0.16805313844356</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.0652723510612085</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
-        <v>1.10358853243914</v>
+        <v>1.42688611222043</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H9" t="n">
-        <v>15.4826494794512</v>
+        <v>187.387654549669</v>
       </c>
       <c r="I9" t="n">
-        <v>9.16239132875691</v>
+        <v>13.1197517122014</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K9" t="n">
-        <v>0.549328326777937</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="L9" t="n">
-        <v>0.747059918129611</v>
+        <v>0.570815120485353</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.0837204010206548</v>
       </c>
       <c r="N9" t="n">
-        <v>0.189105061464373</v>
+        <v>0.082170512139978</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.510992389173822</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1699,184 +1726,193 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.286197211002525</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0638350204060155</v>
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0369194866630197</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D10" t="n">
-        <v>0.761383218672575</v>
+        <v>1.49438953400914</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H10" t="n">
-        <v>0.531953598751488</v>
+        <v>274.488056955768</v>
       </c>
       <c r="I10" t="n">
-        <v>4.4594316186373</v>
+        <v>13.4809163935333</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10" t="n">
-        <v>0.381370593119562</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.454679866017166</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.251825928625267</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0828187158992442</v>
+        <v>0.0815253292217893</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.323738675871913</v>
       </c>
       <c r="P10" t="n">
-        <v>0.165144037701407</v>
+        <v>0.0790806883320622</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.391468403017733</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.179237879058704</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0737985029811942</v>
+        <v>0.263829377948969</v>
       </c>
       <c r="T10" t="n">
-        <v>0.107532461341718</v>
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D11" t="n">
-        <v>0.366265200539345</v>
+        <v>1.49438953400914</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H11" t="n">
-        <v>1.00791208184492</v>
+        <v>274.488056955768</v>
       </c>
       <c r="I11" t="n">
-        <v>5.90689059560852</v>
-      </c>
-      <c r="J11" t="e">
-        <v>#N/A</v>
+        <v>13.4809163935333</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
       </c>
       <c r="K11" t="n">
-        <v>0.429811768093937</v>
+        <v>0.212121212121212</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.454679866017166</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.251825928625267</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.0815253292217893</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.323738675871913</v>
       </c>
       <c r="P11" t="n">
-        <v>0.503549175712259</v>
+        <v>0.0790806883320622</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.342881664544902</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.263829377948969</v>
       </c>
       <c r="T11" t="n">
-        <v>0.15356915974284</v>
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" t="e">
-        <v>#N/A</v>
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D12" t="n">
-        <v>3.04285034754224</v>
+        <v>1.49438953400914</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H12" t="n">
-        <v>0.475958483093437</v>
+        <v>274.488056955768</v>
       </c>
       <c r="I12" t="n">
-        <v>4.32192809488736</v>
+        <v>13.4809163935333</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" t="e">
-        <v>#N/A</v>
+        <v>27</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.23</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.454679866017166</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.251825928625267</v>
       </c>
       <c r="N12" t="n">
-        <v>0.265583989584329</v>
+        <v>0.0815253292217893</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.323738675871913</v>
       </c>
       <c r="P12" t="n">
-        <v>0.177848933899108</v>
+        <v>0.0790806883320622</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1885,869 +1921,911 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.445687311876346</v>
+        <v>0.263829377948969</v>
       </c>
       <c r="T12" t="n">
-        <v>0.110879764640218</v>
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D13" t="n">
-        <v>3.43674119313015</v>
+        <v>1.49438953400914</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H13" t="n">
-        <v>0.923919408357848</v>
+        <v>274.488056955768</v>
       </c>
       <c r="I13" t="n">
-        <v>5.20945336562895</v>
-      </c>
-      <c r="J13" t="e">
-        <v>#N/A</v>
+        <v>13.4809163935333</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
       </c>
       <c r="K13" t="n">
-        <v>0.535327213327537</v>
+        <v>0.304878048780488</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.454679866017166</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0925799157475719</v>
+        <v>0.251825928625267</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0757558707683777</v>
+        <v>0.0815253292217893</v>
       </c>
       <c r="O13" t="n">
-        <v>0.191761198324725</v>
+        <v>0.323738675871913</v>
       </c>
       <c r="P13" t="n">
-        <v>0.14591941716309</v>
+        <v>0.0790806883320622</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.271829242178154</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.115249394891803</v>
+        <v>0.263829377948969</v>
       </c>
       <c r="T13" t="n">
-        <v>0.106904960926279</v>
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" t="e">
-        <v>#N/A</v>
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D14" t="n">
-        <v>0.744840196923758</v>
+        <v>1.49438953400914</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H14" t="n">
-        <v>0.503956040922462</v>
+        <v>274.488056955768</v>
       </c>
       <c r="I14" t="n">
-        <v>4.4594316186373</v>
-      </c>
-      <c r="J14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K14" t="e">
-        <v>#N/A</v>
+        <v>13.4809163935333</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.317073170731707</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.454679866017166</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.251825928625267</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>0.0815253292217893</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>0.323738675871913</v>
       </c>
       <c r="P14" t="n">
-        <v>0.215880590098165</v>
+        <v>0.0790806883320622</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.426273641853423</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.151624815868599</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0936827520239467</v>
+        <v>0.263829377948969</v>
       </c>
       <c r="T14" t="n">
-        <v>0.112538200155867</v>
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D15" t="n">
-        <v>1.19818573822931</v>
+        <v>1.49438953400914</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H15" t="n">
-        <v>2.21180706849303</v>
+        <v>274.488056955768</v>
       </c>
       <c r="I15" t="n">
-        <v>6.5077946401987</v>
+        <v>13.4809163935333</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15" t="n">
-        <v>0.464521382425448</v>
+        <v>0.329787234042553</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.454679866017166</v>
       </c>
       <c r="M15" t="n">
-        <v>0.188179851974447</v>
+        <v>0.251825928625267</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.0815253292217893</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.323738675871913</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.0790806883320622</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.181146830438943</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.577515679154303</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.263829377948969</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0531576384323073</v>
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D16" t="n">
-        <v>0.603105148336912</v>
+        <v>1.49438953400914</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H16" t="n">
-        <v>1.65185591191252</v>
+        <v>274.488056955768</v>
       </c>
       <c r="I16" t="n">
-        <v>6.20945336562895</v>
-      </c>
-      <c r="J16" t="e">
-        <v>#N/A</v>
+        <v>13.4809163935333</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
       </c>
       <c r="K16" t="n">
-        <v>0.537158894358265</v>
+        <v>0.348623853211009</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.454679866017166</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.251825928625267</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.0815253292217893</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.323738675871913</v>
       </c>
       <c r="P16" t="n">
-        <v>0.342357710509817</v>
+        <v>0.0790806883320622</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6078963112825</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.263829377948969</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0497459782076837</v>
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D17" t="n">
-        <v>0.457387495384936</v>
+        <v>1.49438953400914</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H17" t="n">
-        <v>0.587948714409539</v>
+        <v>274.488056955768</v>
       </c>
       <c r="I17" t="n">
-        <v>4.64385618977472</v>
-      </c>
-      <c r="J17" t="e">
-        <v>#N/A</v>
+        <v>13.4809163935333</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
       </c>
       <c r="K17" t="n">
-        <v>0.465290036941175</v>
+        <v>0.348837209302326</v>
       </c>
       <c r="L17" t="n">
-        <v>0.143793139343376</v>
+        <v>0.454679866017166</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.251825928625267</v>
       </c>
       <c r="N17" t="n">
-        <v>0.16016076534176</v>
+        <v>0.0815253292217893</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0996879603561902</v>
+        <v>0.323738675871913</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.0790806883320622</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.220793192647928</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.20564242770529</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.115272050826958</v>
+        <v>0.263829377948969</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0546504637784985</v>
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="D18" t="n">
-        <v>1.15543569807249</v>
+        <v>1.49438953400914</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H18" t="n">
-        <v>0.643943830067591</v>
+        <v>274.488056955768</v>
       </c>
       <c r="I18" t="n">
-        <v>4.8073549220576</v>
-      </c>
-      <c r="J18" t="e">
-        <v>#N/A</v>
+        <v>13.4809163935333</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
       </c>
       <c r="K18" t="n">
-        <v>0.515722713008091</v>
+        <v>0.375</v>
       </c>
       <c r="L18" t="n">
-        <v>0.160546797083476</v>
+        <v>0.454679866017166</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0953089921426336</v>
+        <v>0.251825928625267</v>
       </c>
       <c r="N18" t="n">
-        <v>0.119349880408728</v>
+        <v>0.0815253292217893</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.323738675871913</v>
       </c>
       <c r="P18" t="n">
-        <v>0.106028032451864</v>
+        <v>0.0790806883320622</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.206734086544961</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.222247364680321</v>
+        <v>0.263829377948969</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0897848466880165</v>
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D19" t="n">
-        <v>2.62558793175662</v>
+        <v>1.9045233498792</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H19" t="n">
-        <v>1.14789987099005</v>
+        <v>7.75532351864012</v>
       </c>
       <c r="I19" t="n">
-        <v>5.61470984411521</v>
+        <v>8.34429590791582</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K19" t="n">
-        <v>0.196574062165857</v>
+        <v>0.742857142857143</v>
       </c>
       <c r="L19" t="n">
-        <v>0.282885125623585</v>
+        <v>0.529313271501999</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0921683435356933</v>
+        <v>0.72473350143774</v>
       </c>
       <c r="N19" t="n">
-        <v>0.118296886374186</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.211503531592911</v>
       </c>
       <c r="P19" t="n">
-        <v>0.096901027724683</v>
+        <v>0.0637629669693487</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.147536418135327</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0934264684523389</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.109727196716572</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0590585334376148</v>
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" t="e">
-        <v>#N/A</v>
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D20" t="n">
-        <v>0.905929830263928</v>
+        <v>1.9045233498792</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H20" t="n">
-        <v>0.223980462632206</v>
+        <v>7.75532351864012</v>
       </c>
       <c r="I20" t="n">
-        <v>3.4594316186373</v>
-      </c>
-      <c r="J20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K20" t="e">
-        <v>#N/A</v>
+        <v>8.34429590791582</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.88135593220339</v>
       </c>
       <c r="L20" t="n">
-        <v>0.145281431113922</v>
+        <v>0.529313271501999</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0652881947268414</v>
+        <v>0.72473350143774</v>
       </c>
       <c r="N20" t="n">
-        <v>0.171027068352983</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>0.211503531592911</v>
       </c>
       <c r="P20" t="n">
-        <v>0.236877281211508</v>
+        <v>0.0637629669693487</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.180799375693473</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.10921378066037</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0714711901164689</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0200416781244339</v>
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="D21" t="n">
-        <v>0.895720234771243</v>
+        <v>2.12785443188844</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0839926734870771</v>
+        <v>1.11990231316103</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="e">
-        <v>#N/A</v>
+        <v>5.49185309632967</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
       </c>
       <c r="K21" t="n">
-        <v>0.326000478991198</v>
+        <v>0.532258064516129</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0830827085692397</v>
+        <v>0.531683566137128</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.114577665539355</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.120050819970376</v>
+        <v>0.176538635123366</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.205530225459334</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.130480576489236</v>
+        <v>0.685278098272759</v>
       </c>
       <c r="S21" t="n">
-        <v>0.306573533906154</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.0397044700663067</v>
+        <v>0.0835252770571148</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.0546579895467605</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D22" t="n">
-        <v>0.954150550892822</v>
+        <v>1.49313856463679</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H22" t="n">
-        <v>0.727936503554668</v>
+        <v>4.73158727310534</v>
       </c>
       <c r="I22" t="n">
-        <v>5.16992500144231</v>
-      </c>
-      <c r="J22" t="e">
-        <v>#N/A</v>
+        <v>7.6724253419715</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
       </c>
       <c r="K22" t="n">
-        <v>0.39790533951934</v>
+        <v>0.707317073170732</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.529058895321795</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.775035702115365</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.191042033464313</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.39985647773547</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.444840344339437</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.155303177925093</v>
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.0339222644203223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="D23" t="n">
-        <v>0.862448544389736</v>
+        <v>1.10358853243914</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H23" t="n">
-        <v>0.279975578290257</v>
+        <v>15.4826494794512</v>
       </c>
       <c r="I23" t="n">
-        <v>3.90689059560852</v>
-      </c>
-      <c r="J23" t="e">
-        <v>#N/A</v>
+        <v>9.3264294871223</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
       </c>
       <c r="K23" t="n">
-        <v>0.57773596166521</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="L23" t="n">
-        <v>0.101041879251109</v>
+        <v>0.549328326777937</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.747059918129611</v>
       </c>
       <c r="N23" t="n">
-        <v>0.248198125786166</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>0.189105061464373</v>
       </c>
       <c r="P23" t="n">
-        <v>0.206290481601653</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.324145729477689</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0728318544940469</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0474919293893359</v>
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.0638350204060155</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="D24" t="n">
-        <v>3.88902941072736</v>
+        <v>0.761383218672575</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H24" t="n">
-        <v>0.615946272238565</v>
+        <v>0.531953598751488</v>
       </c>
       <c r="I24" t="n">
-        <v>4.75488750216347</v>
-      </c>
-      <c r="J24" t="e">
-        <v>#N/A</v>
+        <v>4.4594316186373</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
       </c>
       <c r="K24" t="n">
-        <v>0.238692321358866</v>
+        <v>0.82258064516129</v>
       </c>
       <c r="L24" t="n">
-        <v>0.178038934231362</v>
+        <v>0.381370593119562</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.192224261434057</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.185488313516258</v>
+        <v>0.0828187158992442</v>
       </c>
       <c r="P24" t="n">
-        <v>0.196195678849981</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0937103151313331</v>
+        <v>0.165144037701407</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0836452463124143</v>
+        <v>0.391468403017733</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>0.179237879058704</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0706972505245949</v>
+        <v>0.0737985029811942</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.107532461341718</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D25" t="n">
-        <v>2.21840119242882</v>
+        <v>0.366265200539345</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H25" t="n">
-        <v>0.895921850528822</v>
+        <v>1.00791208184492</v>
       </c>
       <c r="I25" t="n">
-        <v>5.24792751344359</v>
+        <v>5.90689059560852</v>
       </c>
       <c r="J25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K25" t="n">
-        <v>0.694759144239012</v>
+      <c r="K25" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L25" t="n">
-        <v>0.208048281599286</v>
+        <v>0.429811768093937</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.112037943687474</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0842330665581947</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.347470707369169</v>
+        <v>0.503549175712259</v>
       </c>
       <c r="R25" t="n">
-        <v>0.130047184641323</v>
+        <v>0.342881664544902</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.118162816144553</v>
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.15356915974284</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" t="s">
-        <v>97</v>
+        <v>58</v>
+      </c>
+      <c r="B26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D26" t="n">
-        <v>1.02548778504827</v>
+        <v>3.04285034754224</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H26" t="n">
-        <v>0.615946272238565</v>
+        <v>0.475958483093437</v>
       </c>
       <c r="I26" t="n">
-        <v>4.75488750216347</v>
-      </c>
-      <c r="J26" t="e">
-        <v>#N/A</v>
+        <v>4.4594316186373</v>
+      </c>
+      <c r="J26" t="s">
+        <v>27</v>
       </c>
       <c r="K26" t="n">
-        <v>0.739487272946599</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.25505525964931</v>
+        <v>0.74</v>
+      </c>
+      <c r="L26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.444193213492573</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>0.265583989584329</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.138936514246588</v>
+        <v>0.177848933899108</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2756,98 +2834,104 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.16181501261153</v>
+        <v>0.445687311876346</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.110879764640218</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D27" t="n">
-        <v>0.577817262307432</v>
+        <v>3.43674119313015</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H27" t="n">
-        <v>1.79184370105764</v>
+        <v>0.923919408357848</v>
       </c>
       <c r="I27" t="n">
-        <v>6.04439411935845</v>
+        <v>5.20945336562895</v>
       </c>
       <c r="J27" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K27" t="n">
-        <v>0.442138413607538</v>
+      <c r="K27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.535327213327537</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>0.0925799157475719</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>0.0757558707683777</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>0.191761198324725</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.14591941716309</v>
       </c>
       <c r="R27" t="n">
-        <v>1</v>
+        <v>0.271829242178154</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>0.115249394891803</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.106904960926279</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="B28" t="e">
         <v>#N/A</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="D28" t="n">
-        <v>0.914171892157005</v>
+        <v>0.744840196923758</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H28" t="n">
-        <v>0.167985346974154</v>
+        <v>0.503956040922462</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>4.64385618977472</v>
       </c>
       <c r="J28" t="e">
         <v>#N/A</v>
@@ -2855,132 +2939,138 @@
       <c r="K28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L28" t="n">
-        <v>0.148811517647993</v>
+      <c r="L28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0978420211213368</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0.314480654566577</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.100139148277073</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.112331832914823</v>
+        <v>0.215880590098165</v>
       </c>
       <c r="R28" t="n">
-        <v>0.207200138072619</v>
+        <v>0.426273641853423</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.151624815868599</v>
       </c>
       <c r="T28" t="n">
-        <v>0.0191946873995777</v>
+        <v>0.0936827520239467</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.112538200155867</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="D29" t="n">
-        <v>10.8446102499431</v>
+        <v>1.19818573822931</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H29" t="n">
-        <v>1.53986568059641</v>
+        <v>2.21180706849303</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" t="e">
-        <v>#N/A</v>
+        <v>6.52356195605701</v>
+      </c>
+      <c r="J29" t="s">
+        <v>27</v>
       </c>
       <c r="K29" t="n">
-        <v>0.579794071465646</v>
+        <v>0.397959183673469</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.464521382425448</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.117334264181262</v>
+        <v>0.188179851974447</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.15437405584988</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.668233209328069</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.181146830438943</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>0.577515679154303</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0600584706407892</v>
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.0531576384323073</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="D30" t="n">
-        <v>0.665158321428583</v>
+        <v>0.603105148336912</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H30" t="n">
-        <v>0.671941387896617</v>
+        <v>1.65185591191252</v>
       </c>
       <c r="I30" t="n">
-        <v>4.8073549220576</v>
+        <v>6.35755200461808</v>
       </c>
       <c r="J30" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K30" t="n">
-        <v>0.343950291802219</v>
+      <c r="K30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.537158894358265</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2992,792 +3082,831 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.142525070960292</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.575693913219956</v>
+        <v>0.342357710509817</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>0.6078963112825</v>
       </c>
       <c r="S30" t="n">
-        <v>0.162289091466054</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.119491924353698</v>
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.0497459782076837</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="D31" t="n">
-        <v>1.28207794360592</v>
+        <v>0.457387495384936</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H31" t="n">
-        <v>0.727936503554668</v>
+        <v>0.587948714409539</v>
       </c>
       <c r="I31" t="n">
-        <v>4.90689059560852</v>
+        <v>4.64385618977472</v>
       </c>
       <c r="J31" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K31" t="n">
-        <v>0.36957080828844</v>
+      <c r="K31" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.465290036941175</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.143793139343376</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>0.16016076534176</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>0.0996879603561902</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.203489888533343</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.63303396138743</v>
+        <v>0.220793192647928</v>
       </c>
       <c r="S31" t="n">
-        <v>0.0621587239845932</v>
+        <v>0.20564242770529</v>
       </c>
       <c r="T31" t="n">
-        <v>0.101317426094634</v>
+        <v>0.115272050826958</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.0546504637784985</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="D32" t="n">
-        <v>1.4264807075319</v>
+        <v>1.15543569807249</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H32" t="n">
-        <v>1.76384614322862</v>
+        <v>0.643943830067591</v>
       </c>
       <c r="I32" t="n">
-        <v>7.55458885167764</v>
-      </c>
-      <c r="J32" t="s">
-        <v>26</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.44379977109777</v>
+        <v>4.85798099512757</v>
+      </c>
+      <c r="J32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K32" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L32" t="n">
-        <v>0.260347486623863</v>
+        <v>0.515722713008091</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.160546797083476</v>
       </c>
       <c r="N32" t="n">
-        <v>0.210969600029516</v>
+        <v>0.0953089921426336</v>
       </c>
       <c r="O32" t="n">
-        <v>0.171933329445916</v>
+        <v>0.119349880408728</v>
       </c>
       <c r="P32" t="n">
-        <v>0.11650075364736</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.105514702541963</v>
+        <v>0.106028032451864</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>0.206734086544961</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0.134734127711382</v>
+        <v>0.222247364680321</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.0897848466880165</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="D33" t="n">
-        <v>1.31325462645445</v>
+        <v>2.62558793175662</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H33" t="n">
-        <v>3.61168495994431</v>
+        <v>1.14789987099005</v>
       </c>
       <c r="I33" t="n">
-        <v>7.3037807481771</v>
+        <v>5.61470984411521</v>
       </c>
       <c r="J33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K33" t="n">
-        <v>0.375529368735504</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0667706039071562</v>
+        <v>0.196574062165857</v>
       </c>
       <c r="M33" t="n">
-        <v>0.537290236189042</v>
+        <v>0.282885125623585</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.0921683435356933</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>0.118296886374186</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0951092542705688</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.101712546452514</v>
+        <v>0.096901027724683</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.147536418135327</v>
       </c>
       <c r="S33" t="n">
-        <v>0.140752677006405</v>
+        <v>0.0934264684523389</v>
       </c>
       <c r="T33" t="n">
-        <v>0.0583646821743145</v>
+        <v>0.109727196716572</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.0590585334376148</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" t="s">
-        <v>120</v>
+        <v>80</v>
+      </c>
+      <c r="B34" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="D34" t="n">
-        <v>1.45958969808778</v>
+        <v>0.905929830263928</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H34" t="n">
-        <v>0.839926734870771</v>
+        <v>0.223980462632206</v>
       </c>
       <c r="I34" t="n">
-        <v>5.12928301694497</v>
-      </c>
-      <c r="J34" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.569560120565352</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.0744308586431424</v>
+        <v>3.4594316186373</v>
+      </c>
+      <c r="J34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L34" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0702618447415919</v>
+        <v>0.145281431113922</v>
       </c>
       <c r="N34" t="n">
-        <v>0.143002828939938</v>
+        <v>0.0652881947268414</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>0.171027068352983</v>
       </c>
       <c r="P34" t="n">
-        <v>0.131911093852583</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.27753147229363</v>
+        <v>0.236877281211508</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0905766243717345</v>
+        <v>0.180799375693473</v>
       </c>
       <c r="S34" t="n">
-        <v>0.175636309759981</v>
+        <v>0.10921378066037</v>
       </c>
       <c r="T34" t="n">
-        <v>0.0366489673973985</v>
+        <v>0.0714711901164689</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.0200416781244339</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="D35" t="n">
-        <v>0.623158042621522</v>
+        <v>0.895720234771243</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H35" t="n">
-        <v>0.363968251777334</v>
+        <v>0.0839926734870771</v>
       </c>
       <c r="I35" t="n">
-        <v>3.8073549220576</v>
+        <v>2</v>
       </c>
       <c r="J35" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K35" t="n">
-        <v>0.510743783594519</v>
+      <c r="K35" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L35" t="n">
-        <v>0.262099431304233</v>
+        <v>0.326000478991198</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0830827085692397</v>
       </c>
       <c r="N35" t="n">
-        <v>0.311422400571269</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>0.114577665539355</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>0.120050819970376</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0.179913145145213</v>
+        <v>0.205530225459334</v>
       </c>
       <c r="S35" t="n">
-        <v>0.0745670130494222</v>
+        <v>0.130480576489236</v>
       </c>
       <c r="T35" t="n">
-        <v>0.171998009929863</v>
+        <v>0.306573533906154</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.0397044700663067</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="D36" t="n">
-        <v>0.585997921932767</v>
+        <v>0.954150550892822</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H36" t="n">
-        <v>0.643943830067591</v>
+        <v>0.727936503554668</v>
       </c>
       <c r="I36" t="n">
-        <v>4.70043971814109</v>
+        <v>5.16992500144231</v>
       </c>
       <c r="J36" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K36" t="n">
-        <v>0.467148540964538</v>
+      <c r="K36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0723245946964431</v>
+        <v>0.39790533951934</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0.3622156142764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0.189775254643861</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0769878260750522</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.135094460059115</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.117238163869331</v>
+        <v>0.39985647773547</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>0.444840344339437</v>
       </c>
       <c r="T36" t="n">
-        <v>0.0463640863797992</v>
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.155303177925093</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D37" t="n">
-        <v>1.98723126828428</v>
+        <v>0.862448544389736</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H37" t="n">
-        <v>0.503956040922462</v>
+        <v>0.279975578290257</v>
       </c>
       <c r="I37" t="n">
-        <v>4.32192809488736</v>
-      </c>
-      <c r="J37" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.623776473962117</v>
+        <v>3.90689059560852</v>
+      </c>
+      <c r="J37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K37" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.57773596166521</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.101041879251109</v>
       </c>
       <c r="N37" t="n">
-        <v>0.136363883159419</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>0.248198125786166</v>
       </c>
       <c r="P37" t="n">
-        <v>0.11769634830023</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.380846557632526</v>
+        <v>0.206290481601653</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.324145729477689</v>
       </c>
       <c r="S37" t="n">
-        <v>0.154537748504795</v>
+        <v>0.0728318544940469</v>
       </c>
       <c r="T37" t="n">
-        <v>0.21055546240303</v>
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.0474919293893359</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="D38" t="n">
-        <v>0.929450577157592</v>
+        <v>3.88902941072736</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H38" t="n">
-        <v>1.9598290480318</v>
+        <v>0.615946272238565</v>
       </c>
       <c r="I38" t="n">
-        <v>6.24792751344359</v>
+        <v>4.75488750216347</v>
       </c>
       <c r="J38" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K38" t="n">
-        <v>0.771731681526181</v>
+      <c r="K38" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>0.238692321358866</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0846522272353416</v>
+        <v>0.178038934231362</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0627685505952238</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0804190334806037</v>
+        <v>0.192224261434057</v>
       </c>
       <c r="P38" t="n">
-        <v>0.216443603345105</v>
+        <v>0.185488313516258</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.321030797259351</v>
+        <v>0.196195678849981</v>
       </c>
       <c r="R38" t="n">
-        <v>0.0777435454671102</v>
+        <v>0.0937103151313331</v>
       </c>
       <c r="S38" t="n">
-        <v>0.134924222081901</v>
+        <v>0.0836452463124143</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0220180205353636</v>
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.0706972505245949</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="D39" t="n">
-        <v>8.82222841823438</v>
+        <v>2.21840119242882</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H39" t="n">
-        <v>2.49178264678329</v>
+        <v>0.895921850528822</v>
       </c>
       <c r="I39" t="n">
-        <v>6.55458885167764</v>
+        <v>5.28540221886225</v>
       </c>
       <c r="J39" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K39" t="n">
-        <v>0.283942729670415</v>
+      <c r="K39" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.694759144239012</v>
       </c>
       <c r="M39" t="n">
-        <v>0.166284405361149</v>
+        <v>0.208048281599286</v>
       </c>
       <c r="N39" t="n">
-        <v>0.061807995350476</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0.257961415613033</v>
+        <v>0.112037943687474</v>
       </c>
       <c r="P39" t="n">
-        <v>0.14874397032413</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.11759747748489</v>
+        <v>0.0842330665581947</v>
       </c>
       <c r="R39" t="n">
-        <v>0.24760472449392</v>
+        <v>0.347470707369169</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>0.130047184641323</v>
       </c>
       <c r="T39" t="n">
-        <v>0.0000000113724023531603</v>
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.118162816144553</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="D40" t="n">
-        <v>0.665895723080379</v>
+        <v>1.02548778504827</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H40" t="n">
-        <v>1.00791208184492</v>
+        <v>0.615946272238565</v>
       </c>
       <c r="I40" t="n">
-        <v>5.35755200461808</v>
+        <v>4.75488750216347</v>
       </c>
       <c r="J40" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K40" t="n">
-        <v>0.669429405437427</v>
+      <c r="K40" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L40" t="n">
-        <v>0.237379885479665</v>
+        <v>0.739487272946599</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.25505525964931</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.444193213492573</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.0794454036015839</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.392340677704627</v>
+        <v>0.138936514246588</v>
       </c>
       <c r="S40" t="n">
-        <v>0.12776301583957</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.163071017374554</v>
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.16181501261153</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="D41" t="n">
-        <v>0.768361612323582</v>
+        <v>0.577817262307432</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0279975578290257</v>
+        <v>1.79184370105764</v>
       </c>
       <c r="I41" t="n">
+        <v>6.04439411935845</v>
+      </c>
+      <c r="J41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.442138413607538</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>1</v>
       </c>
-      <c r="J41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.36707426386722</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.164339185089231</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.284412466889771</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0.220514304472485</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.153567216441294</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.108470423389898</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
       <c r="T41" t="n">
-        <v>0.0686964037173203</v>
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" t="s">
-        <v>144</v>
+        <v>103</v>
+      </c>
+      <c r="B42" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="D42" t="n">
-        <v>0.409013987468199</v>
+        <v>0.914171892157005</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H42" t="n">
-        <v>0.587948714409539</v>
+        <v>0.167985346974154</v>
       </c>
       <c r="I42" t="n">
-        <v>4.8073549220576</v>
+        <v>3</v>
       </c>
       <c r="J42" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K42" t="n">
-        <v>0.448192683601946</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.0626309675552648</v>
+      <c r="K42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L42" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>0.148811517647993</v>
       </c>
       <c r="N42" t="n">
-        <v>0.340117157017897</v>
+        <v>0.0978420211213368</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0613282673514007</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0733155248788837</v>
+        <v>0.314480654566577</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.25520191369757</v>
+        <v>0.100139148277073</v>
       </c>
       <c r="R42" t="n">
-        <v>0.173586381337026</v>
+        <v>0.112331832914823</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>0.207200138072619</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0338197881619576</v>
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.0191946873995777</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>146</v>
-      </c>
-      <c r="B43" t="e">
-        <v>#N/A</v>
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="D43" t="n">
-        <v>0.723145899527039</v>
+        <v>10.8446102499431</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H43" t="n">
-        <v>0.419963367435385</v>
+        <v>1.53986568059641</v>
       </c>
       <c r="I43" t="n">
-        <v>4.70043971814109</v>
+        <v>6.04439411935845</v>
       </c>
       <c r="J43" t="e">
         <v>#N/A</v>
@@ -3786,60 +3915,63 @@
         <v>#N/A</v>
       </c>
       <c r="L43" t="n">
-        <v>0.220607087259939</v>
+        <v>0.579794071465646</v>
       </c>
       <c r="M43" t="n">
-        <v>0.153032773676259</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0642898760512596</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0972878189016665</v>
+        <v>0.117334264181262</v>
       </c>
       <c r="P43" t="n">
-        <v>0.453318373197066</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.15437405584988</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.668233209328069</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0114640709138102</v>
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.0600584706407892</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" t="e">
-        <v>#N/A</v>
+        <v>108</v>
+      </c>
+      <c r="B44" t="s">
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="D44" t="n">
-        <v>0.478672360955709</v>
+        <v>0.665158321428583</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H44" t="n">
-        <v>0.167985346974154</v>
+        <v>0.671941387896617</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>4.8073549220576</v>
       </c>
       <c r="J44" t="e">
         <v>#N/A</v>
@@ -3848,308 +3980,323 @@
         <v>#N/A</v>
       </c>
       <c r="L44" t="n">
-        <v>0.1589277747914</v>
+        <v>0.343950291802219</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0.277678350113149</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0917617066861896</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.173262137410311</v>
+        <v>0.142525070960292</v>
       </c>
       <c r="R44" t="n">
-        <v>0.0934215043171327</v>
+        <v>0.575693913219956</v>
       </c>
       <c r="S44" t="n">
-        <v>0.108601164117549</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.0963473625642688</v>
+        <v>0.162289091466054</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.119491924353698</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>150</v>
-      </c>
-      <c r="B45" t="e">
-        <v>#N/A</v>
+        <v>111</v>
+      </c>
+      <c r="B45" t="s">
+        <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="D45" t="n">
-        <v>1.61098261110919</v>
+        <v>1.28207794360592</v>
       </c>
       <c r="E45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H45" t="n">
-        <v>0.39196580960636</v>
+        <v>0.727936503554668</v>
       </c>
       <c r="I45" t="n">
-        <v>4.24792751344359</v>
-      </c>
-      <c r="J45" t="s">
-        <v>26</v>
+        <v>4.90689059560852</v>
+      </c>
+      <c r="J45" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K45" t="e">
         <v>#N/A</v>
       </c>
       <c r="L45" t="n">
-        <v>0.119556069881742</v>
+        <v>0.36957080828844</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0.163210527273295</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0994514841734072</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.332465345635853</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.108188190093037</v>
+        <v>0.203489888533343</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0838369516759494</v>
+        <v>0.63303396138743</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0932914312667161</v>
+        <v>0.0621587239845932</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.101317426094634</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>152</v>
-      </c>
-      <c r="B46" t="e">
-        <v>#N/A</v>
+        <v>114</v>
+      </c>
+      <c r="B46" t="s">
+        <v>115</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="D46" t="n">
-        <v>0.564259763952774</v>
+        <v>1.4264807075319</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H46" t="n">
-        <v>0.307973136119283</v>
+        <v>1.76384614322862</v>
       </c>
       <c r="I46" t="n">
-        <v>4.16992500144231</v>
-      </c>
-      <c r="J46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K46" t="e">
-        <v>#N/A</v>
+        <v>7.56224242422107</v>
+      </c>
+      <c r="J46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.36144578313253</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.44379977109777</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.260347486623863</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.210969600029516</v>
       </c>
       <c r="P46" t="n">
-        <v>0.295352078091409</v>
+        <v>0.171933329445916</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.40424174601184</v>
+        <v>0.11650075364736</v>
       </c>
       <c r="R46" t="n">
-        <v>0.155573311845612</v>
+        <v>0.105514702541963</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.144832864051139</v>
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.134734127711382</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="D47" t="n">
-        <v>2.65534910941505</v>
+        <v>1.31325462645445</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G47" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H47" t="n">
-        <v>0.811929177041745</v>
+        <v>3.61168495994431</v>
       </c>
       <c r="I47" t="n">
-        <v>5.08746284125034</v>
+        <v>7.32192809488736</v>
       </c>
       <c r="J47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K47" t="n">
-        <v>0.569510042618928</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>0.375529368735504</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>0.0667706039071562</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0974558361109378</v>
+        <v>0.537290236189042</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0.190832739139053</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.471430230588372</v>
+        <v>0.0951092542705688</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>0.101712546452514</v>
       </c>
       <c r="S47" t="n">
-        <v>0.166457523765244</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>0.0738236703963927</v>
+        <v>0.140752677006405</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.0583646821743145</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="D48" t="n">
-        <v>0.911126491571772</v>
+        <v>1.45958969808778</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H48" t="n">
-        <v>0.895921850528822</v>
+        <v>0.839926734870771</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
-      </c>
-      <c r="J48" t="e">
-        <v>#N/A</v>
+        <v>5.16992500144231</v>
+      </c>
+      <c r="J48" t="s">
+        <v>27</v>
       </c>
       <c r="K48" t="n">
-        <v>0.752475929785222</v>
+        <v>0.449152542372881</v>
       </c>
       <c r="L48" t="n">
-        <v>0.472886905119284</v>
+        <v>0.569560120565352</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0678593020165138</v>
+        <v>0.0744308586431424</v>
       </c>
       <c r="N48" t="n">
-        <v>0.154963943608184</v>
+        <v>0.0702618447415919</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>0.143002828939938</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>0.131911093852583</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>0.27753147229363</v>
       </c>
       <c r="S48" t="n">
-        <v>0.281897875765768</v>
+        <v>0.0905766243717345</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0223919734902498</v>
+        <v>0.175636309759981</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.0366489673973985</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>160</v>
-      </c>
-      <c r="B49" t="e">
-        <v>#N/A</v>
+        <v>123</v>
+      </c>
+      <c r="B49" t="s">
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D49" t="n">
-        <v>0.596986134005091</v>
+        <v>0.623158042621522</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H49" t="n">
-        <v>1.06390719750298</v>
+        <v>0.363968251777334</v>
       </c>
       <c r="I49" t="n">
-        <v>5.39231742277876</v>
+        <v>3.8073549220576</v>
       </c>
       <c r="J49" t="e">
         <v>#N/A</v>
@@ -4158,556 +4305,583 @@
         <v>#N/A</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>0.510743783594519</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0750720955602486</v>
+        <v>0.262099431304233</v>
       </c>
       <c r="N49" t="n">
-        <v>0.1358204941791</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0.10330370283304</v>
+        <v>0.311422400571269</v>
       </c>
       <c r="P49" t="n">
-        <v>0.193193659081989</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.261994880160738</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0.175264842651821</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>0.179913145145213</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0553503255330637</v>
+        <v>0.0745670130494222</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.171998009929863</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" t="e">
-        <v>#N/A</v>
+        <v>126</v>
+      </c>
+      <c r="B50" t="s">
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="D50" t="n">
-        <v>1.7968473065668</v>
+        <v>0.585997921932767</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H50" t="n">
-        <v>0.615946272238565</v>
+        <v>0.643943830067591</v>
       </c>
       <c r="I50" t="n">
-        <v>4.58496250072116</v>
-      </c>
-      <c r="J50" t="s">
-        <v>26</v>
+        <v>4.70043971814109</v>
+      </c>
+      <c r="J50" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K50" t="e">
         <v>#N/A</v>
       </c>
       <c r="L50" t="n">
-        <v>0.145729053005684</v>
+        <v>0.467148540964538</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>0.0723245946964431</v>
       </c>
       <c r="N50" t="n">
-        <v>0.232068950362349</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>0.3622156142764</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>0.189775254643861</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.338749311671368</v>
+        <v>0.0769878260750522</v>
       </c>
       <c r="R50" t="n">
-        <v>0.11282083178813</v>
+        <v>0.135094460059115</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>0.117238163869331</v>
       </c>
       <c r="T50" t="n">
-        <v>0.170631853172469</v>
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.0463640863797992</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="B51" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="D51" t="n">
-        <v>4.85940326913163</v>
+        <v>1.98723126828428</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G51" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H51" t="n">
-        <v>1.00791208184492</v>
+        <v>0.503956040922462</v>
       </c>
       <c r="I51" t="n">
-        <v>5.4262647547021</v>
+        <v>4.39231742277876</v>
       </c>
       <c r="J51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K51" t="n">
-        <v>0.76895318071392</v>
+        <v>0.34375</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>0.623776473962117</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0.122334407250177</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>0.136363883159419</v>
       </c>
       <c r="P51" t="n">
-        <v>0.125737972397606</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.501687310455756</v>
+        <v>0.11769634830023</v>
       </c>
       <c r="R51" t="n">
-        <v>0.15763891353997</v>
+        <v>0.380846557632526</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0.0926013963564916</v>
+        <v>0.154537748504795</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.21055546240303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="D52" t="n">
-        <v>1.0679414088142</v>
+        <v>0.929450577157592</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H52" t="n">
-        <v>0.503956040922462</v>
+        <v>1.9598290480318</v>
       </c>
       <c r="I52" t="n">
-        <v>4.70043971814109</v>
+        <v>6.2667865406949</v>
       </c>
       <c r="J52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K52" t="n">
-        <v>0.615773498394946</v>
+      <c r="K52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>0.771731681526181</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0.135680831697954</v>
+        <v>0.0846522272353416</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>0.0627685505952238</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0657526009589426</v>
+        <v>0.0804190334806037</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.503086529748005</v>
+        <v>0.216443603345105</v>
       </c>
       <c r="R52" t="n">
-        <v>0.124438935694344</v>
+        <v>0.321030797259351</v>
       </c>
       <c r="S52" t="n">
-        <v>0.112372336518937</v>
+        <v>0.0777435454671102</v>
       </c>
       <c r="T52" t="n">
-        <v>0.0586687653818174</v>
+        <v>0.134924222081901</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.0220180205353636</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="D53" t="n">
-        <v>0.330097988969208</v>
+        <v>8.82222841823438</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H53" t="n">
-        <v>0.615946272238565</v>
+        <v>2.49178264678329</v>
       </c>
       <c r="I53" t="n">
-        <v>5.16992500144231</v>
+        <v>6.56985560833095</v>
       </c>
       <c r="J53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K53" t="n">
-        <v>0.427110862734588</v>
+      <c r="K53" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>0.283942729670415</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0.128228531676709</v>
+        <v>0.166284405361149</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>0.061807995350476</v>
       </c>
       <c r="P53" t="n">
-        <v>0.108851598792196</v>
+        <v>0.257961415613033</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.425726991280174</v>
+        <v>0.14874397032413</v>
       </c>
       <c r="R53" t="n">
-        <v>0.0977156307044159</v>
+        <v>0.11759747748489</v>
       </c>
       <c r="S53" t="n">
-        <v>0.135875893808304</v>
+        <v>0.24760472449392</v>
       </c>
       <c r="T53" t="n">
-        <v>0.1036013537382</v>
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.0000000113724023531603</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="B54" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="D54" t="n">
-        <v>0.407527437990096</v>
+        <v>0.665895723080379</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H54" t="n">
-        <v>1.70785102757057</v>
+        <v>1.00791208184492</v>
       </c>
       <c r="I54" t="n">
-        <v>6.16992500144231</v>
+        <v>5.88264304936184</v>
       </c>
       <c r="J54" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K54" t="n">
-        <v>0.575505938760336</v>
+      <c r="K54" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>0.669429405437427</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0656738080631759</v>
+        <v>0.237379885479665</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0.152769056616453</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>0.142720077322932</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.210609360603555</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>0.110994797722278</v>
+        <v>0.0794454036015839</v>
       </c>
       <c r="S54" t="n">
-        <v>0.256001435543513</v>
+        <v>0.392340677704627</v>
       </c>
       <c r="T54" t="n">
-        <v>0.0612314641280916</v>
+        <v>0.12776301583957</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.163071017374554</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="D55" t="n">
-        <v>1.07733795771883</v>
+        <v>0.768361612323582</v>
       </c>
       <c r="E55" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H55" t="n">
-        <v>1.23189254447713</v>
+        <v>0.0279975578290257</v>
       </c>
       <c r="I55" t="n">
-        <v>5.52356195605701</v>
+        <v>1</v>
       </c>
       <c r="J55" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K55" t="n">
-        <v>0.449093295038004</v>
+      <c r="K55" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L55" t="n">
-        <v>0.08463789634056</v>
+        <v>0.36707426386722</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>0.164339185089231</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>0.284412466889771</v>
       </c>
       <c r="P55" t="n">
-        <v>0.223364362244255</v>
+        <v>0.220514304472485</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.407244606117607</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0.115866562926195</v>
+        <v>0.153567216441294</v>
       </c>
       <c r="S55" t="n">
-        <v>0.112807377626826</v>
+        <v>0.108470423389898</v>
       </c>
       <c r="T55" t="n">
-        <v>0.0560791947445571</v>
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.0686964037173203</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="D56" t="n">
-        <v>0.953363674208554</v>
+        <v>0.409013987468199</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H56" t="n">
-        <v>0.279975578290257</v>
+        <v>0.587948714409539</v>
       </c>
       <c r="I56" t="n">
-        <v>3.58496250072116</v>
+        <v>4.8073549220576</v>
       </c>
       <c r="J56" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K56" t="n">
-        <v>0.637965512856903</v>
+      <c r="K56" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L56" t="n">
-        <v>0.360043025825591</v>
+        <v>0.448192683601946</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0697848667329232</v>
+        <v>0.0626309675552648</v>
       </c>
       <c r="N56" t="n">
-        <v>0.323935720918134</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0812577870084943</v>
+        <v>0.340117157017897</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>0.0613282673514007</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>0.0733155248788837</v>
       </c>
       <c r="R56" t="n">
-        <v>0.126673366733137</v>
+        <v>0.25520191369757</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>0.173586381337026</v>
       </c>
       <c r="T56" t="n">
-        <v>0.0383052327817197</v>
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.0338197881619576</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>182</v>
-      </c>
-      <c r="B57" t="s">
-        <v>183</v>
+        <v>147</v>
+      </c>
+      <c r="B57" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="D57" t="n">
-        <v>0.882805463561211</v>
+        <v>0.723145899527039</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H57" t="n">
-        <v>0.643943830067591</v>
+        <v>0.419963367435385</v>
       </c>
       <c r="I57" t="n">
-        <v>4.95419631038687</v>
+        <v>4.70043971814109</v>
       </c>
       <c r="J57" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K57" t="n">
-        <v>0.808473165895148</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0.0793707864444697</v>
+      <c r="K57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L57" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>0.220607087259939</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>0.153032773676259</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0664122191873731</v>
+        <v>0.0642898760512596</v>
       </c>
       <c r="P57" t="n">
-        <v>0.212278883274887</v>
+        <v>0.0972878189016665</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.354654181544493</v>
+        <v>0.453318373197066</v>
       </c>
       <c r="R57" t="n">
-        <v>0.202532629880316</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0.084751299668461</v>
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.0114640709138102</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="B58" t="e">
         <v>#N/A</v>
       </c>
       <c r="C58" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="D58" t="n">
-        <v>0.708349747091901</v>
+        <v>0.478672360955709</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H58" t="n">
-        <v>0.503956040922462</v>
+        <v>0.167985346974154</v>
       </c>
       <c r="I58" t="n">
-        <v>4.64385618977472</v>
+        <v>3</v>
       </c>
       <c r="J58" t="e">
         <v>#N/A</v>
@@ -4715,123 +4889,129 @@
       <c r="K58" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L58" t="n">
-        <v>0</v>
+      <c r="L58" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M58" t="n">
-        <v>0.0764003435841411</v>
+        <v>0.1589277747914</v>
       </c>
       <c r="N58" t="n">
-        <v>0.264910091055278</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>0.277678350113149</v>
       </c>
       <c r="P58" t="n">
-        <v>0.0935240193023368</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.267460645468661</v>
+        <v>0.0917617066861896</v>
       </c>
       <c r="R58" t="n">
-        <v>0.147362327939145</v>
+        <v>0.173262137410311</v>
       </c>
       <c r="S58" t="n">
-        <v>0.108377354132105</v>
+        <v>0.0934215043171327</v>
       </c>
       <c r="T58" t="n">
-        <v>0.0419652185183339</v>
+        <v>0.108601164117549</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.0963473625642688</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>187</v>
-      </c>
-      <c r="B59" t="s">
-        <v>188</v>
+        <v>151</v>
+      </c>
+      <c r="B59" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="D59" t="n">
-        <v>1.73296055907925</v>
+        <v>1.61098261110919</v>
       </c>
       <c r="E59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H59" t="n">
-        <v>0.223980462632206</v>
+        <v>0.39196580960636</v>
       </c>
       <c r="I59" t="n">
-        <v>3.8073549220576</v>
+        <v>4.24792751344359</v>
       </c>
       <c r="J59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K59" t="n">
-        <v>0.62407659609205</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.0610205842784469</v>
+        <v>0.381443298969072</v>
+      </c>
+      <c r="L59" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>0.119556069881742</v>
       </c>
       <c r="N59" t="n">
-        <v>0.095706354431257</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>0.163210527273295</v>
       </c>
       <c r="P59" t="n">
-        <v>0.17693040358603</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.36292185578016</v>
+        <v>0.0994514841734072</v>
       </c>
       <c r="R59" t="n">
-        <v>0.136420537475511</v>
+        <v>0.332465345635853</v>
       </c>
       <c r="S59" t="n">
-        <v>0.0895614154092224</v>
+        <v>0.108188190093037</v>
       </c>
       <c r="T59" t="n">
-        <v>0.0774388490393725</v>
+        <v>0.0838369516759494</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.0932914312667161</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="B60" t="e">
         <v>#N/A</v>
       </c>
       <c r="C60" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="D60" t="n">
-        <v>0.765076784764917</v>
+        <v>0.564259763952774</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H60" t="n">
-        <v>0.111990231316103</v>
+        <v>0.307973136119283</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>4.16992500144231</v>
       </c>
       <c r="J60" t="e">
         <v>#N/A</v>
@@ -4839,640 +5019,670 @@
       <c r="K60" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L60" t="n">
-        <v>0.279863412518065</v>
+      <c r="L60" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M60" t="n">
-        <v>0.0752031023131815</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0.150503062695286</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>0.067722537083597</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>0.111266978313812</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.211562747648098</v>
+        <v>0.295352078091409</v>
       </c>
       <c r="R60" t="n">
-        <v>0.103878135240894</v>
+        <v>0.40424174601184</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>0.155573311845612</v>
       </c>
       <c r="T60" t="n">
-        <v>0.0000000241870663497679</v>
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.144832864051139</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>192</v>
-      </c>
-      <c r="B61" t="e">
-        <v>#N/A</v>
+        <v>155</v>
+      </c>
+      <c r="B61" t="s">
+        <v>156</v>
       </c>
       <c r="C61" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="D61" t="n">
-        <v>1.08950264868542</v>
+        <v>2.65534910941505</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H61" t="n">
-        <v>0.19598290480318</v>
+        <v>0.811929177041745</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K61" t="e">
-        <v>#N/A</v>
+        <v>5.16992500144231</v>
+      </c>
+      <c r="J61" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.794117647058823</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>0.569510042618928</v>
       </c>
       <c r="M61" t="n">
-        <v>0.101573697014105</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0.138200236936824</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>0.116267430491875</v>
+        <v>0.0974558361109378</v>
       </c>
       <c r="P61" t="n">
-        <v>0.114008341526327</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.238258311321791</v>
+        <v>0.190832739139053</v>
       </c>
       <c r="R61" t="n">
-        <v>0.103972013734983</v>
+        <v>0.471430230588372</v>
       </c>
       <c r="S61" t="n">
-        <v>0.136592620508165</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>0.0511273484659296</v>
+        <v>0.166457523765244</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.0738236703963927</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="B62" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="C62" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="D62" t="n">
-        <v>3.04039166135154</v>
+        <v>0.911126491571772</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H62" t="n">
-        <v>0.643943830067591</v>
+        <v>0.895921850528822</v>
       </c>
       <c r="I62" t="n">
-        <v>4.70043971814109</v>
+        <v>5</v>
       </c>
       <c r="J62" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K62" t="n">
-        <v>0.49150485279403</v>
+      <c r="K62" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>0.752475929785222</v>
       </c>
       <c r="M62" t="n">
-        <v>0.0663369339961934</v>
+        <v>0.472886905119284</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>0.0678593020165138</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>0.154963943608184</v>
       </c>
       <c r="P62" t="n">
-        <v>0.425301172176932</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.35119215850877</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>0.113188256260382</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>0.0439814790577218</v>
+        <v>0.281897875765768</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.0223919734902498</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>197</v>
-      </c>
-      <c r="B63" t="s">
-        <v>198</v>
+        <v>161</v>
+      </c>
+      <c r="B63" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C63" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="D63" t="n">
-        <v>0.828368248951573</v>
+        <v>0.596986134005091</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0559951156580514</v>
+        <v>1.06390719750298</v>
       </c>
       <c r="I63" t="n">
-        <v>2.58496250072116</v>
+        <v>5.39231742277876</v>
       </c>
       <c r="J63" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K63" t="n">
-        <v>0.549162269366051</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0.250782011206616</v>
+      <c r="K63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L63" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M63" t="n">
-        <v>0.111471879530442</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>0.0750720955602486</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>0.1358204941791</v>
       </c>
       <c r="P63" t="n">
-        <v>0.120779885111439</v>
+        <v>0.10330370283304</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.247115544963874</v>
+        <v>0.193193659081989</v>
       </c>
       <c r="R63" t="n">
-        <v>0.10315647754105</v>
+        <v>0.261994880160738</v>
       </c>
       <c r="S63" t="n">
-        <v>0.0874363754789994</v>
+        <v>0.175264842651821</v>
       </c>
       <c r="T63" t="n">
-        <v>0.0792578261675805</v>
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.0553503255330637</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>200</v>
-      </c>
-      <c r="B64" t="s">
-        <v>201</v>
+        <v>163</v>
+      </c>
+      <c r="B64" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C64" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="D64" t="n">
-        <v>0.388138255821767</v>
+        <v>1.7968473065668</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H64" t="n">
-        <v>2.12781439500595</v>
+        <v>0.615946272238565</v>
       </c>
       <c r="I64" t="n">
-        <v>6.49185309632967</v>
-      </c>
-      <c r="J64" t="e">
-        <v>#N/A</v>
+        <v>4.58496250072116</v>
+      </c>
+      <c r="J64" t="s">
+        <v>27</v>
       </c>
       <c r="K64" t="n">
-        <v>0.572644393416624</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
+        <v>0.790697674418605</v>
+      </c>
+      <c r="L64" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>0.145729053005684</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>0.232068950362349</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.128839507628334</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>0.821218976440908</v>
+        <v>0.338749311671368</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>0.11282083178813</v>
       </c>
       <c r="T64" t="n">
-        <v>0.0499415159307577</v>
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.170631853172469</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="B65" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="C65" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="D65" t="n">
-        <v>0.674959180648736</v>
+        <v>4.85940326913163</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H65" t="n">
-        <v>0.419963367435385</v>
+        <v>1.00791208184492</v>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
-      </c>
-      <c r="J65" t="e">
-        <v>#N/A</v>
+        <v>5.4262647547021</v>
+      </c>
+      <c r="J65" t="s">
+        <v>27</v>
       </c>
       <c r="K65" t="n">
-        <v>0.699064292560397</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>0.310140744362781</v>
+        <v>0.76895318071392</v>
       </c>
       <c r="M65" t="n">
-        <v>0.068936002813622</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>0.122334407250177</v>
       </c>
       <c r="P65" t="n">
-        <v>0.213096875782795</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.135272839158107</v>
+        <v>0.125737972397606</v>
       </c>
       <c r="R65" t="n">
-        <v>0.128113552085235</v>
+        <v>0.501687310455756</v>
       </c>
       <c r="S65" t="n">
-        <v>0.0744813049292694</v>
+        <v>0.15763891353997</v>
       </c>
       <c r="T65" t="n">
-        <v>0.0699586808681902</v>
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.0926013963564916</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="C66" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="D66" t="n">
-        <v>0.775241276378305</v>
+        <v>1.0679414088142</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H66" t="n">
-        <v>0.699938945725642</v>
+        <v>0.503956040922462</v>
       </c>
       <c r="I66" t="n">
-        <v>4.85798099512757</v>
+        <v>4.70043971814109</v>
       </c>
       <c r="J66" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K66" t="n">
-        <v>0.631004972671502</v>
+      <c r="K66" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L66" t="n">
-        <v>0.503332521636299</v>
+        <v>0.615773498394946</v>
       </c>
       <c r="M66" t="n">
-        <v>0.0614578925365872</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0.213060726659897</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>0.155699962478648</v>
+        <v>0.135680831697954</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>0.0657526009589426</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>0.503086529748005</v>
       </c>
       <c r="S66" t="n">
-        <v>0</v>
+        <v>0.124438935694344</v>
       </c>
       <c r="T66" t="n">
-        <v>0.0664488966885677</v>
+        <v>0.112372336518937</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.0586687653818174</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="B67" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="C67" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="D67" t="n">
-        <v>0.571514974019808</v>
+        <v>0.330097988969208</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H67" t="n">
         <v>0.615946272238565</v>
       </c>
       <c r="I67" t="n">
-        <v>4.70043971814109</v>
+        <v>5.16992500144231</v>
       </c>
       <c r="J67" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K67" t="n">
-        <v>0.64973853521711</v>
+      <c r="K67" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L67" t="n">
-        <v>0.143833959087215</v>
+        <v>0.427110862734588</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0.263583588377683</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>0.128228531676709</v>
       </c>
       <c r="P67" t="n">
-        <v>0.150606513852679</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.122545412020891</v>
+        <v>0.108851598792196</v>
       </c>
       <c r="R67" t="n">
-        <v>0.124270161895681</v>
+        <v>0.425726991280174</v>
       </c>
       <c r="S67" t="n">
-        <v>0.106552026574306</v>
+        <v>0.0977156307044159</v>
       </c>
       <c r="T67" t="n">
-        <v>0.0886083381915452</v>
+        <v>0.135875893808304</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.1036013537382</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="B68" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="C68" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="D68" t="n">
-        <v>2.44907726867045</v>
+        <v>0.407527437990096</v>
       </c>
       <c r="E68" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H68" t="n">
-        <v>0.363968251777334</v>
+        <v>1.70785102757057</v>
       </c>
       <c r="I68" t="n">
-        <v>3.90689059560852</v>
-      </c>
-      <c r="J68" t="s">
-        <v>26</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.392024954986044</v>
+        <v>6.16992500144231</v>
+      </c>
+      <c r="J68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K68" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>0.575505938760336</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0.156744106069701</v>
+        <v>0.0656738080631759</v>
       </c>
       <c r="O68" t="n">
-        <v>0.37108376457957</v>
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>0.099895946681261</v>
+        <v>0.152769056616453</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.353708792576723</v>
+        <v>0.142720077322932</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>0.210609360603555</v>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>0.110994797722278</v>
       </c>
       <c r="T68" t="n">
-        <v>0.0185673900927451</v>
+        <v>0.256001435543513</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.0612314641280916</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C69" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="D69" t="n">
-        <v>0.729525469501158</v>
+        <v>1.07733795771883</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H69" t="n">
-        <v>0.615946272238565</v>
+        <v>1.23189254447713</v>
       </c>
       <c r="I69" t="n">
-        <v>4.8073549220576</v>
+        <v>5.64385618977472</v>
       </c>
       <c r="J69" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K69" t="n">
-        <v>0.596633706208732</v>
+      <c r="K69" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>0.449093295038004</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>0.08463789634056</v>
       </c>
       <c r="N69" t="n">
-        <v>0.537439335647318</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>0.106513851960041</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.348315999690963</v>
+        <v>0.223364362244255</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>0.407244606117607</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>0.115866562926195</v>
       </c>
       <c r="T69" t="n">
-        <v>0.00773081270167775</v>
+        <v>0.112807377626826</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.0560791947445571</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="B70" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="D70" t="n">
-        <v>2.78010728661349</v>
+        <v>0.953363674208554</v>
       </c>
       <c r="E70" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H70" t="n">
-        <v>0.671941387896617</v>
+        <v>0.279975578290257</v>
       </c>
       <c r="I70" t="n">
-        <v>4.90689059560852</v>
+        <v>3.58496250072116</v>
       </c>
       <c r="J70" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K70" t="n">
-        <v>0.757810200911416</v>
+      <c r="K70" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L70" t="n">
-        <v>0.383538367367422</v>
+        <v>0.637965512856903</v>
       </c>
       <c r="M70" t="n">
-        <v>0.147447337305198</v>
+        <v>0.360043025825591</v>
       </c>
       <c r="N70" t="n">
-        <v>0.179699213983772</v>
+        <v>0.0697848667329232</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>0.323935720918134</v>
       </c>
       <c r="P70" t="n">
-        <v>0.0945875981196528</v>
+        <v>0.0812577870084943</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -5481,284 +5691,299 @@
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>0.169009918144339</v>
+        <v>0.126673366733137</v>
       </c>
       <c r="T70" t="n">
-        <v>0.0257175650796155</v>
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.0383052327817197</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="B71" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="D71" t="n">
-        <v>1.3376016778781</v>
+        <v>0.882805463561211</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H71" t="n">
-        <v>0.727936503554668</v>
+        <v>0.643943830067591</v>
       </c>
       <c r="I71" t="n">
-        <v>4.85798099512757</v>
+        <v>5.04439411935845</v>
       </c>
       <c r="J71" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K71" t="n">
-        <v>0.539957042295368</v>
+      <c r="K71" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>0.808473165895148</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>0.0793707864444697</v>
       </c>
       <c r="N71" t="n">
-        <v>0.176730012408873</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>0.0913838694587305</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>0.163511238499196</v>
+        <v>0.0664122191873731</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.264571968989742</v>
+        <v>0.212278883274887</v>
       </c>
       <c r="R71" t="n">
-        <v>0.129770776550119</v>
+        <v>0.354654181544493</v>
       </c>
       <c r="S71" t="n">
-        <v>0.0826876733571825</v>
+        <v>0.202532629880316</v>
       </c>
       <c r="T71" t="n">
-        <v>0.0913444607361567</v>
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.084751299668461</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>224</v>
-      </c>
-      <c r="B72" t="s">
-        <v>225</v>
+        <v>186</v>
+      </c>
+      <c r="B72" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C72" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="D72" t="n">
-        <v>1.65241546603447</v>
+        <v>0.708349747091901</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H72" t="n">
-        <v>0.671941387896617</v>
+        <v>0.503956040922462</v>
       </c>
       <c r="I72" t="n">
-        <v>5.16992500144231</v>
+        <v>4.70043971814109</v>
       </c>
       <c r="J72" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K72" t="n">
-        <v>0.478867672178079</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
+      <c r="K72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L72" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M72" t="n">
-        <v>0.0614018026497692</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0.0930220195820889</v>
+        <v>0.0764003435841411</v>
       </c>
       <c r="O72" t="n">
-        <v>0.0681766454197774</v>
+        <v>0.264910091055278</v>
       </c>
       <c r="P72" t="n">
-        <v>0.21704226829776</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.28408838783251</v>
+        <v>0.0935240193023368</v>
       </c>
       <c r="R72" t="n">
-        <v>0.108938565874563</v>
+        <v>0.267460645468661</v>
       </c>
       <c r="S72" t="n">
-        <v>0.119621131142618</v>
+        <v>0.147362327939145</v>
       </c>
       <c r="T72" t="n">
-        <v>0.0477091792009136</v>
+        <v>0.108377354132105</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.0419652185183339</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="B73" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="C73" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="D73" t="n">
-        <v>0.390536916669804</v>
+        <v>1.73296055907925</v>
       </c>
       <c r="E73" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H73" t="n">
-        <v>0.307973136119283</v>
+        <v>0.223980462632206</v>
       </c>
       <c r="I73" t="n">
         <v>3.8073549220576</v>
       </c>
-      <c r="J73" t="e">
-        <v>#N/A</v>
+      <c r="J73" t="s">
+        <v>27</v>
       </c>
       <c r="K73" t="n">
-        <v>0.666239527934617</v>
+        <v>0.27027027027027</v>
       </c>
       <c r="L73" t="n">
-        <v>0.216947225425474</v>
+        <v>0.62407659609205</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0630713661457646</v>
+        <v>0.0610205842784469</v>
       </c>
       <c r="N73" t="n">
-        <v>0.204830814562037</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>0.095706354431257</v>
       </c>
       <c r="P73" t="n">
-        <v>0.122739282172645</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.0958976712093112</v>
+        <v>0.17693040358603</v>
       </c>
       <c r="R73" t="n">
-        <v>0.113702072223855</v>
+        <v>0.36292185578016</v>
       </c>
       <c r="S73" t="n">
-        <v>0.1562966837089</v>
+        <v>0.136420537475511</v>
       </c>
       <c r="T73" t="n">
-        <v>0.0265148845520116</v>
+        <v>0.0895614154092224</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.0774388490393725</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>230</v>
-      </c>
-      <c r="B74" t="s">
-        <v>231</v>
+        <v>191</v>
+      </c>
+      <c r="B74" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C74" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D74" t="n">
-        <v>0.517582750507118</v>
+        <v>0.765076784764917</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H74" t="n">
-        <v>0.587948714409539</v>
+        <v>0.111990231316103</v>
       </c>
       <c r="I74" t="n">
-        <v>4.75488750216347</v>
-      </c>
-      <c r="J74" t="e">
-        <v>#N/A</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="s">
+        <v>27</v>
       </c>
       <c r="K74" t="n">
-        <v>0.622731566582486</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0.112368428954719</v>
+        <v>0.285714285714286</v>
+      </c>
+      <c r="L74" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M74" t="n">
-        <v>0.0693066811271542</v>
+        <v>0.279863412518065</v>
       </c>
       <c r="N74" t="n">
-        <v>0.365029513455725</v>
+        <v>0.0752031023131815</v>
       </c>
       <c r="O74" t="n">
-        <v>0.0688816970853302</v>
+        <v>0.150503062695286</v>
       </c>
       <c r="P74" t="n">
-        <v>0.0811070154889089</v>
+        <v>0.067722537083597</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>0.111266978313812</v>
       </c>
       <c r="R74" t="n">
-        <v>0.0860055148062056</v>
+        <v>0.211562747648098</v>
       </c>
       <c r="S74" t="n">
-        <v>0.177750628613161</v>
+        <v>0.103878135240894</v>
       </c>
       <c r="T74" t="n">
-        <v>0.0395505204687959</v>
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.0000000241870663497679</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>233</v>
-      </c>
-      <c r="B75" t="s">
-        <v>234</v>
+        <v>193</v>
+      </c>
+      <c r="B75" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C75" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="D75" t="n">
-        <v>0.550419611007771</v>
+        <v>1.08950264868542</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H75" t="n">
-        <v>0.363968251777334</v>
+        <v>0.19598290480318</v>
       </c>
       <c r="I75" t="n">
         <v>4</v>
@@ -5766,188 +5991,197 @@
       <c r="J75" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K75" t="n">
-        <v>0.471068959090034</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0.570559572604357</v>
+      <c r="K75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L75" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M75" t="n">
-        <v>0.0625424071376501</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0.253797297232868</v>
+        <v>0.101573697014105</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>0.138200236936824</v>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>0.116267430491875</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>0.114008341526327</v>
       </c>
       <c r="R75" t="n">
-        <v>0.0872841014576835</v>
+        <v>0.238258311321791</v>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>0.103972013734983</v>
       </c>
       <c r="T75" t="n">
-        <v>0.0258166215674416</v>
+        <v>0.136592620508165</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.0511273484659296</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="C76" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="D76" t="n">
-        <v>0.785423033777577</v>
+        <v>3.04039166135154</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0839926734870771</v>
+        <v>0.643943830067591</v>
       </c>
       <c r="I76" t="n">
-        <v>2.58496250072116</v>
+        <v>4.75488750216347</v>
       </c>
       <c r="J76" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K76" t="n">
-        <v>0.543859344519963</v>
+      <c r="K76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L76" t="n">
-        <v>0.270529990333797</v>
+        <v>0.49150485279403</v>
       </c>
       <c r="M76" t="n">
-        <v>0.103583873849176</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0.121544192412978</v>
+        <v>0.0663369339961934</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>0.0999823299469701</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.118501312631777</v>
+        <v>0.425301172176932</v>
       </c>
       <c r="R76" t="n">
-        <v>0.129065599745378</v>
+        <v>0.35119215850877</v>
       </c>
       <c r="S76" t="n">
-        <v>0.156792701079924</v>
+        <v>0.113188256260382</v>
       </c>
       <c r="T76" t="n">
         <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.0439814790577218</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="B77" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="C77" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="D77" t="n">
-        <v>0.453305749936207</v>
+        <v>0.828368248951573</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0839926734870771</v>
+        <v>0.0559951156580514</v>
       </c>
       <c r="I77" t="n">
-        <v>4.16992500144231</v>
+        <v>2.58496250072116</v>
       </c>
       <c r="J77" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K77" t="n">
-        <v>0.356486627033376</v>
+      <c r="K77" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L77" t="n">
-        <v>0.520970687371845</v>
+        <v>0.549162269366051</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0972256937625451</v>
+        <v>0.250782011206616</v>
       </c>
       <c r="N77" t="n">
-        <v>0.100545720341275</v>
+        <v>0.111471879530442</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>0.151706099482703</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>0.120779885111439</v>
       </c>
       <c r="R77" t="n">
-        <v>0.0970001044119977</v>
+        <v>0.247115544963874</v>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>0.10315647754105</v>
       </c>
       <c r="T77" t="n">
-        <v>0.032551694629633</v>
+        <v>0.0874363754789994</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.0792578261675805</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>242</v>
-      </c>
-      <c r="B78" t="e">
-        <v>#N/A</v>
+        <v>201</v>
+      </c>
+      <c r="B78" t="s">
+        <v>202</v>
       </c>
       <c r="C78" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="D78" t="n">
-        <v>3.95948737822802</v>
+        <v>0.388138255821767</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H78" t="n">
-        <v>0.39196580960636</v>
+        <v>2.12781439500595</v>
       </c>
       <c r="I78" t="n">
-        <v>4.32192809488736</v>
+        <v>6.52356195605701</v>
       </c>
       <c r="J78" t="e">
         <v>#N/A</v>
@@ -5956,526 +6190,1463 @@
         <v>#N/A</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0694034970885765</v>
+        <v>0.572644393416624</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>0.157696415861318</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>0.134587034365037</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.304079095973372</v>
+        <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>0.186264963370419</v>
+        <v>0.128839507628334</v>
       </c>
       <c r="S78" t="n">
-        <v>0.103474053638766</v>
+        <v>0.821218976440908</v>
       </c>
       <c r="T78" t="n">
-        <v>0.0444949397025116</v>
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.0499415159307577</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="B79" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="C79" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="D79" t="n">
-        <v>0.662451416600774</v>
+        <v>0.674959180648736</v>
       </c>
       <c r="E79" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H79" t="n">
-        <v>0.531953598751488</v>
+        <v>0.419963367435385</v>
       </c>
       <c r="I79" t="n">
-        <v>4.90689059560852</v>
+        <v>4</v>
       </c>
       <c r="J79" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K79" t="n">
-        <v>0.620267598057406</v>
+      <c r="K79" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>0.699064292560397</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>0.310140744362781</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>0.068936002813622</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>0.26528956872205</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.480445572632228</v>
+        <v>0.213096875782795</v>
       </c>
       <c r="R79" t="n">
-        <v>0.0631397529026997</v>
+        <v>0.135272839158107</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>0.128113552085235</v>
       </c>
       <c r="T79" t="n">
-        <v>0.191125105743023</v>
+        <v>0.0744813049292694</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.0699586808681902</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="B80" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="C80" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="D80" t="n">
-        <v>1.56346077095907</v>
+        <v>0.775241276378305</v>
       </c>
       <c r="E80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H80" t="n">
-        <v>0.279975578290257</v>
+        <v>0.699938945725642</v>
       </c>
       <c r="I80" t="n">
-        <v>3.8073549220576</v>
+        <v>4.85798099512757</v>
       </c>
       <c r="J80" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K80" t="n">
-        <v>0.674694967634554</v>
+      <c r="K80" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L80" t="n">
-        <v>0.148760535083763</v>
+        <v>0.631004972671502</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>0.503332521636299</v>
       </c>
       <c r="N80" t="n">
-        <v>0.191419611143476</v>
+        <v>0.0614578925365872</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>0.213060726659897</v>
       </c>
       <c r="P80" t="n">
-        <v>0.0809454445061807</v>
+        <v>0.155699962478648</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.198194819146278</v>
+        <v>0</v>
       </c>
       <c r="R80" t="n">
-        <v>0.0865242820025566</v>
+        <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>0.197385851722872</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>0.0967694563948739</v>
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0.0664488966885677</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="B81" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="D81" t="n">
-        <v>0.724248630404926</v>
+        <v>0.571514974019808</v>
       </c>
       <c r="E81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H81" t="n">
-        <v>0.251978020461231</v>
+        <v>0.615946272238565</v>
       </c>
       <c r="I81" t="n">
-        <v>3.58496250072116</v>
+        <v>4.70043971814109</v>
       </c>
       <c r="J81" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K81" t="n">
-        <v>0.760571263751836</v>
+      <c r="K81" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L81" t="n">
-        <v>0.155508635964374</v>
+        <v>0.64973853521711</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0916656313976989</v>
+        <v>0.143833959087215</v>
       </c>
       <c r="N81" t="n">
-        <v>0.204768824569179</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>0.263583588377683</v>
       </c>
       <c r="P81" t="n">
-        <v>0.0868164302487179</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.199049104167971</v>
+        <v>0.150606513852679</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>0.122545412020891</v>
       </c>
       <c r="S81" t="n">
-        <v>0.210309335205238</v>
+        <v>0.124270161895681</v>
       </c>
       <c r="T81" t="n">
-        <v>0.0518820384468218</v>
+        <v>0.106552026574306</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.0886083381915452</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="B82" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="C82" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="D82" t="n">
-        <v>0.988855477993912</v>
+        <v>2.44907726867045</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0279975578290257</v>
+        <v>0.363968251777334</v>
       </c>
       <c r="I82" t="n">
-        <v>2.8073549220576</v>
-      </c>
-      <c r="J82" t="e">
-        <v>#N/A</v>
+        <v>3.90689059560852</v>
+      </c>
+      <c r="J82" t="s">
+        <v>27</v>
       </c>
       <c r="K82" t="n">
-        <v>0.257086835506525</v>
+        <v>0.311258278145695</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>0.392024954986044</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0764064458988235</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>0.156744106069701</v>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>0.37108376457957</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.923593554101176</v>
+        <v>0.099895946681261</v>
       </c>
       <c r="R82" t="n">
-        <v>0</v>
+        <v>0.353708792576723</v>
       </c>
       <c r="S82" t="n">
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>0.000000000000000111022302462516</v>
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.0185673900927451</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="B83" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="C83" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="D83" t="n">
-        <v>0.466801169472898</v>
+        <v>0.729525469501158</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H83" t="n">
-        <v>0.363968251777334</v>
+        <v>0.615946272238565</v>
       </c>
       <c r="I83" t="n">
-        <v>4.32192809488736</v>
+        <v>4.8073549220576</v>
       </c>
       <c r="J83" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K83" t="n">
-        <v>0.48880709589267</v>
+      <c r="K83" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0785783128295887</v>
+        <v>0.596633706208732</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0750021473702883</v>
+        <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>0.537439335647318</v>
       </c>
       <c r="P83" t="n">
-        <v>0.172962479086884</v>
+        <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.44042006198329</v>
+        <v>0.106513851960041</v>
       </c>
       <c r="R83" t="n">
-        <v>0.115794368532733</v>
+        <v>0.348315999690963</v>
       </c>
       <c r="S83" t="n">
-        <v>0.0754232691319546</v>
+        <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>0.0418193610652614</v>
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.00773081270167775</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="B84" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="C84" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="D84" t="n">
-        <v>0.935436254064433</v>
+        <v>2.78010728661349</v>
       </c>
       <c r="E84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0839926734870771</v>
+        <v>0.671941387896617</v>
       </c>
       <c r="I84" t="n">
-        <v>2.58496250072116</v>
+        <v>5</v>
       </c>
       <c r="J84" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K84" t="n">
-        <v>0.263417416871963</v>
+      <c r="K84" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L84" t="n">
-        <v>0.421856281219284</v>
+        <v>0.757810200911416</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>0.383538367367422</v>
       </c>
       <c r="N84" t="n">
-        <v>0.238175344029036</v>
+        <v>0.147447337305198</v>
       </c>
       <c r="O84" t="n">
-        <v>0.122182560086</v>
+        <v>0.179699213983772</v>
       </c>
       <c r="P84" t="n">
-        <v>0.0825144550173773</v>
+        <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>0.0945875981196528</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>0.0840604798772543</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>0.0512108797710477</v>
+        <v>0.169009918144339</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.0257175650796155</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="B85" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="C85" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="D85" t="n">
-        <v>0.574163528083403</v>
+        <v>1.3376016778781</v>
       </c>
       <c r="E85" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0279975578290257</v>
+        <v>0.727936503554668</v>
       </c>
       <c r="I85" t="n">
-        <v>1.58496250072116</v>
+        <v>4.85798099512757</v>
       </c>
       <c r="J85" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K85" t="n">
-        <v>0.575590445721698</v>
+      <c r="K85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L85" t="n">
-        <v>0.527771817465587</v>
+        <v>0.539957042295368</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0872046483395278</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0.117060508256837</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>0.176730012408873</v>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>0.0913838694587305</v>
       </c>
       <c r="Q85" t="n">
-        <v>0</v>
+        <v>0.163511238499196</v>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>0.264571968989742</v>
       </c>
       <c r="S85" t="n">
-        <v>0.165646281315747</v>
+        <v>0.129770776550119</v>
       </c>
       <c r="T85" t="n">
-        <v>0.102316744622302</v>
+        <v>0.0826876733571825</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0.0913444607361567</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>225</v>
+      </c>
+      <c r="B86" t="s">
+        <v>226</v>
+      </c>
+      <c r="C86" t="s">
+        <v>227</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.65241546603447</v>
+      </c>
+      <c r="E86" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.671941387896617</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5.16992500144231</v>
+      </c>
+      <c r="J86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.478867672178079</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.0614018026497692</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.0930220195820889</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.0681766454197774</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.21704226829776</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.28408838783251</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.108938565874563</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.119621131142618</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.0477091792009136</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>228</v>
+      </c>
+      <c r="B87" t="s">
+        <v>229</v>
+      </c>
+      <c r="C87" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.390536916669804</v>
+      </c>
+      <c r="E87" t="s">
+        <v>31</v>
+      </c>
+      <c r="F87" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.307973136119283</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3.90689059560852</v>
+      </c>
+      <c r="J87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.666239527934617</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.216947225425474</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.0630713661457646</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.204830814562037</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.122739282172645</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.0958976712093112</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.113702072223855</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.1562966837089</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.0265148845520116</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>231</v>
+      </c>
+      <c r="B88" t="s">
+        <v>232</v>
+      </c>
+      <c r="C88" t="s">
+        <v>233</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.517582750507118</v>
+      </c>
+      <c r="E88" t="s">
+        <v>31</v>
+      </c>
+      <c r="F88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.587948714409539</v>
+      </c>
+      <c r="I88" t="n">
+        <v>4.75488750216347</v>
+      </c>
+      <c r="J88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.622731566582486</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.112368428954719</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.0693066811271542</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.365029513455725</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.0688816970853302</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.0811070154889089</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.0860055148062056</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.177750628613161</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.0395505204687959</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>234</v>
+      </c>
+      <c r="B89" t="s">
+        <v>235</v>
+      </c>
+      <c r="C89" t="s">
+        <v>236</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.550419611007771</v>
+      </c>
+      <c r="E89" t="s">
+        <v>31</v>
+      </c>
+      <c r="F89" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" t="s">
+        <v>33</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.363968251777334</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.471068959090034</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.570559572604357</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.0625424071376501</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.253797297232868</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.0872841014576835</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.0258166215674416</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>237</v>
+      </c>
+      <c r="B90" t="s">
+        <v>238</v>
+      </c>
+      <c r="C90" t="s">
+        <v>239</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.785423033777577</v>
+      </c>
+      <c r="E90" t="s">
+        <v>31</v>
+      </c>
+      <c r="F90" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" t="s">
+        <v>33</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.0839926734870771</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.58496250072116</v>
+      </c>
+      <c r="J90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.543859344519963</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.270529990333797</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.103583873849176</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.121544192412978</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.0999823299469701</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.118501312631777</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.129065599745378</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.156792701079924</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>240</v>
+      </c>
+      <c r="B91" t="s">
+        <v>241</v>
+      </c>
+      <c r="C91" t="s">
+        <v>242</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.453305749936207</v>
+      </c>
+      <c r="E91" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" t="s">
+        <v>33</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.0839926734870771</v>
+      </c>
+      <c r="I91" t="n">
+        <v>4.16992500144231</v>
+      </c>
+      <c r="J91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.356486627033376</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.520970687371845</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.0972256937625451</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.100545720341275</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.151706099482703</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.0970001044119977</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.032551694629633</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>243</v>
+      </c>
+      <c r="B92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C92" t="s">
+        <v>244</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3.95948737822802</v>
+      </c>
+      <c r="E92" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92" t="s">
+        <v>33</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.39196580960636</v>
+      </c>
+      <c r="I92" t="n">
+        <v>4.32192809488736</v>
+      </c>
+      <c r="J92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.0694034970885765</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.157696415861318</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.134587034365037</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.304079095973372</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.186264963370419</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.103474053638766</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0.0444949397025116</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>245</v>
+      </c>
+      <c r="B93" t="s">
+        <v>246</v>
+      </c>
+      <c r="C93" t="s">
+        <v>247</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.662451416600774</v>
+      </c>
+      <c r="E93" t="s">
+        <v>31</v>
+      </c>
+      <c r="F93" t="s">
+        <v>32</v>
+      </c>
+      <c r="G93" t="s">
+        <v>33</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.531953598751488</v>
+      </c>
+      <c r="I93" t="n">
+        <v>4.90689059560852</v>
+      </c>
+      <c r="J93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.620267598057406</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.26528956872205</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.480445572632228</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.0631397529026997</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.191125105743023</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>248</v>
+      </c>
+      <c r="B94" t="s">
+        <v>249</v>
+      </c>
+      <c r="C94" t="s">
+        <v>250</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.56346077095907</v>
+      </c>
+      <c r="E94" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" t="s">
+        <v>32</v>
+      </c>
+      <c r="G94" t="s">
+        <v>33</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.279975578290257</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.8073549220576</v>
+      </c>
+      <c r="J94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.674694967634554</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.148760535083763</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.191419611143476</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.0809454445061807</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.198194819146278</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.0865242820025566</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.197385851722872</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0.0967694563948739</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>251</v>
+      </c>
+      <c r="B95" t="s">
+        <v>252</v>
+      </c>
+      <c r="C95" t="s">
+        <v>253</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.724248630404926</v>
+      </c>
+      <c r="E95" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" t="s">
+        <v>32</v>
+      </c>
+      <c r="G95" t="s">
+        <v>33</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.251978020461231</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3.58496250072116</v>
+      </c>
+      <c r="J95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.760571263751836</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.155508635964374</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.0916656313976989</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.204768824569179</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.0868164302487179</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.199049104167971</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0.210309335205238</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0.0518820384468218</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>254</v>
+      </c>
+      <c r="B96" t="s">
+        <v>255</v>
+      </c>
+      <c r="C96" t="s">
+        <v>256</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.988855477993912</v>
+      </c>
+      <c r="E96" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" t="s">
+        <v>32</v>
+      </c>
+      <c r="G96" t="s">
+        <v>33</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.0279975578290257</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2.8073549220576</v>
+      </c>
+      <c r="J96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.257086835506525</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.0764064458988235</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.923593554101176</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0.000000000000000111022302462516</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>257</v>
+      </c>
+      <c r="B97" t="s">
+        <v>258</v>
+      </c>
+      <c r="C97" t="s">
+        <v>259</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.466801169472898</v>
+      </c>
+      <c r="E97" t="s">
+        <v>31</v>
+      </c>
+      <c r="F97" t="s">
+        <v>32</v>
+      </c>
+      <c r="G97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.363968251777334</v>
+      </c>
+      <c r="I97" t="n">
+        <v>4.32192809488736</v>
+      </c>
+      <c r="J97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.48880709589267</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.0785783128295887</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.0750021473702883</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.172962479086884</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.44042006198329</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.115794368532733</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.0754232691319546</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0.0418193610652614</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>260</v>
+      </c>
+      <c r="B98" t="s">
+        <v>261</v>
+      </c>
+      <c r="C98" t="s">
+        <v>262</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.935436254064433</v>
+      </c>
+      <c r="E98" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" t="s">
+        <v>32</v>
+      </c>
+      <c r="G98" t="s">
+        <v>33</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.0839926734870771</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2.58496250072116</v>
+      </c>
+      <c r="J98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.263417416871963</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.421856281219284</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.238175344029036</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.122182560086</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.0825144550173773</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.0840604798772543</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.0512108797710477</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>263</v>
+      </c>
+      <c r="B99" t="s">
+        <v>264</v>
+      </c>
+      <c r="C99" t="s">
         <v>265</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D99" t="n">
+        <v>0.574163528083403</v>
+      </c>
+      <c r="E99" t="s">
+        <v>31</v>
+      </c>
+      <c r="F99" t="s">
+        <v>32</v>
+      </c>
+      <c r="G99" t="s">
+        <v>33</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.0279975578290257</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1.58496250072116</v>
+      </c>
+      <c r="J99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.575590445721698</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.527771817465587</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.0872046483395278</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.117060508256837</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.165646281315747</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0.102316744622302</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
         <v>266</v>
       </c>
-      <c r="C86" t="s">
+      <c r="B100" t="s">
         <v>267</v>
       </c>
-      <c r="D86" t="n">
+      <c r="C100" t="s">
+        <v>268</v>
+      </c>
+      <c r="D100" t="n">
         <v>0.859182287154718</v>
       </c>
-      <c r="E86" t="s">
-        <v>29</v>
-      </c>
-      <c r="F86" t="s">
-        <v>30</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="E100" t="s">
         <v>31</v>
       </c>
-      <c r="H86" t="n">
+      <c r="F100" t="s">
+        <v>32</v>
+      </c>
+      <c r="G100" t="s">
+        <v>33</v>
+      </c>
+      <c r="H100" t="n">
         <v>0.0279975578290257</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I100" t="n">
         <v>1.58496250072116</v>
       </c>
-      <c r="J86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K86" t="n">
+      <c r="J100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L100" t="n">
         <v>0.479093805144225</v>
       </c>
-      <c r="L86" t="n">
+      <c r="M100" t="n">
         <v>0.415539791654947</v>
       </c>
-      <c r="M86" t="n">
-        <v>0</v>
-      </c>
-      <c r="N86" t="n">
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
         <v>0.158302221030284</v>
       </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
         <v>0.0773582255260954</v>
       </c>
-      <c r="Q86" t="n">
-        <v>0</v>
-      </c>
-      <c r="R86" t="n">
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" t="n">
         <v>0.125230642953602</v>
       </c>
-      <c r="S86" t="n">
+      <c r="T100" t="n">
         <v>0.173313921586915</v>
       </c>
-      <c r="T86" t="n">
+      <c r="U100" t="n">
         <v>0.050255197248157</v>
       </c>
     </row>

--- a/analyses/07-additional_figures/output/hgat_tmb_mut_counts_sigs_tel_df.xlsx
+++ b/analyses/07-additional_figures/output/hgat_tmb_mut_counts_sigs_tel_df.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
   <si>
     <t xml:space="preserve">Kids_First_Biospecimen_ID_DNA</t>
   </si>
@@ -44,9 +44,6 @@
     <t xml:space="preserve">Hugo_Symbol</t>
   </si>
   <si>
-    <t xml:space="preserve">VAF</t>
-  </si>
-  <si>
     <t xml:space="preserve">telomerase_score</t>
   </si>
   <si>
@@ -92,64 +89,64 @@
     <t xml:space="preserve">ATRX_mut</t>
   </si>
   <si>
+    <t xml:space="preserve">Oncogenic or Likely Oncogenic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATRX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS_CGXTFM67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7316-3212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nonATRX_mut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not mutated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS_VW4XN9Y7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS_FX2P2WEG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7316-2640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS_02YBZSBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS_HJRTC9JQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7316-2189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS_S0T3CQ97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS_29X4ZX6Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7316-2980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS_TRGECFNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS_MWWZBQ60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7316-2756</t>
+  </si>
+  <si>
     <t xml:space="preserve">VUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATRX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oncogenic or Likely Oncogenic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS_CGXTFM67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7316-3212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nonATRX_mut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not mutated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS_VW4XN9Y7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS_FX2P2WEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7316-2640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS_02YBZSBY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS_HJRTC9JQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7316-2189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS_S0T3CQ97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS_29X4ZX6Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7316-2980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS_TRGECFNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS_MWWZBQ60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7316-2756</t>
   </si>
   <si>
     <t xml:space="preserve">BS_85Q5P8GF</t>
@@ -1211,31 +1208,28 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="n">
         <v>1.30551947713444</v>
       </c>
       <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
       </c>
       <c r="H2" t="n">
         <v>307.049216710925</v>
@@ -1244,22 +1238,22 @@
         <v>13.7886163862508</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06</v>
+        <v>0.571873002278057</v>
       </c>
       <c r="L2" t="n">
-        <v>0.571873002278057</v>
+        <v>0.0697604790628198</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0697604790628198</v>
+        <v>0.165075926753433</v>
       </c>
       <c r="N2" t="n">
-        <v>0.165075926753433</v>
+        <v>0.645685466825502</v>
       </c>
       <c r="O2" t="n">
-        <v>0.645685466825502</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1268,128 +1262,122 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.0641460245322681</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0641460245322681</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
         <v>0.055332102825977</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="B3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>1.30551947713444</v>
+        <v>0.892867449440256</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H3" t="n">
-        <v>307.049216710925</v>
+        <v>0.139987789145128</v>
       </c>
       <c r="I3" t="n">
-        <v>13.7886163862508</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.295081967213115</v>
+        <v>3.90689059560852</v>
+      </c>
+      <c r="J3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L3" t="n">
-        <v>0.571873002278057</v>
+        <v>0.334453468112554</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0697604790628198</v>
+        <v>0.10089271395975</v>
       </c>
       <c r="N3" t="n">
-        <v>0.165075926753433</v>
+        <v>0.162475212160087</v>
       </c>
       <c r="O3" t="n">
-        <v>0.645685466825502</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.16885311626284</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0641460245322681</v>
+        <v>0.16805313844356</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.055332102825977</v>
+        <v>0.0652723510612085</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.42688611222043</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.30551947713444</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="n">
+        <v>187.387654549669</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13.1197517122014</v>
+      </c>
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="n">
-        <v>307.049216710925</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13.7886163862508</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
       <c r="K4" t="n">
-        <v>0.397058823529412</v>
+        <v>0.570815120485353</v>
       </c>
       <c r="L4" t="n">
-        <v>0.571873002278057</v>
+        <v>0.0837204010206548</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0697604790628198</v>
+        <v>0.082170512139978</v>
       </c>
       <c r="N4" t="n">
-        <v>0.165075926753433</v>
+        <v>0.510992389173822</v>
       </c>
       <c r="O4" t="n">
-        <v>0.645685466825502</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1398,63 +1386,60 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.286197211002525</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0641460245322681</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.055332102825977</v>
+        <v>0.0369194866630197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>1.30551947713444</v>
+        <v>1.49438953400914</v>
       </c>
       <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
       <c r="H5" t="n">
-        <v>307.049216710925</v>
+        <v>274.488056955768</v>
       </c>
       <c r="I5" t="n">
-        <v>13.7886163862508</v>
+        <v>13.4809163935333</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" t="n">
-        <v>0.40625</v>
+        <v>0.454679866017166</v>
       </c>
       <c r="L5" t="n">
-        <v>0.571873002278057</v>
+        <v>0.251825928625267</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0697604790628198</v>
+        <v>0.0815253292217893</v>
       </c>
       <c r="N5" t="n">
-        <v>0.165075926753433</v>
+        <v>0.323738675871913</v>
       </c>
       <c r="O5" t="n">
-        <v>0.645685466825502</v>
+        <v>0.0790806883320622</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -1463,63 +1448,60 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.263829377948969</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0641460245322681</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.055332102825977</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.9045233498792</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.30551947713444</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="n">
+        <v>7.75532351864012</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.34429590791582</v>
+      </c>
+      <c r="J6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" t="n">
-        <v>307.049216710925</v>
-      </c>
-      <c r="I6" t="n">
-        <v>13.7886163862508</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
       <c r="K6" t="n">
-        <v>0.444444444444444</v>
+        <v>0.529313271501999</v>
       </c>
       <c r="L6" t="n">
-        <v>0.571873002278057</v>
+        <v>0.72473350143774</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0697604790628198</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.165075926753433</v>
+        <v>0.211503531592911</v>
       </c>
       <c r="O6" t="n">
-        <v>0.645685466825502</v>
+        <v>0.0637629669693487</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1531,125 +1513,119 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0641460245322681</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.055332102825977</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>1.30551947713444</v>
+        <v>2.12785443188844</v>
       </c>
       <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
       <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.11990231316103</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.49185309632967</v>
+      </c>
+      <c r="J7" t="s">
         <v>26</v>
       </c>
-      <c r="H7" t="n">
-        <v>307.049216710925</v>
-      </c>
-      <c r="I7" t="n">
-        <v>13.7886163862508</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
       <c r="K7" t="n">
-        <v>0.542372881355932</v>
+        <v>0.531683566137128</v>
       </c>
       <c r="L7" t="n">
-        <v>0.571873002278057</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0697604790628198</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.165075926753433</v>
+        <v>0.176538635123366</v>
       </c>
       <c r="O7" t="n">
-        <v>0.645685466825502</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.685278098272759</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0641460245322681</v>
+        <v>0.0835252770571148</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.055332102825977</v>
+        <v>0.0546579895467605</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="e">
-        <v>#N/A</v>
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D8" t="n">
-        <v>0.892867449440256</v>
+        <v>1.49313856463679</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H8" t="n">
-        <v>0.139987789145128</v>
+        <v>4.73158727310534</v>
       </c>
       <c r="I8" t="n">
-        <v>3.90689059560852</v>
-      </c>
-      <c r="J8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L8" t="e">
-        <v>#N/A</v>
+        <v>7.6724253419715</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.529058895321795</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.775035702115365</v>
       </c>
       <c r="M8" t="n">
-        <v>0.334453468112554</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.10089271395975</v>
+        <v>0.191042033464313</v>
       </c>
       <c r="O8" t="n">
-        <v>0.162475212160087</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1658,63 +1634,60 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.16885311626284</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.16805313844356</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.0652723510612085</v>
+        <v>0.0339222644203223</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>1.42688611222043</v>
+        <v>1.10358853243914</v>
       </c>
       <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
       <c r="H9" t="n">
-        <v>187.387654549669</v>
+        <v>15.4826494794512</v>
       </c>
       <c r="I9" t="n">
-        <v>13.1197517122014</v>
+        <v>9.3264294871223</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" t="n">
-        <v>0.595238095238095</v>
+        <v>0.549328326777937</v>
       </c>
       <c r="L9" t="n">
-        <v>0.570815120485353</v>
+        <v>0.747059918129611</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0837204010206548</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.082170512139978</v>
+        <v>0.189105061464373</v>
       </c>
       <c r="O9" t="n">
-        <v>0.510992389173822</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1726,193 +1699,184 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.286197211002525</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.0369194866630197</v>
+        <v>0.0638350204060155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D10" t="n">
-        <v>1.49438953400914</v>
+        <v>0.761383218672575</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.531953598751488</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.4594316186373</v>
+      </c>
+      <c r="J10" t="s">
         <v>26</v>
       </c>
-      <c r="H10" t="n">
-        <v>274.488056955768</v>
-      </c>
-      <c r="I10" t="n">
-        <v>13.4809163935333</v>
-      </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
       <c r="K10" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.381370593119562</v>
       </c>
       <c r="L10" t="n">
-        <v>0.454679866017166</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.251825928625267</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0815253292217893</v>
+        <v>0.0828187158992442</v>
       </c>
       <c r="O10" t="n">
-        <v>0.323738675871913</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0790806883320622</v>
+        <v>0.165144037701407</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.391468403017733</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.179237879058704</v>
       </c>
       <c r="S10" t="n">
-        <v>0.263829377948969</v>
+        <v>0.0737985029811942</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
+        <v>0.107532461341718</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D11" t="n">
-        <v>1.49438953400914</v>
+        <v>0.366265200539345</v>
       </c>
       <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
       <c r="H11" t="n">
-        <v>274.488056955768</v>
+        <v>1.00791208184492</v>
       </c>
       <c r="I11" t="n">
-        <v>13.4809163935333</v>
-      </c>
-      <c r="J11" t="s">
-        <v>27</v>
+        <v>5.90689059560852</v>
+      </c>
+      <c r="J11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K11" t="n">
-        <v>0.212121212121212</v>
+        <v>0.429811768093937</v>
       </c>
       <c r="L11" t="n">
-        <v>0.454679866017166</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.251825928625267</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0815253292217893</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.323738675871913</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0790806883320622</v>
+        <v>0.503549175712259</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.342881664544902</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.263829377948969</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
+        <v>0.15356915974284</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
+        <v>57</v>
+      </c>
+      <c r="B12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D12" t="n">
-        <v>1.49438953400914</v>
+        <v>3.04285034754224</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
         <v>25</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="n">
+        <v>0.475958483093437</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.4594316186373</v>
+      </c>
+      <c r="J12" t="s">
         <v>26</v>
       </c>
-      <c r="H12" t="n">
-        <v>274.488056955768</v>
-      </c>
-      <c r="I12" t="n">
-        <v>13.4809163935333</v>
-      </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.23</v>
+      <c r="K12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L12" t="n">
-        <v>0.454679866017166</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.251825928625267</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0815253292217893</v>
+        <v>0.265583989584329</v>
       </c>
       <c r="O12" t="n">
-        <v>0.323738675871913</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0790806883320622</v>
+        <v>0.177848933899108</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1921,911 +1885,869 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.263829377948969</v>
+        <v>0.445687311876346</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
+        <v>0.110879764640218</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D13" t="n">
-        <v>1.49438953400914</v>
+        <v>3.43674119313015</v>
       </c>
       <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
         <v>31</v>
       </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
       <c r="H13" t="n">
-        <v>274.488056955768</v>
+        <v>0.923919408357848</v>
       </c>
       <c r="I13" t="n">
-        <v>13.4809163935333</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
+        <v>5.20945336562895</v>
+      </c>
+      <c r="J13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K13" t="n">
-        <v>0.304878048780488</v>
+        <v>0.535327213327537</v>
       </c>
       <c r="L13" t="n">
-        <v>0.454679866017166</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.251825928625267</v>
+        <v>0.0925799157475719</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0815253292217893</v>
+        <v>0.0757558707683777</v>
       </c>
       <c r="O13" t="n">
-        <v>0.323738675871913</v>
+        <v>0.191761198324725</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0790806883320622</v>
+        <v>0.14591941716309</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.271829242178154</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.263829377948969</v>
+        <v>0.115249394891803</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
+        <v>0.106904960926279</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="B14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D14" t="n">
-        <v>1.49438953400914</v>
+        <v>0.744840196923758</v>
       </c>
       <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
         <v>31</v>
       </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
       <c r="H14" t="n">
-        <v>274.488056955768</v>
+        <v>0.503956040922462</v>
       </c>
       <c r="I14" t="n">
-        <v>13.4809163935333</v>
-      </c>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.317073170731707</v>
+        <v>4.64385618977472</v>
+      </c>
+      <c r="J14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L14" t="n">
-        <v>0.454679866017166</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.251825928625267</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0815253292217893</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.323738675871913</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0790806883320622</v>
+        <v>0.215880590098165</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.426273641853423</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.151624815868599</v>
       </c>
       <c r="S14" t="n">
-        <v>0.263829377948969</v>
+        <v>0.0936827520239467</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
+        <v>0.112538200155867</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D15" t="n">
-        <v>1.49438953400914</v>
+        <v>1.19818573822931</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.21180706849303</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.52356195605701</v>
+      </c>
+      <c r="J15" t="s">
         <v>26</v>
       </c>
-      <c r="H15" t="n">
-        <v>274.488056955768</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13.4809163935333</v>
-      </c>
-      <c r="J15" t="s">
-        <v>27</v>
-      </c>
       <c r="K15" t="n">
-        <v>0.329787234042553</v>
+        <v>0.464521382425448</v>
       </c>
       <c r="L15" t="n">
-        <v>0.454679866017166</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.251825928625267</v>
+        <v>0.188179851974447</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0815253292217893</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.323738675871913</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0790806883320622</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.181146830438943</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.577515679154303</v>
       </c>
       <c r="S15" t="n">
-        <v>0.263829377948969</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
+        <v>0.0531576384323073</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D16" t="n">
-        <v>1.49438953400914</v>
+        <v>0.603105148336912</v>
       </c>
       <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
         <v>31</v>
       </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
       <c r="H16" t="n">
-        <v>274.488056955768</v>
+        <v>1.65185591191252</v>
       </c>
       <c r="I16" t="n">
-        <v>13.4809163935333</v>
-      </c>
-      <c r="J16" t="s">
-        <v>27</v>
+        <v>6.35755200461808</v>
+      </c>
+      <c r="J16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K16" t="n">
-        <v>0.348623853211009</v>
+        <v>0.537158894358265</v>
       </c>
       <c r="L16" t="n">
-        <v>0.454679866017166</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.251825928625267</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0815253292217893</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.323738675871913</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0790806883320622</v>
+        <v>0.342357710509817</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.6078963112825</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.263829377948969</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
+        <v>0.0497459782076837</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D17" t="n">
-        <v>1.49438953400914</v>
+        <v>0.457387495384936</v>
       </c>
       <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
         <v>31</v>
       </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
       <c r="H17" t="n">
-        <v>274.488056955768</v>
+        <v>0.587948714409539</v>
       </c>
       <c r="I17" t="n">
-        <v>13.4809163935333</v>
-      </c>
-      <c r="J17" t="s">
-        <v>27</v>
+        <v>4.64385618977472</v>
+      </c>
+      <c r="J17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K17" t="n">
-        <v>0.348837209302326</v>
+        <v>0.465290036941175</v>
       </c>
       <c r="L17" t="n">
-        <v>0.454679866017166</v>
+        <v>0.143793139343376</v>
       </c>
       <c r="M17" t="n">
-        <v>0.251825928625267</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0815253292217893</v>
+        <v>0.16016076534176</v>
       </c>
       <c r="O17" t="n">
-        <v>0.323738675871913</v>
+        <v>0.0996879603561902</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0790806883320622</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.220793192647928</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.20564242770529</v>
       </c>
       <c r="S17" t="n">
-        <v>0.263829377948969</v>
+        <v>0.115272050826958</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
+        <v>0.0546504637784985</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D18" t="n">
-        <v>1.49438953400914</v>
+        <v>1.15543569807249</v>
       </c>
       <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
         <v>31</v>
       </c>
-      <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
       <c r="H18" t="n">
-        <v>274.488056955768</v>
+        <v>0.643943830067591</v>
       </c>
       <c r="I18" t="n">
-        <v>13.4809163935333</v>
-      </c>
-      <c r="J18" t="s">
-        <v>27</v>
+        <v>4.85798099512757</v>
+      </c>
+      <c r="J18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K18" t="n">
-        <v>0.375</v>
+        <v>0.515722713008091</v>
       </c>
       <c r="L18" t="n">
-        <v>0.454679866017166</v>
+        <v>0.160546797083476</v>
       </c>
       <c r="M18" t="n">
-        <v>0.251825928625267</v>
+        <v>0.0953089921426336</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0815253292217893</v>
+        <v>0.119349880408728</v>
       </c>
       <c r="O18" t="n">
-        <v>0.323738675871913</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0790806883320622</v>
+        <v>0.106028032451864</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.206734086544961</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.263829377948969</v>
+        <v>0.222247364680321</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
+        <v>0.0897848466880165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D19" t="n">
-        <v>1.9045233498792</v>
+        <v>2.62558793175662</v>
       </c>
       <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
         <v>24</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>25</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="n">
+        <v>1.14789987099005</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.61470984411521</v>
+      </c>
+      <c r="J19" t="s">
         <v>26</v>
       </c>
-      <c r="H19" t="n">
-        <v>7.75532351864012</v>
-      </c>
-      <c r="I19" t="n">
-        <v>8.34429590791582</v>
-      </c>
-      <c r="J19" t="s">
-        <v>27</v>
-      </c>
       <c r="K19" t="n">
-        <v>0.742857142857143</v>
+        <v>0.196574062165857</v>
       </c>
       <c r="L19" t="n">
-        <v>0.529313271501999</v>
+        <v>0.282885125623585</v>
       </c>
       <c r="M19" t="n">
-        <v>0.72473350143774</v>
+        <v>0.0921683435356933</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.118296886374186</v>
       </c>
       <c r="O19" t="n">
-        <v>0.211503531592911</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0637629669693487</v>
+        <v>0.096901027724683</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.147536418135327</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.0934264684523389</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.109727196716572</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
+        <v>0.0590585334376148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
+        <v>79</v>
+      </c>
+      <c r="B20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D20" t="n">
-        <v>1.9045233498792</v>
+        <v>0.905929830263928</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H20" t="n">
-        <v>7.75532351864012</v>
+        <v>0.223980462632206</v>
       </c>
       <c r="I20" t="n">
-        <v>8.34429590791582</v>
-      </c>
-      <c r="J20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.88135593220339</v>
+        <v>3.4594316186373</v>
+      </c>
+      <c r="J20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L20" t="n">
-        <v>0.529313271501999</v>
+        <v>0.145281431113922</v>
       </c>
       <c r="M20" t="n">
-        <v>0.72473350143774</v>
+        <v>0.0652881947268414</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>0.171027068352983</v>
       </c>
       <c r="O20" t="n">
-        <v>0.211503531592911</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0637629669693487</v>
+        <v>0.236877281211508</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.180799375693473</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.10921378066037</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.0714711901164689</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
+        <v>0.0200416781244339</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D21" t="n">
-        <v>2.12785443188844</v>
+        <v>0.895720234771243</v>
       </c>
       <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
         <v>31</v>
       </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
       <c r="H21" t="n">
-        <v>1.11990231316103</v>
+        <v>0.0839926734870771</v>
       </c>
       <c r="I21" t="n">
-        <v>5.49185309632967</v>
-      </c>
-      <c r="J21" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="J21" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K21" t="n">
-        <v>0.532258064516129</v>
+        <v>0.326000478991198</v>
       </c>
       <c r="L21" t="n">
-        <v>0.531683566137128</v>
+        <v>0.0830827085692397</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.114577665539355</v>
       </c>
       <c r="O21" t="n">
-        <v>0.176538635123366</v>
+        <v>0.120050819970376</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.205530225459334</v>
       </c>
       <c r="R21" t="n">
-        <v>0.685278098272759</v>
+        <v>0.130480576489236</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>0.306573533906154</v>
       </c>
       <c r="T21" t="n">
-        <v>0.0835252770571148</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.0546579895467605</v>
+        <v>0.0397044700663067</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D22" t="n">
-        <v>1.49313856463679</v>
+        <v>0.954150550892822</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H22" t="n">
-        <v>4.73158727310534</v>
+        <v>0.727936503554668</v>
       </c>
       <c r="I22" t="n">
-        <v>7.6724253419715</v>
-      </c>
-      <c r="J22" t="s">
-        <v>27</v>
+        <v>5.16992500144231</v>
+      </c>
+      <c r="J22" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K22" t="n">
-        <v>0.707317073170732</v>
+        <v>0.39790533951934</v>
       </c>
       <c r="L22" t="n">
-        <v>0.529058895321795</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.775035702115365</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.191042033464313</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.39985647773547</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.444840344339437</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.0339222644203223</v>
+        <v>0.155303177925093</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D23" t="n">
-        <v>1.10358853243914</v>
+        <v>0.862448544389736</v>
       </c>
       <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
         <v>31</v>
       </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
       <c r="H23" t="n">
-        <v>15.4826494794512</v>
+        <v>0.279975578290257</v>
       </c>
       <c r="I23" t="n">
-        <v>9.3264294871223</v>
-      </c>
-      <c r="J23" t="s">
-        <v>27</v>
+        <v>3.90689059560852</v>
+      </c>
+      <c r="J23" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K23" t="n">
-        <v>0.533333333333333</v>
+        <v>0.57773596166521</v>
       </c>
       <c r="L23" t="n">
-        <v>0.549328326777937</v>
+        <v>0.101041879251109</v>
       </c>
       <c r="M23" t="n">
-        <v>0.747059918129611</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>0.248198125786166</v>
       </c>
       <c r="O23" t="n">
-        <v>0.189105061464373</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>0.206290481601653</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>0.324145729477689</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.0728318544940469</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.0638350204060155</v>
+        <v>0.0474919293893359</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D24" t="n">
-        <v>0.761383218672575</v>
+        <v>3.88902941072736</v>
       </c>
       <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
         <v>31</v>
       </c>
-      <c r="F24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
       <c r="H24" t="n">
-        <v>0.531953598751488</v>
+        <v>0.615946272238565</v>
       </c>
       <c r="I24" t="n">
-        <v>4.4594316186373</v>
-      </c>
-      <c r="J24" t="s">
-        <v>27</v>
+        <v>4.75488750216347</v>
+      </c>
+      <c r="J24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K24" t="n">
-        <v>0.82258064516129</v>
+        <v>0.238692321358866</v>
       </c>
       <c r="L24" t="n">
-        <v>0.381370593119562</v>
+        <v>0.178038934231362</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.192224261434057</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0828187158992442</v>
+        <v>0.185488313516258</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.196195678849981</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.165144037701407</v>
+        <v>0.0937103151313331</v>
       </c>
       <c r="R24" t="n">
-        <v>0.391468403017733</v>
+        <v>0.0836452463124143</v>
       </c>
       <c r="S24" t="n">
-        <v>0.179237879058704</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0737985029811942</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.107532461341718</v>
+        <v>0.0706972505245949</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D25" t="n">
-        <v>0.366265200539345</v>
+        <v>2.21840119242882</v>
       </c>
       <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
         <v>31</v>
       </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
       <c r="H25" t="n">
-        <v>1.00791208184492</v>
+        <v>0.895921850528822</v>
       </c>
       <c r="I25" t="n">
-        <v>5.90689059560852</v>
+        <v>5.28540221886225</v>
       </c>
       <c r="J25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K25" t="e">
-        <v>#N/A</v>
+      <c r="K25" t="n">
+        <v>0.694759144239012</v>
       </c>
       <c r="L25" t="n">
-        <v>0.429811768093937</v>
+        <v>0.208048281599286</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.112037943687474</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.0842330665581947</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.503549175712259</v>
+        <v>0.347470707369169</v>
       </c>
       <c r="R25" t="n">
-        <v>0.342881664544902</v>
+        <v>0.130047184641323</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.15356915974284</v>
+        <v>0.118162816144553</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="e">
-        <v>#N/A</v>
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="D26" t="n">
-        <v>3.04285034754224</v>
+        <v>1.02548778504827</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H26" t="n">
-        <v>0.475958483093437</v>
+        <v>0.615946272238565</v>
       </c>
       <c r="I26" t="n">
-        <v>4.4594316186373</v>
-      </c>
-      <c r="J26" t="s">
-        <v>27</v>
+        <v>4.75488750216347</v>
+      </c>
+      <c r="J26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K26" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="L26" t="e">
-        <v>#N/A</v>
+        <v>0.739487272946599</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.25505525964931</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>0.444193213492573</v>
       </c>
       <c r="O26" t="n">
-        <v>0.265583989584329</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.177848933899108</v>
+        <v>0.138936514246588</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2834,104 +2756,98 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.445687311876346</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.110879764640218</v>
+        <v>0.16181501261153</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D27" t="n">
-        <v>3.43674119313015</v>
+        <v>0.577817262307432</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H27" t="n">
-        <v>0.923919408357848</v>
+        <v>1.79184370105764</v>
       </c>
       <c r="I27" t="n">
-        <v>5.20945336562895</v>
+        <v>6.04439411935845</v>
       </c>
       <c r="J27" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K27" t="e">
-        <v>#N/A</v>
+      <c r="K27" t="n">
+        <v>0.442138413607538</v>
       </c>
       <c r="L27" t="n">
-        <v>0.535327213327537</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0925799157475719</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0757558707683777</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.191761198324725</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.14591941716309</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.271829242178154</v>
+        <v>1</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.115249394891803</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0.106904960926279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B28" t="e">
         <v>#N/A</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="D28" t="n">
-        <v>0.744840196923758</v>
+        <v>0.914171892157005</v>
       </c>
       <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
         <v>31</v>
       </c>
-      <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
       <c r="H28" t="n">
-        <v>0.503956040922462</v>
+        <v>0.167985346974154</v>
       </c>
       <c r="I28" t="n">
-        <v>4.64385618977472</v>
+        <v>3</v>
       </c>
       <c r="J28" t="e">
         <v>#N/A</v>
@@ -2939,138 +2855,132 @@
       <c r="K28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L28" t="e">
-        <v>#N/A</v>
+      <c r="L28" t="n">
+        <v>0.148811517647993</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.0978420211213368</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>0.314480654566577</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>0.100139148277073</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.215880590098165</v>
+        <v>0.112331832914823</v>
       </c>
       <c r="R28" t="n">
-        <v>0.426273641853423</v>
+        <v>0.207200138072619</v>
       </c>
       <c r="S28" t="n">
-        <v>0.151624815868599</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.0936827520239467</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0.112538200155867</v>
+        <v>0.0191946873995777</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="D29" t="n">
-        <v>1.19818573822931</v>
+        <v>10.8446102499431</v>
       </c>
       <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
         <v>31</v>
       </c>
-      <c r="F29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
       <c r="H29" t="n">
-        <v>2.21180706849303</v>
+        <v>1.53986568059641</v>
       </c>
       <c r="I29" t="n">
-        <v>6.52356195605701</v>
-      </c>
-      <c r="J29" t="s">
-        <v>27</v>
+        <v>6.04439411935845</v>
+      </c>
+      <c r="J29" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K29" t="n">
-        <v>0.397959183673469</v>
+        <v>0.579794071465646</v>
       </c>
       <c r="L29" t="n">
-        <v>0.464521382425448</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.188179851974447</v>
+        <v>0.117334264181262</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>0.15437405584988</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>0.668233209328069</v>
       </c>
       <c r="R29" t="n">
-        <v>0.181146830438943</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.577515679154303</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.0531576384323073</v>
+        <v>0.0600584706407892</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="D30" t="n">
-        <v>0.603105148336912</v>
+        <v>0.665158321428583</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H30" t="n">
-        <v>1.65185591191252</v>
+        <v>0.671941387896617</v>
       </c>
       <c r="I30" t="n">
-        <v>6.35755200461808</v>
+        <v>4.8073549220576</v>
       </c>
       <c r="J30" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K30" t="e">
-        <v>#N/A</v>
+      <c r="K30" t="n">
+        <v>0.343950291802219</v>
       </c>
       <c r="L30" t="n">
-        <v>0.537158894358265</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3082,831 +2992,792 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>0.142525070960292</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.342357710509817</v>
+        <v>0.575693913219956</v>
       </c>
       <c r="R30" t="n">
-        <v>0.6078963112825</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>0.162289091466054</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0.0497459782076837</v>
+        <v>0.119491924353698</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D31" t="n">
-        <v>0.457387495384936</v>
+        <v>1.28207794360592</v>
       </c>
       <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
         <v>31</v>
       </c>
-      <c r="F31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
       <c r="H31" t="n">
-        <v>0.587948714409539</v>
+        <v>0.727936503554668</v>
       </c>
       <c r="I31" t="n">
-        <v>4.64385618977472</v>
+        <v>4.90689059560852</v>
       </c>
       <c r="J31" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K31" t="e">
-        <v>#N/A</v>
+      <c r="K31" t="n">
+        <v>0.36957080828844</v>
       </c>
       <c r="L31" t="n">
-        <v>0.465290036941175</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.143793139343376</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.16016076534176</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0996879603561902</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.203489888533343</v>
       </c>
       <c r="R31" t="n">
-        <v>0.220793192647928</v>
+        <v>0.63303396138743</v>
       </c>
       <c r="S31" t="n">
-        <v>0.20564242770529</v>
+        <v>0.0621587239845932</v>
       </c>
       <c r="T31" t="n">
-        <v>0.115272050826958</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0.0546504637784985</v>
+        <v>0.101317426094634</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="D32" t="n">
-        <v>1.15543569807249</v>
+        <v>1.4264807075319</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H32" t="n">
-        <v>0.643943830067591</v>
+        <v>1.76384614322862</v>
       </c>
       <c r="I32" t="n">
-        <v>4.85798099512757</v>
-      </c>
-      <c r="J32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K32" t="e">
-        <v>#N/A</v>
+        <v>7.56224242422107</v>
+      </c>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.44379977109777</v>
       </c>
       <c r="L32" t="n">
-        <v>0.515722713008091</v>
+        <v>0.260347486623863</v>
       </c>
       <c r="M32" t="n">
-        <v>0.160546797083476</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0953089921426336</v>
+        <v>0.210969600029516</v>
       </c>
       <c r="O32" t="n">
-        <v>0.119349880408728</v>
+        <v>0.171933329445916</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>0.11650075364736</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.106028032451864</v>
+        <v>0.105514702541963</v>
       </c>
       <c r="R32" t="n">
-        <v>0.206734086544961</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0.222247364680321</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0.0897848466880165</v>
+        <v>0.134734127711382</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="D33" t="n">
-        <v>2.62558793175662</v>
+        <v>1.31325462645445</v>
       </c>
       <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s">
         <v>24</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>25</v>
       </c>
-      <c r="G33" t="s">
-        <v>28</v>
-      </c>
       <c r="H33" t="n">
-        <v>1.14789987099005</v>
+        <v>3.61168495994431</v>
       </c>
       <c r="I33" t="n">
-        <v>5.61470984411521</v>
+        <v>7.32192809488736</v>
       </c>
       <c r="J33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0.375529368735504</v>
       </c>
       <c r="L33" t="n">
-        <v>0.196574062165857</v>
+        <v>0.0667706039071562</v>
       </c>
       <c r="M33" t="n">
-        <v>0.282885125623585</v>
+        <v>0.537290236189042</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0921683435356933</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.118296886374186</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>0.0951092542705688</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.096901027724683</v>
+        <v>0.101712546452514</v>
       </c>
       <c r="R33" t="n">
-        <v>0.147536418135327</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0934264684523389</v>
+        <v>0.140752677006405</v>
       </c>
       <c r="T33" t="n">
-        <v>0.109727196716572</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0.0590585334376148</v>
+        <v>0.0583646821743145</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" t="e">
-        <v>#N/A</v>
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="D34" t="n">
-        <v>0.905929830263928</v>
+        <v>1.45958969808778</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H34" t="n">
-        <v>0.223980462632206</v>
+        <v>0.839926734870771</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4594316186373</v>
-      </c>
-      <c r="J34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L34" t="e">
-        <v>#N/A</v>
+        <v>5.16992500144231</v>
+      </c>
+      <c r="J34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.569560120565352</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0744308586431424</v>
       </c>
       <c r="M34" t="n">
-        <v>0.145281431113922</v>
+        <v>0.0702618447415919</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0652881947268414</v>
+        <v>0.143002828939938</v>
       </c>
       <c r="O34" t="n">
-        <v>0.171027068352983</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.131911093852583</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.236877281211508</v>
+        <v>0.27753147229363</v>
       </c>
       <c r="R34" t="n">
-        <v>0.180799375693473</v>
+        <v>0.0905766243717345</v>
       </c>
       <c r="S34" t="n">
-        <v>0.10921378066037</v>
+        <v>0.175636309759981</v>
       </c>
       <c r="T34" t="n">
-        <v>0.0714711901164689</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0.0200416781244339</v>
+        <v>0.0366489673973985</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="D35" t="n">
-        <v>0.895720234771243</v>
+        <v>0.623158042621522</v>
       </c>
       <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
         <v>31</v>
       </c>
-      <c r="F35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
-      </c>
       <c r="H35" t="n">
-        <v>0.0839926734870771</v>
+        <v>0.363968251777334</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>3.8073549220576</v>
       </c>
       <c r="J35" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K35" t="e">
-        <v>#N/A</v>
+      <c r="K35" t="n">
+        <v>0.510743783594519</v>
       </c>
       <c r="L35" t="n">
-        <v>0.326000478991198</v>
+        <v>0.262099431304233</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0830827085692397</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.311422400571269</v>
       </c>
       <c r="O35" t="n">
-        <v>0.114577665539355</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0.120050819970376</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0.205530225459334</v>
+        <v>0.179913145145213</v>
       </c>
       <c r="S35" t="n">
-        <v>0.130480576489236</v>
+        <v>0.0745670130494222</v>
       </c>
       <c r="T35" t="n">
-        <v>0.306573533906154</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0.0397044700663067</v>
+        <v>0.171998009929863</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="D36" t="n">
-        <v>0.954150550892822</v>
+        <v>0.585997921932767</v>
       </c>
       <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
       </c>
-      <c r="F36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
       <c r="H36" t="n">
-        <v>0.727936503554668</v>
+        <v>0.643943830067591</v>
       </c>
       <c r="I36" t="n">
-        <v>5.16992500144231</v>
+        <v>4.70043971814109</v>
       </c>
       <c r="J36" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K36" t="e">
-        <v>#N/A</v>
+      <c r="K36" t="n">
+        <v>0.467148540964538</v>
       </c>
       <c r="L36" t="n">
-        <v>0.39790533951934</v>
+        <v>0.0723245946964431</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.3622156142764</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>0.189775254643861</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.0769878260750522</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>0.135094460059115</v>
       </c>
       <c r="R36" t="n">
-        <v>0.39985647773547</v>
+        <v>0.117238163869331</v>
       </c>
       <c r="S36" t="n">
-        <v>0.444840344339437</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0.155303177925093</v>
+        <v>0.0463640863797992</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D37" t="n">
-        <v>0.862448544389736</v>
+        <v>1.98723126828428</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H37" t="n">
-        <v>0.279975578290257</v>
+        <v>0.503956040922462</v>
       </c>
       <c r="I37" t="n">
-        <v>3.90689059560852</v>
-      </c>
-      <c r="J37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K37" t="e">
-        <v>#N/A</v>
+        <v>4.39231742277876</v>
+      </c>
+      <c r="J37" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.623776473962117</v>
       </c>
       <c r="L37" t="n">
-        <v>0.57773596166521</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.101041879251109</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.136363883159419</v>
       </c>
       <c r="O37" t="n">
-        <v>0.248198125786166</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>0.11769634830023</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.206290481601653</v>
+        <v>0.380846557632526</v>
       </c>
       <c r="R37" t="n">
-        <v>0.324145729477689</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.0728318544940469</v>
+        <v>0.154537748504795</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0.0474919293893359</v>
+        <v>0.21055546240303</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="D38" t="n">
-        <v>3.88902941072736</v>
+        <v>0.929450577157592</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H38" t="n">
-        <v>0.615946272238565</v>
+        <v>1.9598290480318</v>
       </c>
       <c r="I38" t="n">
-        <v>4.75488750216347</v>
+        <v>6.2667865406949</v>
       </c>
       <c r="J38" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K38" t="e">
-        <v>#N/A</v>
+      <c r="K38" t="n">
+        <v>0.771731681526181</v>
       </c>
       <c r="L38" t="n">
-        <v>0.238692321358866</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.178038934231362</v>
+        <v>0.0846522272353416</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>0.0627685505952238</v>
       </c>
       <c r="O38" t="n">
-        <v>0.192224261434057</v>
+        <v>0.0804190334806037</v>
       </c>
       <c r="P38" t="n">
-        <v>0.185488313516258</v>
+        <v>0.216443603345105</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.196195678849981</v>
+        <v>0.321030797259351</v>
       </c>
       <c r="R38" t="n">
-        <v>0.0937103151313331</v>
+        <v>0.0777435454671102</v>
       </c>
       <c r="S38" t="n">
-        <v>0.0836452463124143</v>
+        <v>0.134924222081901</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0.0706972505245949</v>
+        <v>0.0220180205353636</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="D39" t="n">
-        <v>2.21840119242882</v>
+        <v>8.82222841823438</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H39" t="n">
-        <v>0.895921850528822</v>
+        <v>2.49178264678329</v>
       </c>
       <c r="I39" t="n">
-        <v>5.28540221886225</v>
+        <v>6.56985560833095</v>
       </c>
       <c r="J39" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K39" t="e">
-        <v>#N/A</v>
+      <c r="K39" t="n">
+        <v>0.283942729670415</v>
       </c>
       <c r="L39" t="n">
-        <v>0.694759144239012</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.208048281599286</v>
+        <v>0.166284405361149</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>0.061807995350476</v>
       </c>
       <c r="O39" t="n">
-        <v>0.112037943687474</v>
+        <v>0.257961415613033</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>0.14874397032413</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0842330665581947</v>
+        <v>0.11759747748489</v>
       </c>
       <c r="R39" t="n">
-        <v>0.347470707369169</v>
+        <v>0.24760472449392</v>
       </c>
       <c r="S39" t="n">
-        <v>0.130047184641323</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0.118162816144553</v>
+        <v>0.0000000113724023531603</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="D40" t="n">
-        <v>1.02548778504827</v>
+        <v>0.665895723080379</v>
       </c>
       <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
         <v>31</v>
       </c>
-      <c r="F40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" t="s">
-        <v>33</v>
-      </c>
       <c r="H40" t="n">
-        <v>0.615946272238565</v>
+        <v>1.00791208184492</v>
       </c>
       <c r="I40" t="n">
-        <v>4.75488750216347</v>
+        <v>5.88264304936184</v>
       </c>
       <c r="J40" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K40" t="e">
-        <v>#N/A</v>
+      <c r="K40" t="n">
+        <v>0.669429405437427</v>
       </c>
       <c r="L40" t="n">
-        <v>0.739487272946599</v>
+        <v>0.237379885479665</v>
       </c>
       <c r="M40" t="n">
-        <v>0.25505525964931</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.444193213492573</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>0.0794454036015839</v>
       </c>
       <c r="R40" t="n">
-        <v>0.138936514246588</v>
+        <v>0.392340677704627</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>0.12776301583957</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0.16181501261153</v>
+        <v>0.163071017374554</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="D41" t="n">
-        <v>0.577817262307432</v>
+        <v>0.768361612323582</v>
       </c>
       <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
         <v>31</v>
       </c>
-      <c r="F41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" t="s">
-        <v>33</v>
-      </c>
       <c r="H41" t="n">
-        <v>1.79184370105764</v>
+        <v>0.0279975578290257</v>
       </c>
       <c r="I41" t="n">
-        <v>6.04439411935845</v>
+        <v>1</v>
       </c>
       <c r="J41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K41" t="e">
-        <v>#N/A</v>
+      <c r="K41" t="n">
+        <v>0.36707426386722</v>
       </c>
       <c r="L41" t="n">
-        <v>0.442138413607538</v>
+        <v>0.164339185089231</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>0.284412466889771</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>0.220514304472485</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>0.153567216441294</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>0.108470423389898</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
+        <v>0.0686964037173203</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" t="e">
-        <v>#N/A</v>
+        <v>143</v>
+      </c>
+      <c r="B42" t="s">
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="D42" t="n">
-        <v>0.914171892157005</v>
+        <v>0.409013987468199</v>
       </c>
       <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s">
         <v>31</v>
       </c>
-      <c r="F42" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" t="s">
-        <v>33</v>
-      </c>
       <c r="H42" t="n">
-        <v>0.167985346974154</v>
+        <v>0.587948714409539</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>4.8073549220576</v>
       </c>
       <c r="J42" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L42" t="e">
-        <v>#N/A</v>
+      <c r="K42" t="n">
+        <v>0.448192683601946</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0626309675552648</v>
       </c>
       <c r="M42" t="n">
-        <v>0.148811517647993</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0978420211213368</v>
+        <v>0.340117157017897</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>0.0613282673514007</v>
       </c>
       <c r="P42" t="n">
-        <v>0.314480654566577</v>
+        <v>0.0733155248788837</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.100139148277073</v>
+        <v>0.25520191369757</v>
       </c>
       <c r="R42" t="n">
-        <v>0.112331832914823</v>
+        <v>0.173586381337026</v>
       </c>
       <c r="S42" t="n">
-        <v>0.207200138072619</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0.0191946873995777</v>
+        <v>0.0338197881619576</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" t="s">
-        <v>106</v>
+        <v>146</v>
+      </c>
+      <c r="B43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="D43" t="n">
-        <v>10.8446102499431</v>
+        <v>0.723145899527039</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H43" t="n">
-        <v>1.53986568059641</v>
+        <v>0.419963367435385</v>
       </c>
       <c r="I43" t="n">
-        <v>6.04439411935845</v>
+        <v>4.70043971814109</v>
       </c>
       <c r="J43" t="e">
         <v>#N/A</v>
@@ -3915,63 +3786,60 @@
         <v>#N/A</v>
       </c>
       <c r="L43" t="n">
-        <v>0.579794071465646</v>
+        <v>0.220607087259939</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.153032773676259</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>0.0642898760512596</v>
       </c>
       <c r="O43" t="n">
-        <v>0.117334264181262</v>
+        <v>0.0972878189016665</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>0.453318373197066</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.15437405584988</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.668233209328069</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0.0600584706407892</v>
+        <v>0.0114640709138102</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" t="s">
-        <v>109</v>
+        <v>148</v>
+      </c>
+      <c r="B44" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="D44" t="n">
-        <v>0.665158321428583</v>
+        <v>0.478672360955709</v>
       </c>
       <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
         <v>31</v>
       </c>
-      <c r="F44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
       <c r="H44" t="n">
-        <v>0.671941387896617</v>
+        <v>0.167985346974154</v>
       </c>
       <c r="I44" t="n">
-        <v>4.8073549220576</v>
+        <v>3</v>
       </c>
       <c r="J44" t="e">
         <v>#N/A</v>
@@ -3980,323 +3848,308 @@
         <v>#N/A</v>
       </c>
       <c r="L44" t="n">
-        <v>0.343950291802219</v>
+        <v>0.1589277747914</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>0.277678350113149</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>0.0917617066861896</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.142525070960292</v>
+        <v>0.173262137410311</v>
       </c>
       <c r="R44" t="n">
-        <v>0.575693913219956</v>
+        <v>0.0934215043171327</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>0.108601164117549</v>
       </c>
       <c r="T44" t="n">
-        <v>0.162289091466054</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0.119491924353698</v>
+        <v>0.0963473625642688</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" t="s">
-        <v>112</v>
+        <v>150</v>
+      </c>
+      <c r="B45" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="D45" t="n">
-        <v>1.28207794360592</v>
+        <v>1.61098261110919</v>
       </c>
       <c r="E45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" t="s">
         <v>24</v>
       </c>
-      <c r="F45" t="s">
-        <v>32</v>
-      </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H45" t="n">
-        <v>0.727936503554668</v>
+        <v>0.39196580960636</v>
       </c>
       <c r="I45" t="n">
-        <v>4.90689059560852</v>
-      </c>
-      <c r="J45" t="e">
-        <v>#N/A</v>
+        <v>4.24792751344359</v>
+      </c>
+      <c r="J45" t="s">
+        <v>26</v>
       </c>
       <c r="K45" t="e">
         <v>#N/A</v>
       </c>
       <c r="L45" t="n">
-        <v>0.36957080828844</v>
+        <v>0.119556069881742</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>0.163210527273295</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>0.0994514841734072</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>0.332465345635853</v>
       </c>
       <c r="R45" t="n">
-        <v>0.203489888533343</v>
+        <v>0.108188190093037</v>
       </c>
       <c r="S45" t="n">
-        <v>0.63303396138743</v>
+        <v>0.0838369516759494</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0621587239845932</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0.101317426094634</v>
+        <v>0.0932914312667161</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" t="s">
-        <v>115</v>
+        <v>152</v>
+      </c>
+      <c r="B46" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="D46" t="n">
-        <v>1.4264807075319</v>
+        <v>0.564259763952774</v>
       </c>
       <c r="E46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H46" t="n">
-        <v>1.76384614322862</v>
+        <v>0.307973136119283</v>
       </c>
       <c r="I46" t="n">
-        <v>7.56224242422107</v>
-      </c>
-      <c r="J46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.36144578313253</v>
+        <v>4.16992500144231</v>
+      </c>
+      <c r="J46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K46" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L46" t="n">
-        <v>0.44379977109777</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.260347486623863</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.210969600029516</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.171933329445916</v>
+        <v>0.295352078091409</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.11650075364736</v>
+        <v>0.40424174601184</v>
       </c>
       <c r="R46" t="n">
-        <v>0.105514702541963</v>
+        <v>0.155573311845612</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0.134734127711382</v>
+        <v>0.144832864051139</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="D47" t="n">
-        <v>1.31325462645445</v>
+        <v>2.65534910941505</v>
       </c>
       <c r="E47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" t="s">
         <v>24</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>25</v>
       </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
       <c r="H47" t="n">
-        <v>3.61168495994431</v>
+        <v>0.811929177041745</v>
       </c>
       <c r="I47" t="n">
-        <v>7.32192809488736</v>
+        <v>5.16992500144231</v>
       </c>
       <c r="J47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K47" t="n">
-        <v>0.842105263157895</v>
+        <v>0.569510042618928</v>
       </c>
       <c r="L47" t="n">
-        <v>0.375529368735504</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0667706039071562</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0.537290236189042</v>
+        <v>0.0974558361109378</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>0.190832739139053</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0951092542705688</v>
+        <v>0.471430230588372</v>
       </c>
       <c r="R47" t="n">
-        <v>0.101712546452514</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>0.166457523765244</v>
       </c>
       <c r="T47" t="n">
-        <v>0.140752677006405</v>
-      </c>
-      <c r="U47" t="n">
-        <v>0.0583646821743145</v>
+        <v>0.0738236703963927</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="D48" t="n">
-        <v>1.45958969808778</v>
+        <v>0.911126491571772</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H48" t="n">
-        <v>0.839926734870771</v>
+        <v>0.895921850528822</v>
       </c>
       <c r="I48" t="n">
-        <v>5.16992500144231</v>
-      </c>
-      <c r="J48" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="J48" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K48" t="n">
-        <v>0.449152542372881</v>
+        <v>0.752475929785222</v>
       </c>
       <c r="L48" t="n">
-        <v>0.569560120565352</v>
+        <v>0.472886905119284</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0744308586431424</v>
+        <v>0.0678593020165138</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0702618447415919</v>
+        <v>0.154963943608184</v>
       </c>
       <c r="O48" t="n">
-        <v>0.143002828939938</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.131911093852583</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>0.27753147229363</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>0.0905766243717345</v>
+        <v>0.281897875765768</v>
       </c>
       <c r="T48" t="n">
-        <v>0.175636309759981</v>
-      </c>
-      <c r="U48" t="n">
-        <v>0.0366489673973985</v>
+        <v>0.0223919734902498</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>123</v>
-      </c>
-      <c r="B49" t="s">
-        <v>124</v>
+        <v>160</v>
+      </c>
+      <c r="B49" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="D49" t="n">
-        <v>0.623158042621522</v>
+        <v>0.596986134005091</v>
       </c>
       <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" t="s">
         <v>31</v>
       </c>
-      <c r="F49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" t="s">
-        <v>33</v>
-      </c>
       <c r="H49" t="n">
-        <v>0.363968251777334</v>
+        <v>1.06390719750298</v>
       </c>
       <c r="I49" t="n">
-        <v>3.8073549220576</v>
+        <v>5.39231742277876</v>
       </c>
       <c r="J49" t="e">
         <v>#N/A</v>
@@ -4305,583 +4158,556 @@
         <v>#N/A</v>
       </c>
       <c r="L49" t="n">
-        <v>0.510743783594519</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.262099431304233</v>
+        <v>0.0750720955602486</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>0.1358204941791</v>
       </c>
       <c r="O49" t="n">
-        <v>0.311422400571269</v>
+        <v>0.10330370283304</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>0.193193659081989</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>0.261994880160738</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>0.175264842651821</v>
       </c>
       <c r="S49" t="n">
-        <v>0.179913145145213</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0745670130494222</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0.171998009929863</v>
+        <v>0.0553503255330637</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" t="s">
-        <v>127</v>
+        <v>162</v>
+      </c>
+      <c r="B50" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="D50" t="n">
-        <v>0.585997921932767</v>
+        <v>1.7968473065668</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H50" t="n">
-        <v>0.643943830067591</v>
+        <v>0.615946272238565</v>
       </c>
       <c r="I50" t="n">
-        <v>4.70043971814109</v>
-      </c>
-      <c r="J50" t="e">
-        <v>#N/A</v>
+        <v>4.58496250072116</v>
+      </c>
+      <c r="J50" t="s">
+        <v>26</v>
       </c>
       <c r="K50" t="e">
         <v>#N/A</v>
       </c>
       <c r="L50" t="n">
-        <v>0.467148540964538</v>
+        <v>0.145729053005684</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0723245946964431</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>0.232068950362349</v>
       </c>
       <c r="O50" t="n">
-        <v>0.3622156142764</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>0.189775254643861</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0769878260750522</v>
+        <v>0.338749311671368</v>
       </c>
       <c r="R50" t="n">
-        <v>0.135094460059115</v>
+        <v>0.11282083178813</v>
       </c>
       <c r="S50" t="n">
-        <v>0.117238163869331</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" t="n">
-        <v>0.0463640863797992</v>
+        <v>0.170631853172469</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="D51" t="n">
-        <v>1.98723126828428</v>
+        <v>4.85940326913163</v>
       </c>
       <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" t="s">
         <v>24</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>25</v>
       </c>
-      <c r="G51" t="s">
-        <v>28</v>
-      </c>
       <c r="H51" t="n">
-        <v>0.503956040922462</v>
+        <v>1.00791208184492</v>
       </c>
       <c r="I51" t="n">
-        <v>4.39231742277876</v>
+        <v>5.4262647547021</v>
       </c>
       <c r="J51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K51" t="n">
-        <v>0.34375</v>
+        <v>0.76895318071392</v>
       </c>
       <c r="L51" t="n">
-        <v>0.623776473962117</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>0.122334407250177</v>
       </c>
       <c r="O51" t="n">
-        <v>0.136363883159419</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>0.125737972397606</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.11769634830023</v>
+        <v>0.501687310455756</v>
       </c>
       <c r="R51" t="n">
-        <v>0.380846557632526</v>
+        <v>0.15763891353997</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0.154537748504795</v>
-      </c>
-      <c r="U51" t="n">
-        <v>0.21055546240303</v>
+        <v>0.0926013963564916</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="D52" t="n">
-        <v>0.929450577157592</v>
+        <v>1.0679414088142</v>
       </c>
       <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s">
         <v>31</v>
       </c>
-      <c r="F52" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" t="s">
-        <v>33</v>
-      </c>
       <c r="H52" t="n">
-        <v>1.9598290480318</v>
+        <v>0.503956040922462</v>
       </c>
       <c r="I52" t="n">
-        <v>6.2667865406949</v>
+        <v>4.70043971814109</v>
       </c>
       <c r="J52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K52" t="e">
-        <v>#N/A</v>
+      <c r="K52" t="n">
+        <v>0.615773498394946</v>
       </c>
       <c r="L52" t="n">
-        <v>0.771731681526181</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0846522272353416</v>
+        <v>0.135680831697954</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0627685505952238</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0804190334806037</v>
+        <v>0.0657526009589426</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.216443603345105</v>
+        <v>0.503086529748005</v>
       </c>
       <c r="R52" t="n">
-        <v>0.321030797259351</v>
+        <v>0.124438935694344</v>
       </c>
       <c r="S52" t="n">
-        <v>0.0777435454671102</v>
+        <v>0.112372336518937</v>
       </c>
       <c r="T52" t="n">
-        <v>0.134924222081901</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0.0220180205353636</v>
+        <v>0.0586687653818174</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="D53" t="n">
-        <v>8.82222841823438</v>
+        <v>0.330097988969208</v>
       </c>
       <c r="E53" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H53" t="n">
-        <v>2.49178264678329</v>
+        <v>0.615946272238565</v>
       </c>
       <c r="I53" t="n">
-        <v>6.56985560833095</v>
+        <v>5.16992500144231</v>
       </c>
       <c r="J53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K53" t="e">
-        <v>#N/A</v>
+      <c r="K53" t="n">
+        <v>0.427110862734588</v>
       </c>
       <c r="L53" t="n">
-        <v>0.283942729670415</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0.166284405361149</v>
+        <v>0.128228531676709</v>
       </c>
       <c r="O53" t="n">
-        <v>0.061807995350476</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>0.257961415613033</v>
+        <v>0.108851598792196</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.14874397032413</v>
+        <v>0.425726991280174</v>
       </c>
       <c r="R53" t="n">
-        <v>0.11759747748489</v>
+        <v>0.0977156307044159</v>
       </c>
       <c r="S53" t="n">
-        <v>0.24760472449392</v>
+        <v>0.135875893808304</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
-      </c>
-      <c r="U53" t="n">
-        <v>0.0000000113724023531603</v>
+        <v>0.1036013537382</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="D54" t="n">
-        <v>0.665895723080379</v>
+        <v>0.407527437990096</v>
       </c>
       <c r="E54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s">
         <v>31</v>
       </c>
-      <c r="F54" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" t="s">
-        <v>33</v>
-      </c>
       <c r="H54" t="n">
-        <v>1.00791208184492</v>
+        <v>1.70785102757057</v>
       </c>
       <c r="I54" t="n">
-        <v>5.88264304936184</v>
+        <v>6.16992500144231</v>
       </c>
       <c r="J54" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K54" t="e">
-        <v>#N/A</v>
+      <c r="K54" t="n">
+        <v>0.575505938760336</v>
       </c>
       <c r="L54" t="n">
-        <v>0.669429405437427</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.237379885479665</v>
+        <v>0.0656738080631759</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>0.152769056616453</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>0.142720077322932</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>0.210609360603555</v>
       </c>
       <c r="R54" t="n">
-        <v>0.0794454036015839</v>
+        <v>0.110994797722278</v>
       </c>
       <c r="S54" t="n">
-        <v>0.392340677704627</v>
+        <v>0.256001435543513</v>
       </c>
       <c r="T54" t="n">
-        <v>0.12776301583957</v>
-      </c>
-      <c r="U54" t="n">
-        <v>0.163071017374554</v>
+        <v>0.0612314641280916</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="D55" t="n">
-        <v>0.768361612323582</v>
+        <v>1.07733795771883</v>
       </c>
       <c r="E55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s">
         <v>31</v>
       </c>
-      <c r="F55" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" t="s">
-        <v>33</v>
-      </c>
       <c r="H55" t="n">
-        <v>0.0279975578290257</v>
+        <v>1.23189254447713</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>5.64385618977472</v>
       </c>
       <c r="J55" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K55" t="e">
-        <v>#N/A</v>
+      <c r="K55" t="n">
+        <v>0.449093295038004</v>
       </c>
       <c r="L55" t="n">
-        <v>0.36707426386722</v>
+        <v>0.08463789634056</v>
       </c>
       <c r="M55" t="n">
-        <v>0.164339185089231</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0.284412466889771</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>0.220514304472485</v>
+        <v>0.223364362244255</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>0.407244606117607</v>
       </c>
       <c r="R55" t="n">
-        <v>0.153567216441294</v>
+        <v>0.115866562926195</v>
       </c>
       <c r="S55" t="n">
-        <v>0.108470423389898</v>
+        <v>0.112807377626826</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
-      </c>
-      <c r="U55" t="n">
-        <v>0.0686964037173203</v>
+        <v>0.0560791947445571</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="D56" t="n">
-        <v>0.409013987468199</v>
+        <v>0.953363674208554</v>
       </c>
       <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" t="s">
         <v>31</v>
       </c>
-      <c r="F56" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" t="s">
-        <v>33</v>
-      </c>
       <c r="H56" t="n">
-        <v>0.587948714409539</v>
+        <v>0.279975578290257</v>
       </c>
       <c r="I56" t="n">
-        <v>4.8073549220576</v>
+        <v>3.58496250072116</v>
       </c>
       <c r="J56" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K56" t="e">
-        <v>#N/A</v>
+      <c r="K56" t="n">
+        <v>0.637965512856903</v>
       </c>
       <c r="L56" t="n">
-        <v>0.448192683601946</v>
+        <v>0.360043025825591</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0626309675552648</v>
+        <v>0.0697848667329232</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>0.323935720918134</v>
       </c>
       <c r="O56" t="n">
-        <v>0.340117157017897</v>
+        <v>0.0812577870084943</v>
       </c>
       <c r="P56" t="n">
-        <v>0.0613282673514007</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.0733155248788837</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0.25520191369757</v>
+        <v>0.126673366733137</v>
       </c>
       <c r="S56" t="n">
-        <v>0.173586381337026</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0.0338197881619576</v>
+        <v>0.0383052327817197</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>147</v>
-      </c>
-      <c r="B57" t="e">
-        <v>#N/A</v>
+        <v>182</v>
+      </c>
+      <c r="B57" t="s">
+        <v>183</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="D57" t="n">
-        <v>0.723145899527039</v>
+        <v>0.882805463561211</v>
       </c>
       <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s">
         <v>31</v>
       </c>
-      <c r="F57" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" t="s">
-        <v>33</v>
-      </c>
       <c r="H57" t="n">
-        <v>0.419963367435385</v>
+        <v>0.643943830067591</v>
       </c>
       <c r="I57" t="n">
-        <v>4.70043971814109</v>
+        <v>5.04439411935845</v>
       </c>
       <c r="J57" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L57" t="e">
-        <v>#N/A</v>
+      <c r="K57" t="n">
+        <v>0.808473165895148</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.0793707864444697</v>
       </c>
       <c r="M57" t="n">
-        <v>0.220607087259939</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0.153032773676259</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0642898760512596</v>
+        <v>0.0664122191873731</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0972878189016665</v>
+        <v>0.212278883274887</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.453318373197066</v>
+        <v>0.354654181544493</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>0.202532629880316</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
-      </c>
-      <c r="U57" t="n">
-        <v>0.0114640709138102</v>
+        <v>0.084751299668461</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="B58" t="e">
         <v>#N/A</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="D58" t="n">
-        <v>0.478672360955709</v>
+        <v>0.708349747091901</v>
       </c>
       <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s">
         <v>31</v>
       </c>
-      <c r="F58" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" t="s">
-        <v>33</v>
-      </c>
       <c r="H58" t="n">
-        <v>0.167985346974154</v>
+        <v>0.503956040922462</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>4.70043971814109</v>
       </c>
       <c r="J58" t="e">
         <v>#N/A</v>
@@ -4889,129 +4715,123 @@
       <c r="K58" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L58" t="e">
-        <v>#N/A</v>
+      <c r="L58" t="n">
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.1589277747914</v>
+        <v>0.0764003435841411</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>0.264910091055278</v>
       </c>
       <c r="O58" t="n">
-        <v>0.277678350113149</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>0.0935240193023368</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.0917617066861896</v>
+        <v>0.267460645468661</v>
       </c>
       <c r="R58" t="n">
-        <v>0.173262137410311</v>
+        <v>0.147362327939145</v>
       </c>
       <c r="S58" t="n">
-        <v>0.0934215043171327</v>
+        <v>0.108377354132105</v>
       </c>
       <c r="T58" t="n">
-        <v>0.108601164117549</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0.0963473625642688</v>
+        <v>0.0419652185183339</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>151</v>
-      </c>
-      <c r="B59" t="e">
-        <v>#N/A</v>
+        <v>187</v>
+      </c>
+      <c r="B59" t="s">
+        <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="D59" t="n">
-        <v>1.61098261110919</v>
+        <v>1.73296055907925</v>
       </c>
       <c r="E59" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" t="s">
         <v>24</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>25</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="n">
+        <v>0.223980462632206</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.8073549220576</v>
+      </c>
+      <c r="J59" t="s">
         <v>26</v>
       </c>
-      <c r="H59" t="n">
-        <v>0.39196580960636</v>
-      </c>
-      <c r="I59" t="n">
-        <v>4.24792751344359</v>
-      </c>
-      <c r="J59" t="s">
-        <v>27</v>
-      </c>
       <c r="K59" t="n">
-        <v>0.381443298969072</v>
-      </c>
-      <c r="L59" t="e">
-        <v>#N/A</v>
+        <v>0.62407659609205</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.0610205842784469</v>
       </c>
       <c r="M59" t="n">
-        <v>0.119556069881742</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>0.095706354431257</v>
       </c>
       <c r="O59" t="n">
-        <v>0.163210527273295</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>0.17693040358603</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.0994514841734072</v>
+        <v>0.36292185578016</v>
       </c>
       <c r="R59" t="n">
-        <v>0.332465345635853</v>
+        <v>0.136420537475511</v>
       </c>
       <c r="S59" t="n">
-        <v>0.108188190093037</v>
+        <v>0.0895614154092224</v>
       </c>
       <c r="T59" t="n">
-        <v>0.0838369516759494</v>
-      </c>
-      <c r="U59" t="n">
-        <v>0.0932914312667161</v>
+        <v>0.0774388490393725</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="B60" t="e">
         <v>#N/A</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="D60" t="n">
-        <v>0.564259763952774</v>
+        <v>0.765076784764917</v>
       </c>
       <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s">
         <v>31</v>
       </c>
-      <c r="F60" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" t="s">
-        <v>33</v>
-      </c>
       <c r="H60" t="n">
-        <v>0.307973136119283</v>
+        <v>0.111990231316103</v>
       </c>
       <c r="I60" t="n">
-        <v>4.16992500144231</v>
+        <v>3</v>
       </c>
       <c r="J60" t="e">
         <v>#N/A</v>
@@ -5019,670 +4839,640 @@
       <c r="K60" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L60" t="e">
-        <v>#N/A</v>
+      <c r="L60" t="n">
+        <v>0.279863412518065</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>0.0752031023131815</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>0.150503062695286</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>0.067722537083597</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>0.111266978313812</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.295352078091409</v>
+        <v>0.211562747648098</v>
       </c>
       <c r="R60" t="n">
-        <v>0.40424174601184</v>
+        <v>0.103878135240894</v>
       </c>
       <c r="S60" t="n">
-        <v>0.155573311845612</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
-      </c>
-      <c r="U60" t="n">
-        <v>0.144832864051139</v>
+        <v>0.0000000241870663497679</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>155</v>
-      </c>
-      <c r="B61" t="s">
-        <v>156</v>
+        <v>192</v>
+      </c>
+      <c r="B61" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C61" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="D61" t="n">
-        <v>2.65534910941505</v>
+        <v>1.08950264868542</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H61" t="n">
-        <v>0.811929177041745</v>
+        <v>0.19598290480318</v>
       </c>
       <c r="I61" t="n">
-        <v>5.16992500144231</v>
-      </c>
-      <c r="J61" t="s">
-        <v>27</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.794117647058823</v>
+        <v>4</v>
+      </c>
+      <c r="J61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K61" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L61" t="n">
-        <v>0.569510042618928</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>0.101573697014105</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>0.138200236936824</v>
       </c>
       <c r="O61" t="n">
-        <v>0.0974558361109378</v>
+        <v>0.116267430491875</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>0.114008341526327</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.190832739139053</v>
+        <v>0.238258311321791</v>
       </c>
       <c r="R61" t="n">
-        <v>0.471430230588372</v>
+        <v>0.103972013734983</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>0.136592620508165</v>
       </c>
       <c r="T61" t="n">
-        <v>0.166457523765244</v>
-      </c>
-      <c r="U61" t="n">
-        <v>0.0738236703963927</v>
+        <v>0.0511273484659296</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="D62" t="n">
-        <v>0.911126491571772</v>
+        <v>3.04039166135154</v>
       </c>
       <c r="E62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" t="s">
         <v>31</v>
       </c>
-      <c r="F62" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" t="s">
-        <v>33</v>
-      </c>
       <c r="H62" t="n">
-        <v>0.895921850528822</v>
+        <v>0.643943830067591</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>4.75488750216347</v>
       </c>
       <c r="J62" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K62" t="e">
-        <v>#N/A</v>
+      <c r="K62" t="n">
+        <v>0.49150485279403</v>
       </c>
       <c r="L62" t="n">
-        <v>0.752475929785222</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0.472886905119284</v>
+        <v>0.0663369339961934</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0678593020165138</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>0.154963943608184</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>0.425301172176932</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>0.35119215850877</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>0.113188256260382</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>0.281897875765768</v>
-      </c>
-      <c r="U62" t="n">
-        <v>0.0223919734902498</v>
+        <v>0.0439814790577218</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>161</v>
-      </c>
-      <c r="B63" t="e">
-        <v>#N/A</v>
+        <v>197</v>
+      </c>
+      <c r="B63" t="s">
+        <v>198</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="D63" t="n">
-        <v>0.596986134005091</v>
+        <v>0.828368248951573</v>
       </c>
       <c r="E63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" t="s">
         <v>31</v>
       </c>
-      <c r="F63" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" t="s">
-        <v>33</v>
-      </c>
       <c r="H63" t="n">
-        <v>1.06390719750298</v>
+        <v>0.0559951156580514</v>
       </c>
       <c r="I63" t="n">
-        <v>5.39231742277876</v>
+        <v>2.58496250072116</v>
       </c>
       <c r="J63" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L63" t="e">
-        <v>#N/A</v>
+      <c r="K63" t="n">
+        <v>0.549162269366051</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.250782011206616</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>0.111471879530442</v>
       </c>
       <c r="N63" t="n">
-        <v>0.0750720955602486</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>0.1358204941791</v>
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>0.10330370283304</v>
+        <v>0.120779885111439</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.193193659081989</v>
+        <v>0.247115544963874</v>
       </c>
       <c r="R63" t="n">
-        <v>0.261994880160738</v>
+        <v>0.10315647754105</v>
       </c>
       <c r="S63" t="n">
-        <v>0.175264842651821</v>
+        <v>0.0874363754789994</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
-      </c>
-      <c r="U63" t="n">
-        <v>0.0553503255330637</v>
+        <v>0.0792578261675805</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>163</v>
-      </c>
-      <c r="B64" t="e">
-        <v>#N/A</v>
+        <v>200</v>
+      </c>
+      <c r="B64" t="s">
+        <v>201</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="D64" t="n">
-        <v>1.7968473065668</v>
+        <v>0.388138255821767</v>
       </c>
       <c r="E64" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H64" t="n">
-        <v>0.615946272238565</v>
+        <v>2.12781439500595</v>
       </c>
       <c r="I64" t="n">
-        <v>4.58496250072116</v>
-      </c>
-      <c r="J64" t="s">
-        <v>27</v>
+        <v>6.52356195605701</v>
+      </c>
+      <c r="J64" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K64" t="n">
-        <v>0.790697674418605</v>
-      </c>
-      <c r="L64" t="e">
-        <v>#N/A</v>
+        <v>0.572644393416624</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0.145729053005684</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0.232068950362349</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>0.128839507628334</v>
       </c>
       <c r="R64" t="n">
-        <v>0.338749311671368</v>
+        <v>0.821218976440908</v>
       </c>
       <c r="S64" t="n">
-        <v>0.11282083178813</v>
+        <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0.170631853172469</v>
+        <v>0.0499415159307577</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="B65" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="C65" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="D65" t="n">
-        <v>4.85940326913163</v>
+        <v>0.674959180648736</v>
       </c>
       <c r="E65" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H65" t="n">
-        <v>1.00791208184492</v>
+        <v>0.419963367435385</v>
       </c>
       <c r="I65" t="n">
-        <v>5.4262647547021</v>
-      </c>
-      <c r="J65" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="J65" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>0.699064292560397</v>
       </c>
       <c r="L65" t="n">
-        <v>0.76895318071392</v>
+        <v>0.310140744362781</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>0.068936002813622</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>0.122334407250177</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>0.213096875782795</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.125737972397606</v>
+        <v>0.135272839158107</v>
       </c>
       <c r="R65" t="n">
-        <v>0.501687310455756</v>
+        <v>0.128113552085235</v>
       </c>
       <c r="S65" t="n">
-        <v>0.15763891353997</v>
+        <v>0.0744813049292694</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
-      </c>
-      <c r="U65" t="n">
-        <v>0.0926013963564916</v>
+        <v>0.0699586808681902</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="B66" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="C66" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="D66" t="n">
-        <v>1.0679414088142</v>
+        <v>0.775241276378305</v>
       </c>
       <c r="E66" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H66" t="n">
-        <v>0.503956040922462</v>
+        <v>0.699938945725642</v>
       </c>
       <c r="I66" t="n">
-        <v>4.70043971814109</v>
+        <v>4.85798099512757</v>
       </c>
       <c r="J66" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K66" t="e">
-        <v>#N/A</v>
+      <c r="K66" t="n">
+        <v>0.631004972671502</v>
       </c>
       <c r="L66" t="n">
-        <v>0.615773498394946</v>
+        <v>0.503332521636299</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>0.0614578925365872</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>0.213060726659897</v>
       </c>
       <c r="O66" t="n">
-        <v>0.135680831697954</v>
+        <v>0.155699962478648</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.0657526009589426</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>0.503086529748005</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>0.124438935694344</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>0.112372336518937</v>
-      </c>
-      <c r="U66" t="n">
-        <v>0.0586687653818174</v>
+        <v>0.0664488966885677</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="B67" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="D67" t="n">
-        <v>0.330097988969208</v>
+        <v>0.571514974019808</v>
       </c>
       <c r="E67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" t="s">
         <v>31</v>
-      </c>
-      <c r="F67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G67" t="s">
-        <v>33</v>
       </c>
       <c r="H67" t="n">
         <v>0.615946272238565</v>
       </c>
       <c r="I67" t="n">
-        <v>5.16992500144231</v>
+        <v>4.70043971814109</v>
       </c>
       <c r="J67" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K67" t="e">
-        <v>#N/A</v>
+      <c r="K67" t="n">
+        <v>0.64973853521711</v>
       </c>
       <c r="L67" t="n">
-        <v>0.427110862734588</v>
+        <v>0.143833959087215</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>0.263583588377683</v>
       </c>
       <c r="O67" t="n">
-        <v>0.128228531676709</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>0.150606513852679</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.108851598792196</v>
+        <v>0.122545412020891</v>
       </c>
       <c r="R67" t="n">
-        <v>0.425726991280174</v>
+        <v>0.124270161895681</v>
       </c>
       <c r="S67" t="n">
-        <v>0.0977156307044159</v>
+        <v>0.106552026574306</v>
       </c>
       <c r="T67" t="n">
-        <v>0.135875893808304</v>
-      </c>
-      <c r="U67" t="n">
-        <v>0.1036013537382</v>
+        <v>0.0886083381915452</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="D68" t="n">
-        <v>0.407527437990096</v>
+        <v>2.44907726867045</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H68" t="n">
-        <v>1.70785102757057</v>
+        <v>0.363968251777334</v>
       </c>
       <c r="I68" t="n">
-        <v>6.16992500144231</v>
-      </c>
-      <c r="J68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K68" t="e">
-        <v>#N/A</v>
+        <v>3.90689059560852</v>
+      </c>
+      <c r="J68" t="s">
+        <v>26</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.392024954986044</v>
       </c>
       <c r="L68" t="n">
-        <v>0.575505938760336</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0.0656738080631759</v>
+        <v>0.156744106069701</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>0.37108376457957</v>
       </c>
       <c r="P68" t="n">
-        <v>0.152769056616453</v>
+        <v>0.099895946681261</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.142720077322932</v>
+        <v>0.353708792576723</v>
       </c>
       <c r="R68" t="n">
-        <v>0.210609360603555</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>0.110994797722278</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>0.256001435543513</v>
-      </c>
-      <c r="U68" t="n">
-        <v>0.0612314641280916</v>
+        <v>0.0185673900927451</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="B69" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="C69" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="D69" t="n">
-        <v>1.07733795771883</v>
+        <v>0.729525469501158</v>
       </c>
       <c r="E69" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H69" t="n">
-        <v>1.23189254447713</v>
+        <v>0.615946272238565</v>
       </c>
       <c r="I69" t="n">
-        <v>5.64385618977472</v>
+        <v>4.8073549220576</v>
       </c>
       <c r="J69" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K69" t="e">
-        <v>#N/A</v>
+      <c r="K69" t="n">
+        <v>0.596633706208732</v>
       </c>
       <c r="L69" t="n">
-        <v>0.449093295038004</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0.08463789634056</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>0.537439335647318</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>0.106513851960041</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.223364362244255</v>
+        <v>0.348315999690963</v>
       </c>
       <c r="R69" t="n">
-        <v>0.407244606117607</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>0.115866562926195</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0.112807377626826</v>
-      </c>
-      <c r="U69" t="n">
-        <v>0.0560791947445571</v>
+        <v>0.00773081270167775</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="B70" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="D70" t="n">
-        <v>0.953363674208554</v>
+        <v>2.78010728661349</v>
       </c>
       <c r="E70" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" t="s">
         <v>31</v>
       </c>
-      <c r="F70" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
-      </c>
       <c r="H70" t="n">
-        <v>0.279975578290257</v>
+        <v>0.671941387896617</v>
       </c>
       <c r="I70" t="n">
-        <v>3.58496250072116</v>
+        <v>5</v>
       </c>
       <c r="J70" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K70" t="e">
-        <v>#N/A</v>
+      <c r="K70" t="n">
+        <v>0.757810200911416</v>
       </c>
       <c r="L70" t="n">
-        <v>0.637965512856903</v>
+        <v>0.383538367367422</v>
       </c>
       <c r="M70" t="n">
-        <v>0.360043025825591</v>
+        <v>0.147447337305198</v>
       </c>
       <c r="N70" t="n">
-        <v>0.0697848667329232</v>
+        <v>0.179699213983772</v>
       </c>
       <c r="O70" t="n">
-        <v>0.323935720918134</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>0.0812577870084943</v>
+        <v>0.0945875981196528</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -5691,299 +5481,284 @@
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>0.126673366733137</v>
+        <v>0.169009918144339</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
-      </c>
-      <c r="U70" t="n">
-        <v>0.0383052327817197</v>
+        <v>0.0257175650796155</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="C71" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="D71" t="n">
-        <v>0.882805463561211</v>
+        <v>1.3376016778781</v>
       </c>
       <c r="E71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" t="s">
         <v>31</v>
       </c>
-      <c r="F71" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" t="s">
-        <v>33</v>
-      </c>
       <c r="H71" t="n">
-        <v>0.643943830067591</v>
+        <v>0.727936503554668</v>
       </c>
       <c r="I71" t="n">
-        <v>5.04439411935845</v>
+        <v>4.85798099512757</v>
       </c>
       <c r="J71" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K71" t="e">
-        <v>#N/A</v>
+      <c r="K71" t="n">
+        <v>0.539957042295368</v>
       </c>
       <c r="L71" t="n">
-        <v>0.808473165895148</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0793707864444697</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>0.176730012408873</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>0.0913838694587305</v>
       </c>
       <c r="P71" t="n">
-        <v>0.0664122191873731</v>
+        <v>0.163511238499196</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.212278883274887</v>
+        <v>0.264571968989742</v>
       </c>
       <c r="R71" t="n">
-        <v>0.354654181544493</v>
+        <v>0.129770776550119</v>
       </c>
       <c r="S71" t="n">
-        <v>0.202532629880316</v>
+        <v>0.0826876733571825</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
-      </c>
-      <c r="U71" t="n">
-        <v>0.084751299668461</v>
+        <v>0.0913444607361567</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>186</v>
-      </c>
-      <c r="B72" t="e">
-        <v>#N/A</v>
+        <v>224</v>
+      </c>
+      <c r="B72" t="s">
+        <v>225</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="D72" t="n">
-        <v>0.708349747091901</v>
+        <v>1.65241546603447</v>
       </c>
       <c r="E72" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" t="s">
         <v>31</v>
       </c>
-      <c r="F72" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" t="s">
-        <v>33</v>
-      </c>
       <c r="H72" t="n">
-        <v>0.503956040922462</v>
+        <v>0.671941387896617</v>
       </c>
       <c r="I72" t="n">
-        <v>4.70043971814109</v>
+        <v>5.16992500144231</v>
       </c>
       <c r="J72" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L72" t="e">
-        <v>#N/A</v>
+      <c r="K72" t="n">
+        <v>0.478867672178079</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>0.0614018026497692</v>
       </c>
       <c r="N72" t="n">
-        <v>0.0764003435841411</v>
+        <v>0.0930220195820889</v>
       </c>
       <c r="O72" t="n">
-        <v>0.264910091055278</v>
+        <v>0.0681766454197774</v>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>0.21704226829776</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.0935240193023368</v>
+        <v>0.28408838783251</v>
       </c>
       <c r="R72" t="n">
-        <v>0.267460645468661</v>
+        <v>0.108938565874563</v>
       </c>
       <c r="S72" t="n">
-        <v>0.147362327939145</v>
+        <v>0.119621131142618</v>
       </c>
       <c r="T72" t="n">
-        <v>0.108377354132105</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0.0419652185183339</v>
+        <v>0.0477091792009136</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="C73" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="D73" t="n">
-        <v>1.73296055907925</v>
+        <v>0.390536916669804</v>
       </c>
       <c r="E73" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H73" t="n">
-        <v>0.223980462632206</v>
+        <v>0.307973136119283</v>
       </c>
       <c r="I73" t="n">
-        <v>3.8073549220576</v>
-      </c>
-      <c r="J73" t="s">
-        <v>27</v>
+        <v>3.90689059560852</v>
+      </c>
+      <c r="J73" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K73" t="n">
-        <v>0.27027027027027</v>
+        <v>0.666239527934617</v>
       </c>
       <c r="L73" t="n">
-        <v>0.62407659609205</v>
+        <v>0.216947225425474</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0610205842784469</v>
+        <v>0.0630713661457646</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>0.204830814562037</v>
       </c>
       <c r="O73" t="n">
-        <v>0.095706354431257</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>0.122739282172645</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.17693040358603</v>
+        <v>0.0958976712093112</v>
       </c>
       <c r="R73" t="n">
-        <v>0.36292185578016</v>
+        <v>0.113702072223855</v>
       </c>
       <c r="S73" t="n">
-        <v>0.136420537475511</v>
+        <v>0.1562966837089</v>
       </c>
       <c r="T73" t="n">
-        <v>0.0895614154092224</v>
-      </c>
-      <c r="U73" t="n">
-        <v>0.0774388490393725</v>
+        <v>0.0265148845520116</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>191</v>
-      </c>
-      <c r="B74" t="e">
-        <v>#N/A</v>
+        <v>230</v>
+      </c>
+      <c r="B74" t="s">
+        <v>231</v>
       </c>
       <c r="C74" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="D74" t="n">
-        <v>0.765076784764917</v>
+        <v>0.517582750507118</v>
       </c>
       <c r="E74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" t="s">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s">
         <v>31</v>
       </c>
-      <c r="F74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" t="s">
-        <v>26</v>
-      </c>
       <c r="H74" t="n">
-        <v>0.111990231316103</v>
+        <v>0.587948714409539</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
-      </c>
-      <c r="J74" t="s">
-        <v>27</v>
+        <v>4.75488750216347</v>
+      </c>
+      <c r="J74" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K74" t="n">
-        <v>0.285714285714286</v>
-      </c>
-      <c r="L74" t="e">
-        <v>#N/A</v>
+        <v>0.622731566582486</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.112368428954719</v>
       </c>
       <c r="M74" t="n">
-        <v>0.279863412518065</v>
+        <v>0.0693066811271542</v>
       </c>
       <c r="N74" t="n">
-        <v>0.0752031023131815</v>
+        <v>0.365029513455725</v>
       </c>
       <c r="O74" t="n">
-        <v>0.150503062695286</v>
+        <v>0.0688816970853302</v>
       </c>
       <c r="P74" t="n">
-        <v>0.067722537083597</v>
+        <v>0.0811070154889089</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.111266978313812</v>
+        <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>0.211562747648098</v>
+        <v>0.0860055148062056</v>
       </c>
       <c r="S74" t="n">
-        <v>0.103878135240894</v>
+        <v>0.177750628613161</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
-      </c>
-      <c r="U74" t="n">
-        <v>0.0000000241870663497679</v>
+        <v>0.0395505204687959</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>193</v>
-      </c>
-      <c r="B75" t="e">
-        <v>#N/A</v>
+        <v>233</v>
+      </c>
+      <c r="B75" t="s">
+        <v>234</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="D75" t="n">
-        <v>1.08950264868542</v>
+        <v>0.550419611007771</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H75" t="n">
-        <v>0.19598290480318</v>
+        <v>0.363968251777334</v>
       </c>
       <c r="I75" t="n">
         <v>4</v>
@@ -5991,197 +5766,188 @@
       <c r="J75" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L75" t="e">
-        <v>#N/A</v>
+      <c r="K75" t="n">
+        <v>0.471068959090034</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.570559572604357</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>0.0625424071376501</v>
       </c>
       <c r="N75" t="n">
-        <v>0.101573697014105</v>
+        <v>0.253797297232868</v>
       </c>
       <c r="O75" t="n">
-        <v>0.138200236936824</v>
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>0.116267430491875</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.114008341526327</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>0.238258311321791</v>
+        <v>0.0872841014576835</v>
       </c>
       <c r="S75" t="n">
-        <v>0.103972013734983</v>
+        <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>0.136592620508165</v>
-      </c>
-      <c r="U75" t="n">
-        <v>0.0511273484659296</v>
+        <v>0.0258166215674416</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="B76" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="C76" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="D76" t="n">
-        <v>3.04039166135154</v>
+        <v>0.785423033777577</v>
       </c>
       <c r="E76" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H76" t="n">
-        <v>0.643943830067591</v>
+        <v>0.0839926734870771</v>
       </c>
       <c r="I76" t="n">
-        <v>4.75488750216347</v>
+        <v>2.58496250072116</v>
       </c>
       <c r="J76" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K76" t="e">
-        <v>#N/A</v>
+      <c r="K76" t="n">
+        <v>0.543859344519963</v>
       </c>
       <c r="L76" t="n">
-        <v>0.49150485279403</v>
+        <v>0.270529990333797</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>0.103583873849176</v>
       </c>
       <c r="N76" t="n">
-        <v>0.0663369339961934</v>
+        <v>0.121544192412978</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>0.0999823299469701</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.425301172176932</v>
+        <v>0.118501312631777</v>
       </c>
       <c r="R76" t="n">
-        <v>0.35119215850877</v>
+        <v>0.129065599745378</v>
       </c>
       <c r="S76" t="n">
-        <v>0.113188256260382</v>
+        <v>0.156792701079924</v>
       </c>
       <c r="T76" t="n">
         <v>0</v>
-      </c>
-      <c r="U76" t="n">
-        <v>0.0439814790577218</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="C77" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="D77" t="n">
-        <v>0.828368248951573</v>
+        <v>0.453305749936207</v>
       </c>
       <c r="E77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s">
         <v>31</v>
       </c>
-      <c r="F77" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" t="s">
-        <v>33</v>
-      </c>
       <c r="H77" t="n">
-        <v>0.0559951156580514</v>
+        <v>0.0839926734870771</v>
       </c>
       <c r="I77" t="n">
-        <v>2.58496250072116</v>
+        <v>4.16992500144231</v>
       </c>
       <c r="J77" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K77" t="e">
-        <v>#N/A</v>
+      <c r="K77" t="n">
+        <v>0.356486627033376</v>
       </c>
       <c r="L77" t="n">
-        <v>0.549162269366051</v>
+        <v>0.520970687371845</v>
       </c>
       <c r="M77" t="n">
-        <v>0.250782011206616</v>
+        <v>0.0972256937625451</v>
       </c>
       <c r="N77" t="n">
-        <v>0.111471879530442</v>
+        <v>0.100545720341275</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>0.151706099482703</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.120779885111439</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>0.247115544963874</v>
+        <v>0.0970001044119977</v>
       </c>
       <c r="S77" t="n">
-        <v>0.10315647754105</v>
+        <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>0.0874363754789994</v>
-      </c>
-      <c r="U77" t="n">
-        <v>0.0792578261675805</v>
+        <v>0.032551694629633</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>201</v>
-      </c>
-      <c r="B78" t="s">
-        <v>202</v>
+        <v>242</v>
+      </c>
+      <c r="B78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C78" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="D78" t="n">
-        <v>0.388138255821767</v>
+        <v>3.95948737822802</v>
       </c>
       <c r="E78" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" t="s">
         <v>31</v>
       </c>
-      <c r="F78" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" t="s">
-        <v>33</v>
-      </c>
       <c r="H78" t="n">
-        <v>2.12781439500595</v>
+        <v>0.39196580960636</v>
       </c>
       <c r="I78" t="n">
-        <v>6.52356195605701</v>
+        <v>4.32192809488736</v>
       </c>
       <c r="J78" t="e">
         <v>#N/A</v>
@@ -6190,1463 +5956,526 @@
         <v>#N/A</v>
       </c>
       <c r="L78" t="n">
-        <v>0.572644393416624</v>
+        <v>0.0694034970885765</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>0.157696415861318</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>0.134587034365037</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>0.304079095973372</v>
       </c>
       <c r="R78" t="n">
-        <v>0.128839507628334</v>
+        <v>0.186264963370419</v>
       </c>
       <c r="S78" t="n">
-        <v>0.821218976440908</v>
+        <v>0.103474053638766</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
-      </c>
-      <c r="U78" t="n">
-        <v>0.0499415159307577</v>
+        <v>0.0444949397025116</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="B79" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="D79" t="n">
-        <v>0.674959180648736</v>
+        <v>0.662451416600774</v>
       </c>
       <c r="E79" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" t="s">
+        <v>30</v>
+      </c>
+      <c r="G79" t="s">
         <v>31</v>
       </c>
-      <c r="F79" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" t="s">
-        <v>33</v>
-      </c>
       <c r="H79" t="n">
-        <v>0.419963367435385</v>
+        <v>0.531953598751488</v>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>4.90689059560852</v>
       </c>
       <c r="J79" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K79" t="e">
-        <v>#N/A</v>
+      <c r="K79" t="n">
+        <v>0.620267598057406</v>
       </c>
       <c r="L79" t="n">
-        <v>0.699064292560397</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0.310140744362781</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0.068936002813622</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>0.26528956872205</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.213096875782795</v>
+        <v>0.480445572632228</v>
       </c>
       <c r="R79" t="n">
-        <v>0.135272839158107</v>
+        <v>0.0631397529026997</v>
       </c>
       <c r="S79" t="n">
-        <v>0.128113552085235</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>0.0744813049292694</v>
-      </c>
-      <c r="U79" t="n">
-        <v>0.0699586808681902</v>
+        <v>0.191125105743023</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="B80" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="C80" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="D80" t="n">
-        <v>0.775241276378305</v>
+        <v>1.56346077095907</v>
       </c>
       <c r="E80" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" t="s">
+        <v>30</v>
+      </c>
+      <c r="G80" t="s">
         <v>31</v>
       </c>
-      <c r="F80" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" t="s">
-        <v>33</v>
-      </c>
       <c r="H80" t="n">
-        <v>0.699938945725642</v>
+        <v>0.279975578290257</v>
       </c>
       <c r="I80" t="n">
-        <v>4.85798099512757</v>
+        <v>3.8073549220576</v>
       </c>
       <c r="J80" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K80" t="e">
-        <v>#N/A</v>
+      <c r="K80" t="n">
+        <v>0.674694967634554</v>
       </c>
       <c r="L80" t="n">
-        <v>0.631004972671502</v>
+        <v>0.148760535083763</v>
       </c>
       <c r="M80" t="n">
-        <v>0.503332521636299</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0614578925365872</v>
+        <v>0.191419611143476</v>
       </c>
       <c r="O80" t="n">
-        <v>0.213060726659897</v>
+        <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>0.155699962478648</v>
+        <v>0.0809454445061807</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>0.198194819146278</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>0.0865242820025566</v>
       </c>
       <c r="S80" t="n">
-        <v>0</v>
+        <v>0.197385851722872</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
-      </c>
-      <c r="U80" t="n">
-        <v>0.0664488966885677</v>
+        <v>0.0967694563948739</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="B81" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="C81" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="D81" t="n">
-        <v>0.571514974019808</v>
+        <v>0.724248630404926</v>
       </c>
       <c r="E81" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81" t="s">
         <v>31</v>
       </c>
-      <c r="F81" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" t="s">
-        <v>33</v>
-      </c>
       <c r="H81" t="n">
-        <v>0.615946272238565</v>
+        <v>0.251978020461231</v>
       </c>
       <c r="I81" t="n">
-        <v>4.70043971814109</v>
+        <v>3.58496250072116</v>
       </c>
       <c r="J81" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K81" t="e">
-        <v>#N/A</v>
+      <c r="K81" t="n">
+        <v>0.760571263751836</v>
       </c>
       <c r="L81" t="n">
-        <v>0.64973853521711</v>
+        <v>0.155508635964374</v>
       </c>
       <c r="M81" t="n">
-        <v>0.143833959087215</v>
+        <v>0.0916656313976989</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>0.204768824569179</v>
       </c>
       <c r="O81" t="n">
-        <v>0.263583588377683</v>
+        <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>0.0868164302487179</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.150606513852679</v>
+        <v>0.199049104167971</v>
       </c>
       <c r="R81" t="n">
-        <v>0.122545412020891</v>
+        <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>0.124270161895681</v>
+        <v>0.210309335205238</v>
       </c>
       <c r="T81" t="n">
-        <v>0.106552026574306</v>
-      </c>
-      <c r="U81" t="n">
-        <v>0.0886083381915452</v>
+        <v>0.0518820384468218</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="B82" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="C82" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="D82" t="n">
-        <v>2.44907726867045</v>
+        <v>0.988855477993912</v>
       </c>
       <c r="E82" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H82" t="n">
-        <v>0.363968251777334</v>
+        <v>0.0279975578290257</v>
       </c>
       <c r="I82" t="n">
-        <v>3.90689059560852</v>
-      </c>
-      <c r="J82" t="s">
-        <v>27</v>
+        <v>2.8073549220576</v>
+      </c>
+      <c r="J82" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K82" t="n">
-        <v>0.311258278145695</v>
+        <v>0.257086835506525</v>
       </c>
       <c r="L82" t="n">
-        <v>0.392024954986044</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>0.0764064458988235</v>
       </c>
       <c r="O82" t="n">
-        <v>0.156744106069701</v>
+        <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>0.37108376457957</v>
+        <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.099895946681261</v>
+        <v>0.923593554101176</v>
       </c>
       <c r="R82" t="n">
-        <v>0.353708792576723</v>
+        <v>0</v>
       </c>
       <c r="S82" t="n">
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>0</v>
-      </c>
-      <c r="U82" t="n">
-        <v>0.0185673900927451</v>
+        <v>0.000000000000000111022302462516</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="B83" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="C83" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="D83" t="n">
-        <v>0.729525469501158</v>
+        <v>0.466801169472898</v>
       </c>
       <c r="E83" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s">
         <v>31</v>
       </c>
-      <c r="F83" t="s">
-        <v>32</v>
-      </c>
-      <c r="G83" t="s">
-        <v>33</v>
-      </c>
       <c r="H83" t="n">
-        <v>0.615946272238565</v>
+        <v>0.363968251777334</v>
       </c>
       <c r="I83" t="n">
-        <v>4.8073549220576</v>
+        <v>4.32192809488736</v>
       </c>
       <c r="J83" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K83" t="e">
-        <v>#N/A</v>
+      <c r="K83" t="n">
+        <v>0.48880709589267</v>
       </c>
       <c r="L83" t="n">
-        <v>0.596633706208732</v>
+        <v>0.0785783128295887</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>0.0750021473702883</v>
       </c>
       <c r="O83" t="n">
-        <v>0.537439335647318</v>
+        <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>0.172962479086884</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.106513851960041</v>
+        <v>0.44042006198329</v>
       </c>
       <c r="R83" t="n">
-        <v>0.348315999690963</v>
+        <v>0.115794368532733</v>
       </c>
       <c r="S83" t="n">
-        <v>0</v>
+        <v>0.0754232691319546</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
-      </c>
-      <c r="U83" t="n">
-        <v>0.00773081270167775</v>
+        <v>0.0418193610652614</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="B84" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="C84" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="D84" t="n">
-        <v>2.78010728661349</v>
+        <v>0.935436254064433</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H84" t="n">
-        <v>0.671941387896617</v>
+        <v>0.0839926734870771</v>
       </c>
       <c r="I84" t="n">
-        <v>5</v>
+        <v>2.58496250072116</v>
       </c>
       <c r="J84" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K84" t="e">
-        <v>#N/A</v>
+      <c r="K84" t="n">
+        <v>0.263417416871963</v>
       </c>
       <c r="L84" t="n">
-        <v>0.757810200911416</v>
+        <v>0.421856281219284</v>
       </c>
       <c r="M84" t="n">
-        <v>0.383538367367422</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0.147447337305198</v>
+        <v>0.238175344029036</v>
       </c>
       <c r="O84" t="n">
-        <v>0.179699213983772</v>
+        <v>0.122182560086</v>
       </c>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>0.0825144550173773</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.0945875981196528</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>0</v>
+        <v>0.0840604798772543</v>
       </c>
       <c r="T84" t="n">
-        <v>0.169009918144339</v>
-      </c>
-      <c r="U84" t="n">
-        <v>0.0257175650796155</v>
+        <v>0.0512108797710477</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="B85" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="C85" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="D85" t="n">
-        <v>1.3376016778781</v>
+        <v>0.574163528083403</v>
       </c>
       <c r="E85" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H85" t="n">
-        <v>0.727936503554668</v>
+        <v>0.0279975578290257</v>
       </c>
       <c r="I85" t="n">
-        <v>4.85798099512757</v>
+        <v>1.58496250072116</v>
       </c>
       <c r="J85" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K85" t="e">
-        <v>#N/A</v>
+      <c r="K85" t="n">
+        <v>0.575590445721698</v>
       </c>
       <c r="L85" t="n">
-        <v>0.539957042295368</v>
+        <v>0.527771817465587</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>0.0872046483395278</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>0.117060508256837</v>
       </c>
       <c r="O85" t="n">
-        <v>0.176730012408873</v>
+        <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>0.0913838694587305</v>
+        <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.163511238499196</v>
+        <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>0.264571968989742</v>
+        <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>0.129770776550119</v>
+        <v>0.165646281315747</v>
       </c>
       <c r="T85" t="n">
-        <v>0.0826876733571825</v>
-      </c>
-      <c r="U85" t="n">
-        <v>0.0913444607361567</v>
+        <v>0.102316744622302</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="B86" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="C86" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="D86" t="n">
-        <v>1.65241546603447</v>
+        <v>0.859182287154718</v>
       </c>
       <c r="E86" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H86" t="n">
-        <v>0.671941387896617</v>
+        <v>0.0279975578290257</v>
       </c>
       <c r="I86" t="n">
-        <v>5.16992500144231</v>
+        <v>1.58496250072116</v>
       </c>
       <c r="J86" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K86" t="e">
-        <v>#N/A</v>
+      <c r="K86" t="n">
+        <v>0.479093805144225</v>
       </c>
       <c r="L86" t="n">
-        <v>0.478867672178079</v>
+        <v>0.415539791654947</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0614018026497692</v>
+        <v>0.158302221030284</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0930220195820889</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>0.0681766454197774</v>
+        <v>0.0773582255260954</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.21704226829776</v>
+        <v>0</v>
       </c>
       <c r="R86" t="n">
-        <v>0.28408838783251</v>
+        <v>0.125230642953602</v>
       </c>
       <c r="S86" t="n">
-        <v>0.108938565874563</v>
+        <v>0.173313921586915</v>
       </c>
       <c r="T86" t="n">
-        <v>0.119621131142618</v>
-      </c>
-      <c r="U86" t="n">
-        <v>0.0477091792009136</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>228</v>
-      </c>
-      <c r="B87" t="s">
-        <v>229</v>
-      </c>
-      <c r="C87" t="s">
-        <v>230</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.390536916669804</v>
-      </c>
-      <c r="E87" t="s">
-        <v>31</v>
-      </c>
-      <c r="F87" t="s">
-        <v>32</v>
-      </c>
-      <c r="G87" t="s">
-        <v>33</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.307973136119283</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3.90689059560852</v>
-      </c>
-      <c r="J87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0.666239527934617</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.216947225425474</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.0630713661457646</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0.204830814562037</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0.122739282172645</v>
-      </c>
-      <c r="R87" t="n">
-        <v>0.0958976712093112</v>
-      </c>
-      <c r="S87" t="n">
-        <v>0.113702072223855</v>
-      </c>
-      <c r="T87" t="n">
-        <v>0.1562966837089</v>
-      </c>
-      <c r="U87" t="n">
-        <v>0.0265148845520116</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>231</v>
-      </c>
-      <c r="B88" t="s">
-        <v>232</v>
-      </c>
-      <c r="C88" t="s">
-        <v>233</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.517582750507118</v>
-      </c>
-      <c r="E88" t="s">
-        <v>31</v>
-      </c>
-      <c r="F88" t="s">
-        <v>32</v>
-      </c>
-      <c r="G88" t="s">
-        <v>33</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.587948714409539</v>
-      </c>
-      <c r="I88" t="n">
-        <v>4.75488750216347</v>
-      </c>
-      <c r="J88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0.622731566582486</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.112368428954719</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0.0693066811271542</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0.365029513455725</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0.0688816970853302</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0.0811070154889089</v>
-      </c>
-      <c r="R88" t="n">
-        <v>0</v>
-      </c>
-      <c r="S88" t="n">
-        <v>0.0860055148062056</v>
-      </c>
-      <c r="T88" t="n">
-        <v>0.177750628613161</v>
-      </c>
-      <c r="U88" t="n">
-        <v>0.0395505204687959</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>234</v>
-      </c>
-      <c r="B89" t="s">
-        <v>235</v>
-      </c>
-      <c r="C89" t="s">
-        <v>236</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.550419611007771</v>
-      </c>
-      <c r="E89" t="s">
-        <v>31</v>
-      </c>
-      <c r="F89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G89" t="s">
-        <v>33</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.363968251777334</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4</v>
-      </c>
-      <c r="J89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0.471068959090034</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.570559572604357</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.0625424071376501</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0.253797297232868</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>0</v>
-      </c>
-      <c r="R89" t="n">
-        <v>0</v>
-      </c>
-      <c r="S89" t="n">
-        <v>0.0872841014576835</v>
-      </c>
-      <c r="T89" t="n">
-        <v>0</v>
-      </c>
-      <c r="U89" t="n">
-        <v>0.0258166215674416</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>237</v>
-      </c>
-      <c r="B90" t="s">
-        <v>238</v>
-      </c>
-      <c r="C90" t="s">
-        <v>239</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.785423033777577</v>
-      </c>
-      <c r="E90" t="s">
-        <v>31</v>
-      </c>
-      <c r="F90" t="s">
-        <v>32</v>
-      </c>
-      <c r="G90" t="s">
-        <v>33</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.0839926734870771</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2.58496250072116</v>
-      </c>
-      <c r="J90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0.543859344519963</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.270529990333797</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0.103583873849176</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0.121544192412978</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>0.0999823299469701</v>
-      </c>
-      <c r="R90" t="n">
-        <v>0.118501312631777</v>
-      </c>
-      <c r="S90" t="n">
-        <v>0.129065599745378</v>
-      </c>
-      <c r="T90" t="n">
-        <v>0.156792701079924</v>
-      </c>
-      <c r="U90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>240</v>
-      </c>
-      <c r="B91" t="s">
-        <v>241</v>
-      </c>
-      <c r="C91" t="s">
-        <v>242</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.453305749936207</v>
-      </c>
-      <c r="E91" t="s">
-        <v>31</v>
-      </c>
-      <c r="F91" t="s">
-        <v>32</v>
-      </c>
-      <c r="G91" t="s">
-        <v>33</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.0839926734870771</v>
-      </c>
-      <c r="I91" t="n">
-        <v>4.16992500144231</v>
-      </c>
-      <c r="J91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0.356486627033376</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.520970687371845</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0.0972256937625451</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0.100545720341275</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>0.151706099482703</v>
-      </c>
-      <c r="R91" t="n">
-        <v>0</v>
-      </c>
-      <c r="S91" t="n">
-        <v>0.0970001044119977</v>
-      </c>
-      <c r="T91" t="n">
-        <v>0</v>
-      </c>
-      <c r="U91" t="n">
-        <v>0.032551694629633</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>243</v>
-      </c>
-      <c r="B92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C92" t="s">
-        <v>244</v>
-      </c>
-      <c r="D92" t="n">
-        <v>3.95948737822802</v>
-      </c>
-      <c r="E92" t="s">
-        <v>24</v>
-      </c>
-      <c r="F92" t="s">
-        <v>32</v>
-      </c>
-      <c r="G92" t="s">
-        <v>33</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.39196580960636</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4.32192809488736</v>
-      </c>
-      <c r="J92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.0694034970885765</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0.157696415861318</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0.134587034365037</v>
-      </c>
-      <c r="R92" t="n">
-        <v>0.304079095973372</v>
-      </c>
-      <c r="S92" t="n">
-        <v>0.186264963370419</v>
-      </c>
-      <c r="T92" t="n">
-        <v>0.103474053638766</v>
-      </c>
-      <c r="U92" t="n">
-        <v>0.0444949397025116</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>245</v>
-      </c>
-      <c r="B93" t="s">
-        <v>246</v>
-      </c>
-      <c r="C93" t="s">
-        <v>247</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.662451416600774</v>
-      </c>
-      <c r="E93" t="s">
-        <v>31</v>
-      </c>
-      <c r="F93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G93" t="s">
-        <v>33</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.531953598751488</v>
-      </c>
-      <c r="I93" t="n">
-        <v>4.90689059560852</v>
-      </c>
-      <c r="J93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0.620267598057406</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>0.26528956872205</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0.480445572632228</v>
-      </c>
-      <c r="S93" t="n">
-        <v>0.0631397529026997</v>
-      </c>
-      <c r="T93" t="n">
-        <v>0</v>
-      </c>
-      <c r="U93" t="n">
-        <v>0.191125105743023</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>248</v>
-      </c>
-      <c r="B94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C94" t="s">
-        <v>250</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1.56346077095907</v>
-      </c>
-      <c r="E94" t="s">
-        <v>31</v>
-      </c>
-      <c r="F94" t="s">
-        <v>32</v>
-      </c>
-      <c r="G94" t="s">
-        <v>33</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.279975578290257</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3.8073549220576</v>
-      </c>
-      <c r="J94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0.674694967634554</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.148760535083763</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0.191419611143476</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0.0809454445061807</v>
-      </c>
-      <c r="R94" t="n">
-        <v>0.198194819146278</v>
-      </c>
-      <c r="S94" t="n">
-        <v>0.0865242820025566</v>
-      </c>
-      <c r="T94" t="n">
-        <v>0.197385851722872</v>
-      </c>
-      <c r="U94" t="n">
-        <v>0.0967694563948739</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>251</v>
-      </c>
-      <c r="B95" t="s">
-        <v>252</v>
-      </c>
-      <c r="C95" t="s">
-        <v>253</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.724248630404926</v>
-      </c>
-      <c r="E95" t="s">
-        <v>31</v>
-      </c>
-      <c r="F95" t="s">
-        <v>32</v>
-      </c>
-      <c r="G95" t="s">
-        <v>33</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.251978020461231</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3.58496250072116</v>
-      </c>
-      <c r="J95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0.760571263751836</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.155508635964374</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0.0916656313976989</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0.204768824569179</v>
-      </c>
-      <c r="P95" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>0.0868164302487179</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0.199049104167971</v>
-      </c>
-      <c r="S95" t="n">
-        <v>0</v>
-      </c>
-      <c r="T95" t="n">
-        <v>0.210309335205238</v>
-      </c>
-      <c r="U95" t="n">
-        <v>0.0518820384468218</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>254</v>
-      </c>
-      <c r="B96" t="s">
-        <v>255</v>
-      </c>
-      <c r="C96" t="s">
-        <v>256</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.988855477993912</v>
-      </c>
-      <c r="E96" t="s">
-        <v>31</v>
-      </c>
-      <c r="F96" t="s">
-        <v>32</v>
-      </c>
-      <c r="G96" t="s">
-        <v>33</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0.0279975578290257</v>
-      </c>
-      <c r="I96" t="n">
-        <v>2.8073549220576</v>
-      </c>
-      <c r="J96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0.257086835506525</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
-      </c>
-      <c r="O96" t="n">
-        <v>0.0764064458988235</v>
-      </c>
-      <c r="P96" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>0</v>
-      </c>
-      <c r="R96" t="n">
-        <v>0.923593554101176</v>
-      </c>
-      <c r="S96" t="n">
-        <v>0</v>
-      </c>
-      <c r="T96" t="n">
-        <v>0</v>
-      </c>
-      <c r="U96" t="n">
-        <v>0.000000000000000111022302462516</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>257</v>
-      </c>
-      <c r="B97" t="s">
-        <v>258</v>
-      </c>
-      <c r="C97" t="s">
-        <v>259</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.466801169472898</v>
-      </c>
-      <c r="E97" t="s">
-        <v>31</v>
-      </c>
-      <c r="F97" t="s">
-        <v>32</v>
-      </c>
-      <c r="G97" t="s">
-        <v>33</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0.363968251777334</v>
-      </c>
-      <c r="I97" t="n">
-        <v>4.32192809488736</v>
-      </c>
-      <c r="J97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.48880709589267</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.0785783128295887</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0.0750021473702883</v>
-      </c>
-      <c r="P97" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0.172962479086884</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0.44042006198329</v>
-      </c>
-      <c r="S97" t="n">
-        <v>0.115794368532733</v>
-      </c>
-      <c r="T97" t="n">
-        <v>0.0754232691319546</v>
-      </c>
-      <c r="U97" t="n">
-        <v>0.0418193610652614</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>260</v>
-      </c>
-      <c r="B98" t="s">
-        <v>261</v>
-      </c>
-      <c r="C98" t="s">
-        <v>262</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.935436254064433</v>
-      </c>
-      <c r="E98" t="s">
-        <v>24</v>
-      </c>
-      <c r="F98" t="s">
-        <v>32</v>
-      </c>
-      <c r="G98" t="s">
-        <v>33</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0.0839926734870771</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2.58496250072116</v>
-      </c>
-      <c r="J98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.263417416871963</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.421856281219284</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0</v>
-      </c>
-      <c r="O98" t="n">
-        <v>0.238175344029036</v>
-      </c>
-      <c r="P98" t="n">
-        <v>0.122182560086</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>0.0825144550173773</v>
-      </c>
-      <c r="R98" t="n">
-        <v>0</v>
-      </c>
-      <c r="S98" t="n">
-        <v>0</v>
-      </c>
-      <c r="T98" t="n">
-        <v>0.0840604798772543</v>
-      </c>
-      <c r="U98" t="n">
-        <v>0.0512108797710477</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>263</v>
-      </c>
-      <c r="B99" t="s">
-        <v>264</v>
-      </c>
-      <c r="C99" t="s">
-        <v>265</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.574163528083403</v>
-      </c>
-      <c r="E99" t="s">
-        <v>31</v>
-      </c>
-      <c r="F99" t="s">
-        <v>32</v>
-      </c>
-      <c r="G99" t="s">
-        <v>33</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0.0279975578290257</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1.58496250072116</v>
-      </c>
-      <c r="J99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0.575590445721698</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.527771817465587</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.0872046483395278</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0.117060508256837</v>
-      </c>
-      <c r="P99" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>0</v>
-      </c>
-      <c r="R99" t="n">
-        <v>0</v>
-      </c>
-      <c r="S99" t="n">
-        <v>0</v>
-      </c>
-      <c r="T99" t="n">
-        <v>0.165646281315747</v>
-      </c>
-      <c r="U99" t="n">
-        <v>0.102316744622302</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>266</v>
-      </c>
-      <c r="B100" t="s">
-        <v>267</v>
-      </c>
-      <c r="C100" t="s">
-        <v>268</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.859182287154718</v>
-      </c>
-      <c r="E100" t="s">
-        <v>31</v>
-      </c>
-      <c r="F100" t="s">
-        <v>32</v>
-      </c>
-      <c r="G100" t="s">
-        <v>33</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.0279975578290257</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1.58496250072116</v>
-      </c>
-      <c r="J100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0.479093805144225</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.415539791654947</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0</v>
-      </c>
-      <c r="O100" t="n">
-        <v>0.158302221030284</v>
-      </c>
-      <c r="P100" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>0.0773582255260954</v>
-      </c>
-      <c r="R100" t="n">
-        <v>0</v>
-      </c>
-      <c r="S100" t="n">
-        <v>0.125230642953602</v>
-      </c>
-      <c r="T100" t="n">
-        <v>0.173313921586915</v>
-      </c>
-      <c r="U100" t="n">
         <v>0.050255197248157</v>
       </c>
     </row>

--- a/analyses/07-additional_figures/output/hgat_tmb_mut_counts_sigs_tel_df.xlsx
+++ b/analyses/07-additional_figures/output/hgat_tmb_mut_counts_sigs_tel_df.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
   <si>
     <t xml:space="preserve">Kids_First_Biospecimen_ID_DNA</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t xml:space="preserve">log2_mut_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tumor_fraction</t>
   </si>
   <si>
     <t xml:space="preserve">Hugo_Symbol</t>
@@ -1208,28 +1211,31 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
         <v>1.30551947713444</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
         <v>307.049216710925</v>
@@ -1237,24 +1243,24 @@
       <c r="I2" t="n">
         <v>13.7886163862508</v>
       </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="J2" t="n">
+        <v>0.398167136</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.571873002278057</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.0697604790628198</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.165075926753433</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.645685466825502</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
@@ -1262,36 +1268,39 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>0.0641460245322681</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.055332102825977</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="e">
         <v>#N/A</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>0.892867449440256</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="n">
         <v>0.139987789145128</v>
@@ -1299,61 +1308,64 @@
       <c r="I3" t="n">
         <v>3.90689059560852</v>
       </c>
-      <c r="J3" t="e">
-        <v>#N/A</v>
+      <c r="J3" t="n">
+        <v>1</v>
       </c>
       <c r="K3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.334453468112554</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.10089271395975</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.162475212160087</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.16885311626284</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>0.16805313844356</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.0652723510612085</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
         <v>1.42688611222043</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
         <v>187.387654549669</v>
@@ -1361,24 +1373,24 @@
       <c r="I4" t="n">
         <v>13.1197517122014</v>
       </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J4" t="n">
+        <v>0.275748727</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.570815120485353</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.0837204010206548</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.082170512139978</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>0.510992389173822</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
@@ -1386,36 +1398,39 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>0.286197211002525</v>
       </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.0369194866630197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
         <v>1.49438953400914</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" t="n">
         <v>274.488056955768</v>
@@ -1423,61 +1438,64 @@
       <c r="I5" t="n">
         <v>13.4809163935333</v>
       </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J5" t="n">
+        <v>0.682629439</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.454679866017166</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.251825928625267</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.0815253292217893</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>0.323738675871913</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>0.0790806883320622</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>0.263829377948969</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
         <v>1.9045233498792</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" t="n">
         <v>7.75532351864012</v>
@@ -1485,27 +1503,27 @@
       <c r="I6" t="n">
         <v>8.34429590791582</v>
       </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J6" t="n">
+        <v>0.853546545</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.529313271501999</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>0.72473350143774</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>0.211503531592911</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>0.0637629669693487</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
@@ -1516,30 +1534,33 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
         <v>2.12785443188844</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" t="n">
         <v>1.11990231316103</v>
@@ -1547,61 +1568,64 @@
       <c r="I7" t="n">
         <v>5.49185309632967</v>
       </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J7" t="n">
+        <v>0.778723513</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.531683566137128</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>0.176538635123366</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>0.685278098272759</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>0.0835252770571148</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>0.0546579895467605</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="n">
         <v>1.49313856463679</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="n">
         <v>4.73158727310534</v>
@@ -1609,24 +1633,24 @@
       <c r="I8" t="n">
         <v>7.6724253419715</v>
       </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J8" t="n">
+        <v>0.745051138</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.529058895321795</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.775035702115365</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.191042033464313</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
@@ -1640,30 +1664,33 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>0.0339222644203223</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" t="n">
         <v>1.10358853243914</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" t="n">
         <v>15.4826494794512</v>
@@ -1671,24 +1698,24 @@
       <c r="I9" t="n">
         <v>9.3264294871223</v>
       </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J9" t="n">
+        <v>0.702009297</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.549328326777937</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>0.747059918129611</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.189105061464373</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
@@ -1702,30 +1729,33 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>0.0638350204060155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" t="n">
         <v>0.761383218672575</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" t="n">
         <v>0.531953598751488</v>
@@ -1733,61 +1763,64 @@
       <c r="I10" t="n">
         <v>4.4594316186373</v>
       </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J10" t="n">
+        <v>0.780599844</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.381370593119562</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>0.0828187158992442</v>
       </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
       <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>0.165144037701407</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>0.391468403017733</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>0.179237879058704</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>0.0737985029811942</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>0.107532461341718</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" t="n">
         <v>0.366265200539345</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" t="n">
         <v>1.00791208184492</v>
@@ -1795,15 +1828,15 @@
       <c r="I11" t="n">
         <v>5.90689059560852</v>
       </c>
-      <c r="J11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J11" t="n">
+        <v>0.591250747</v>
+      </c>
+      <c r="K11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L11" t="n">
         <v>0.429811768093937</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
@@ -1814,42 +1847,45 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>0.503549175712259</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>0.342881664544902</v>
       </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>0.15356915974284</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" t="e">
         <v>#N/A</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" t="n">
         <v>3.04285034754224</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H12" t="n">
         <v>0.475958483093437</v>
@@ -1857,61 +1893,64 @@
       <c r="I12" t="n">
         <v>4.4594316186373</v>
       </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
+      <c r="J12" t="n">
+        <v>0.856166409</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>0.265583989584329</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>0.177848933899108</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>0.445687311876346</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>0.110879764640218</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" t="n">
         <v>3.43674119313015</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13" t="n">
         <v>0.923919408357848</v>
@@ -1919,61 +1958,64 @@
       <c r="I13" t="n">
         <v>5.20945336562895</v>
       </c>
-      <c r="J13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J13" t="n">
+        <v>0.888131675</v>
+      </c>
+      <c r="K13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L13" t="n">
         <v>0.535327213327537</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>0.0925799157475719</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>0.0757558707683777</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>0.191761198324725</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>0.14591941716309</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>0.271829242178154</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
       <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>0.115249394891803</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>0.106904960926279</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" t="e">
         <v>#N/A</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" t="n">
         <v>0.744840196923758</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" t="n">
         <v>0.503956040922462</v>
@@ -1981,14 +2023,14 @@
       <c r="I14" t="n">
         <v>4.64385618977472</v>
       </c>
-      <c r="J14" t="e">
-        <v>#N/A</v>
+      <c r="J14" t="n">
+        <v>0.516346001</v>
       </c>
       <c r="K14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
+      <c r="L14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2000,42 +2042,45 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>0.215880590098165</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>0.426273641853423</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>0.151624815868599</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>0.0936827520239467</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>0.112538200155867</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" t="n">
         <v>1.19818573822931</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15" t="n">
         <v>2.21180706849303</v>
@@ -2043,21 +2088,21 @@
       <c r="I15" t="n">
         <v>6.52356195605701</v>
       </c>
-      <c r="J15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J15" t="n">
+        <v>0.634148446</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="n">
         <v>0.464521382425448</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>0.188179851974447</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
@@ -2065,39 +2110,42 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
         <v>0.181146830438943</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>0.577515679154303</v>
       </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>0.0531576384323073</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D16" t="n">
         <v>0.603105148336912</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16" t="n">
         <v>1.65185591191252</v>
@@ -2105,15 +2153,15 @@
       <c r="I16" t="n">
         <v>6.35755200461808</v>
       </c>
-      <c r="J16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J16" t="n">
+        <v>0.635859185</v>
+      </c>
+      <c r="K16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L16" t="n">
         <v>0.537158894358265</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
@@ -2124,42 +2172,45 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>0.342357710509817</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>0.6078963112825</v>
       </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>0.0497459782076837</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" t="n">
         <v>0.457387495384936</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17" t="n">
         <v>0.587948714409539</v>
@@ -2167,61 +2218,64 @@
       <c r="I17" t="n">
         <v>4.64385618977472</v>
       </c>
-      <c r="J17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J17" t="n">
+        <v>0.530195568</v>
+      </c>
+      <c r="K17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L17" t="n">
         <v>0.465290036941175</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>0.143793139343376</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>0.16016076534176</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>0.0996879603561902</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
       <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>0.220793192647928</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>0.20564242770529</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>0.115272050826958</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>0.0546504637784985</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D18" t="n">
         <v>1.15543569807249</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H18" t="n">
         <v>0.643943830067591</v>
@@ -2229,61 +2283,64 @@
       <c r="I18" t="n">
         <v>4.85798099512757</v>
       </c>
-      <c r="J18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J18" t="n">
+        <v>0.604920734</v>
+      </c>
+      <c r="K18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L18" t="n">
         <v>0.515722713008091</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>0.160546797083476</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>0.0953089921426336</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>0.119349880408728</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
       <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>0.106028032451864</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>0.206734086544961</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
       <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>0.222247364680321</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>0.0897848466880165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" t="n">
         <v>2.62558793175662</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H19" t="n">
         <v>1.14789987099005</v>
@@ -2291,61 +2348,64 @@
       <c r="I19" t="n">
         <v>5.61470984411521</v>
       </c>
-      <c r="J19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J19" t="n">
+        <v>0.905340493</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="n">
         <v>0.196574062165857</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>0.282885125623585</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>0.0921683435356933</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>0.118296886374186</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
       <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>0.096901027724683</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>0.147536418135327</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>0.0934264684523389</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>0.109727196716572</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>0.0590585334376148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" t="e">
         <v>#N/A</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" t="n">
         <v>0.905929830263928</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20" t="n">
         <v>0.223980462632206</v>
@@ -2353,61 +2413,64 @@
       <c r="I20" t="n">
         <v>3.4594316186373</v>
       </c>
-      <c r="J20" t="e">
-        <v>#N/A</v>
+      <c r="J20" t="n">
+        <v>0.045620612</v>
       </c>
       <c r="K20" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M20" t="n">
         <v>0.145281431113922</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>0.0652881947268414</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>0.171027068352983</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
       <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>0.236877281211508</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>0.180799375693473</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>0.10921378066037</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>0.0714711901164689</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>0.0200416781244339</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" t="n">
         <v>0.895720234771243</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21" t="n">
         <v>0.0839926734870771</v>
@@ -2415,61 +2478,64 @@
       <c r="I21" t="n">
         <v>2</v>
       </c>
-      <c r="J21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J21" t="n">
+        <v>0.129040059</v>
+      </c>
+      <c r="K21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L21" t="n">
         <v>0.326000478991198</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>0.0830827085692397</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>0.114577665539355</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>0.120050819970376</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
       <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
         <v>0.205530225459334</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>0.130480576489236</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>0.306573533906154</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>0.0397044700663067</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D22" t="n">
         <v>0.954150550892822</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H22" t="n">
         <v>0.727936503554668</v>
@@ -2477,15 +2543,15 @@
       <c r="I22" t="n">
         <v>5.16992500144231</v>
       </c>
-      <c r="J22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J22" t="n">
+        <v>0.182228684</v>
+      </c>
+      <c r="K22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L22" t="n">
         <v>0.39790533951934</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
@@ -2499,39 +2565,42 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>0.39985647773547</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>0.444840344339437</v>
       </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>0.155303177925093</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D23" t="n">
         <v>0.862448544389736</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23" t="n">
         <v>0.279975578290257</v>
@@ -2539,61 +2608,64 @@
       <c r="I23" t="n">
         <v>3.90689059560852</v>
       </c>
-      <c r="J23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J23" t="n">
+        <v>0.366562152</v>
+      </c>
+      <c r="K23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L23" t="n">
         <v>0.57773596166521</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>0.101041879251109</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>0.248198125786166</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
       <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>0.206290481601653</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>0.324145729477689</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>0.0728318544940469</v>
       </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
       <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>0.0474919293893359</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24" t="n">
         <v>3.88902941072736</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24" t="n">
         <v>0.615946272238565</v>
@@ -2601,61 +2673,64 @@
       <c r="I24" t="n">
         <v>4.75488750216347</v>
       </c>
-      <c r="J24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L24" t="n">
         <v>0.238692321358866</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>0.178038934231362</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>0.192224261434057</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>0.185488313516258</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>0.196195678849981</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>0.0937103151313331</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>0.0836452463124143</v>
       </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>0.0706972505245949</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25" t="n">
         <v>2.21840119242882</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25" t="n">
         <v>0.895921850528822</v>
@@ -2663,61 +2738,64 @@
       <c r="I25" t="n">
         <v>5.28540221886225</v>
       </c>
-      <c r="J25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J25" t="n">
+        <v>0.78186868</v>
+      </c>
+      <c r="K25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L25" t="n">
         <v>0.694759144239012</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>0.208048281599286</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>0.112037943687474</v>
       </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
       <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>0.0842330665581947</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>0.347470707369169</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>0.130047184641323</v>
       </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>0.118162816144553</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D26" t="n">
         <v>1.02548778504827</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26" t="n">
         <v>0.615946272238565</v>
@@ -2725,61 +2803,64 @@
       <c r="I26" t="n">
         <v>4.75488750216347</v>
       </c>
-      <c r="J26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J26" t="n">
+        <v>0.916794668</v>
+      </c>
+      <c r="K26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L26" t="n">
         <v>0.739487272946599</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>0.25505525964931</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
       <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>0.444193213492573</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
         <v>0.138936514246588</v>
       </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>0.16181501261153</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D27" t="n">
         <v>0.577817262307432</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H27" t="n">
         <v>1.79184370105764</v>
@@ -2787,15 +2868,15 @@
       <c r="I27" t="n">
         <v>6.04439411935845</v>
       </c>
-      <c r="J27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J27" t="n">
+        <v>0.571863912</v>
+      </c>
+      <c r="K27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L27" t="n">
         <v>0.442138413607538</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
@@ -2812,36 +2893,39 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>1</v>
       </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B28" t="e">
         <v>#N/A</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D28" t="n">
         <v>0.914171892157005</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H28" t="n">
         <v>0.167985346974154</v>
@@ -2849,61 +2933,64 @@
       <c r="I28" t="n">
         <v>3</v>
       </c>
-      <c r="J28" t="e">
-        <v>#N/A</v>
+      <c r="J28" t="n">
+        <v>0.86426975</v>
       </c>
       <c r="K28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M28" t="n">
         <v>0.148811517647993</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>0.0978420211213368</v>
       </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
       <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
         <v>0.314480654566577</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>0.100139148277073</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>0.112331832914823</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>0.207200138072619</v>
       </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>0.0191946873995777</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D29" t="n">
         <v>10.8446102499431</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29" t="n">
         <v>1.53986568059641</v>
@@ -2911,61 +2998,64 @@
       <c r="I29" t="n">
         <v>6.04439411935845</v>
       </c>
-      <c r="J29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J29" t="n">
+        <v>0.651123383</v>
+      </c>
+      <c r="K29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L29" t="n">
         <v>0.579794071465646</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>0.117334264181262</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>0.15437405584988</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>0.668233209328069</v>
       </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>0.0600584706407892</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D30" t="n">
         <v>0.665158321428583</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H30" t="n">
         <v>0.671941387896617</v>
@@ -2973,15 +3063,15 @@
       <c r="I30" t="n">
         <v>4.8073549220576</v>
       </c>
-      <c r="J30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J30" t="n">
+        <v>0.5838051</v>
+      </c>
+      <c r="K30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L30" t="n">
         <v>0.343950291802219</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
@@ -2992,42 +3082,45 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>0.142525070960292</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>0.575693913219956</v>
       </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
         <v>0.162289091466054</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>0.119491924353698</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D31" t="n">
         <v>1.28207794360592</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H31" t="n">
         <v>0.727936503554668</v>
@@ -3035,15 +3128,15 @@
       <c r="I31" t="n">
         <v>4.90689059560852</v>
       </c>
-      <c r="J31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J31" t="n">
+        <v>0.301456335</v>
+      </c>
+      <c r="K31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L31" t="n">
         <v>0.36957080828844</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
@@ -3057,39 +3150,42 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>0.203489888533343</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>0.63303396138743</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>0.0621587239845932</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>0.101317426094634</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D32" t="n">
         <v>1.4264807075319</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H32" t="n">
         <v>1.76384614322862</v>
@@ -3097,61 +3193,64 @@
       <c r="I32" t="n">
         <v>7.56224242422107</v>
       </c>
-      <c r="J32" t="s">
-        <v>26</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J32" t="n">
+        <v>0.932690824</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="n">
         <v>0.44379977109777</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>0.260347486623863</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>0.210969600029516</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>0.171933329445916</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>0.11650075364736</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="n">
         <v>0.105514702541963</v>
       </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>0.134734127711382</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D33" t="n">
         <v>1.31325462645445</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H33" t="n">
         <v>3.61168495994431</v>
@@ -3159,61 +3258,64 @@
       <c r="I33" t="n">
         <v>7.32192809488736</v>
       </c>
-      <c r="J33" t="s">
-        <v>26</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J33" t="n">
+        <v>0.709735418</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" t="n">
         <v>0.375529368735504</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>0.0667706039071562</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>0.537290236189042</v>
       </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>0.0951092542705688</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>0.101712546452514</v>
       </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
       <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
         <v>0.140752677006405</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>0.0583646821743145</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D34" t="n">
         <v>1.45958969808778</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H34" t="n">
         <v>0.839926734870771</v>
@@ -3221,61 +3323,64 @@
       <c r="I34" t="n">
         <v>5.16992500144231</v>
       </c>
-      <c r="J34" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J34" t="n">
+        <v>0.796107069</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="n">
         <v>0.569560120565352</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>0.0744308586431424</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>0.0702618447415919</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>0.143002828939938</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
       <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>0.131911093852583</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="n">
         <v>0.27753147229363</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>0.0905766243717345</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>0.175636309759981</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>0.0366489673973985</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D35" t="n">
         <v>0.623158042621522</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H35" t="n">
         <v>0.363968251777334</v>
@@ -3283,24 +3388,24 @@
       <c r="I35" t="n">
         <v>3.8073549220576</v>
       </c>
-      <c r="J35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J35" t="n">
+        <v>0.322516838</v>
+      </c>
+      <c r="K35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L35" t="n">
         <v>0.510743783594519</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>0.262099431304233</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>0.311422400571269</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
@@ -3308,36 +3413,39 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
         <v>0.179913145145213</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>0.0745670130494222</v>
       </c>
-      <c r="T35" t="n">
+      <c r="U35" t="n">
         <v>0.171998009929863</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D36" t="n">
         <v>0.585997921932767</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H36" t="n">
         <v>0.643943830067591</v>
@@ -3345,61 +3453,64 @@
       <c r="I36" t="n">
         <v>4.70043971814109</v>
       </c>
-      <c r="J36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J36" t="n">
+        <v>0.042248083</v>
+      </c>
+      <c r="K36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L36" t="n">
         <v>0.467148540964538</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>0.0723245946964431</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>0.3622156142764</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>0.189775254643861</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>0.0769878260750522</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>0.135094460059115</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>0.117238163869331</v>
       </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
       <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
         <v>0.0463640863797992</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D37" t="n">
         <v>1.98723126828428</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H37" t="n">
         <v>0.503956040922462</v>
@@ -3407,61 +3518,64 @@
       <c r="I37" t="n">
         <v>4.39231742277876</v>
       </c>
-      <c r="J37" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J37" t="n">
+        <v>0.529387859</v>
+      </c>
+      <c r="K37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" t="n">
         <v>0.623776473962117</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>0.136363883159419</v>
       </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
       <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>0.11769634830023</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>0.380846557632526</v>
       </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>0.154537748504795</v>
       </c>
-      <c r="T37" t="n">
+      <c r="U37" t="n">
         <v>0.21055546240303</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D38" t="n">
         <v>0.929450577157592</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H38" t="n">
         <v>1.9598290480318</v>
@@ -3469,61 +3583,64 @@
       <c r="I38" t="n">
         <v>6.2667865406949</v>
       </c>
-      <c r="J38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J38" t="n">
+        <v>0.751337651</v>
+      </c>
+      <c r="K38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L38" t="n">
         <v>0.771731681526181</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>0.0846522272353416</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>0.0627685505952238</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>0.0804190334806037</v>
       </c>
-      <c r="P38" t="n">
+      <c r="Q38" t="n">
         <v>0.216443603345105</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="R38" t="n">
         <v>0.321030797259351</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>0.0777435454671102</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>0.134924222081901</v>
       </c>
-      <c r="T38" t="n">
+      <c r="U38" t="n">
         <v>0.0220180205353636</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D39" t="n">
         <v>8.82222841823438</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39" t="n">
         <v>2.49178264678329</v>
@@ -3531,61 +3648,64 @@
       <c r="I39" t="n">
         <v>6.56985560833095</v>
       </c>
-      <c r="J39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J39" t="n">
+        <v>0.396960125</v>
+      </c>
+      <c r="K39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L39" t="n">
         <v>0.283942729670415</v>
       </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>0.166284405361149</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>0.061807995350476</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>0.257961415613033</v>
       </c>
-      <c r="P39" t="n">
+      <c r="Q39" t="n">
         <v>0.14874397032413</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="R39" t="n">
         <v>0.11759747748489</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>0.24760472449392</v>
       </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
       <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
         <v>0.0000000113724023531603</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D40" t="n">
         <v>0.665895723080379</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H40" t="n">
         <v>1.00791208184492</v>
@@ -3593,18 +3713,18 @@
       <c r="I40" t="n">
         <v>5.88264304936184</v>
       </c>
-      <c r="J40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J40" t="n">
+        <v>0.698617607</v>
+      </c>
+      <c r="K40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L40" t="n">
         <v>0.669429405437427</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>0.237379885479665</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
@@ -3615,39 +3735,42 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>0.0794454036015839</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>0.392340677704627</v>
       </c>
-      <c r="S40" t="n">
+      <c r="T40" t="n">
         <v>0.12776301583957</v>
       </c>
-      <c r="T40" t="n">
+      <c r="U40" t="n">
         <v>0.163071017374554</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D41" t="n">
         <v>0.768361612323582</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H41" t="n">
         <v>0.0279975578290257</v>
@@ -3655,61 +3778,64 @@
       <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="J41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J41" t="n">
+        <v>0.593845999</v>
+      </c>
+      <c r="K41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L41" t="n">
         <v>0.36707426386722</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>0.164339185089231</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>0.284412466889771</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>0.220514304472485</v>
       </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
       <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
         <v>0.153567216441294</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>0.108470423389898</v>
       </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
       <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>0.0686964037173203</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D42" t="n">
         <v>0.409013987468199</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42" t="n">
         <v>0.587948714409539</v>
@@ -3717,61 +3843,64 @@
       <c r="I42" t="n">
         <v>4.8073549220576</v>
       </c>
-      <c r="J42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J42" t="n">
+        <v>0.744836992</v>
+      </c>
+      <c r="K42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L42" t="n">
         <v>0.448192683601946</v>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>0.0626309675552648</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>0.340117157017897</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>0.0613282673514007</v>
       </c>
-      <c r="P42" t="n">
+      <c r="Q42" t="n">
         <v>0.0733155248788837</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="R42" t="n">
         <v>0.25520191369757</v>
       </c>
-      <c r="R42" t="n">
+      <c r="S42" t="n">
         <v>0.173586381337026</v>
       </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
       <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
         <v>0.0338197881619576</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B43" t="e">
         <v>#N/A</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D43" t="n">
         <v>0.723145899527039</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H43" t="n">
         <v>0.419963367435385</v>
@@ -3779,30 +3908,30 @@
       <c r="I43" t="n">
         <v>4.70043971814109</v>
       </c>
-      <c r="J43" t="e">
-        <v>#N/A</v>
+      <c r="J43" t="n">
+        <v>0.85591274</v>
       </c>
       <c r="K43" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M43" t="n">
         <v>0.220607087259939</v>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>0.153032773676259</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>0.0642898760512596</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>0.0972878189016665</v>
       </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
         <v>0.453318373197066</v>
       </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
@@ -3810,30 +3939,33 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>0.0114640709138102</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B44" t="e">
         <v>#N/A</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D44" t="n">
         <v>0.478672360955709</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H44" t="n">
         <v>0.167985346974154</v>
@@ -3841,61 +3973,64 @@
       <c r="I44" t="n">
         <v>3</v>
       </c>
-      <c r="J44" t="e">
-        <v>#N/A</v>
+      <c r="J44" t="n">
+        <v>0.814633762</v>
       </c>
       <c r="K44" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M44" t="n">
         <v>0.1589277747914</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>0.277678350113149</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
       <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>0.0917617066861896</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="R44" t="n">
         <v>0.173262137410311</v>
       </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
         <v>0.0934215043171327</v>
       </c>
-      <c r="S44" t="n">
+      <c r="T44" t="n">
         <v>0.108601164117549</v>
       </c>
-      <c r="T44" t="n">
+      <c r="U44" t="n">
         <v>0.0963473625642688</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B45" t="e">
         <v>#N/A</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D45" t="n">
         <v>1.61098261110919</v>
       </c>
       <c r="E45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H45" t="n">
         <v>0.39196580960636</v>
@@ -3903,61 +4038,64 @@
       <c r="I45" t="n">
         <v>4.24792751344359</v>
       </c>
-      <c r="J45" t="s">
-        <v>26</v>
-      </c>
-      <c r="K45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L45" t="n">
+      <c r="J45" t="n">
+        <v>0.733019825</v>
+      </c>
+      <c r="K45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M45" t="n">
         <v>0.119556069881742</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>0.163210527273295</v>
       </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
       <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>0.0994514841734072</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="R45" t="n">
         <v>0.332465345635853</v>
       </c>
-      <c r="R45" t="n">
+      <c r="S45" t="n">
         <v>0.108188190093037</v>
       </c>
-      <c r="S45" t="n">
+      <c r="T45" t="n">
         <v>0.0838369516759494</v>
       </c>
-      <c r="T45" t="n">
+      <c r="U45" t="n">
         <v>0.0932914312667161</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B46" t="e">
         <v>#N/A</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D46" t="n">
         <v>0.564259763952774</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46" t="n">
         <v>0.307973136119283</v>
@@ -3965,14 +4103,14 @@
       <c r="I46" t="n">
         <v>4.16992500144231</v>
       </c>
-      <c r="J46" t="e">
-        <v>#N/A</v>
+      <c r="J46" t="n">
+        <v>0.512730233</v>
       </c>
       <c r="K46" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
+      <c r="L46" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -3984,42 +4122,45 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>0.295352078091409</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="R46" t="n">
         <v>0.40424174601184</v>
       </c>
-      <c r="R46" t="n">
+      <c r="S46" t="n">
         <v>0.155573311845612</v>
       </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>0.144832864051139</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D47" t="n">
         <v>2.65534910941505</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H47" t="n">
         <v>0.811929177041745</v>
@@ -4027,61 +4168,64 @@
       <c r="I47" t="n">
         <v>5.16992500144231</v>
       </c>
-      <c r="J47" t="s">
-        <v>26</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J47" t="n">
+        <v>0.851199551</v>
+      </c>
+      <c r="K47" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" t="n">
         <v>0.569510042618928</v>
       </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
         <v>0.0974558361109378</v>
       </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
       <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
         <v>0.190832739139053</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="R47" t="n">
         <v>0.471430230588372</v>
       </c>
-      <c r="R47" t="n">
-        <v>0</v>
-      </c>
       <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
         <v>0.166457523765244</v>
       </c>
-      <c r="T47" t="n">
+      <c r="U47" t="n">
         <v>0.0738236703963927</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D48" t="n">
         <v>0.911126491571772</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H48" t="n">
         <v>0.895921850528822</v>
@@ -4089,24 +4233,24 @@
       <c r="I48" t="n">
         <v>5</v>
       </c>
-      <c r="J48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J48" t="n">
+        <v>0.497708073</v>
+      </c>
+      <c r="K48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L48" t="n">
         <v>0.752475929785222</v>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>0.472886905119284</v>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>0.0678593020165138</v>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>0.154963943608184</v>
       </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
@@ -4117,33 +4261,36 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
         <v>0.281897875765768</v>
       </c>
-      <c r="T48" t="n">
+      <c r="U48" t="n">
         <v>0.0223919734902498</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B49" t="e">
         <v>#N/A</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D49" t="n">
         <v>0.596986134005091</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H49" t="n">
         <v>1.06390719750298</v>
@@ -4157,55 +4304,58 @@
       <c r="K49" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L49" t="n">
-        <v>0</v>
+      <c r="L49" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
         <v>0.0750720955602486</v>
       </c>
-      <c r="N49" t="n">
+      <c r="O49" t="n">
         <v>0.1358204941791</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>0.10330370283304</v>
       </c>
-      <c r="P49" t="n">
+      <c r="Q49" t="n">
         <v>0.193193659081989</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="R49" t="n">
         <v>0.261994880160738</v>
       </c>
-      <c r="R49" t="n">
+      <c r="S49" t="n">
         <v>0.175264842651821</v>
       </c>
-      <c r="S49" t="n">
-        <v>0</v>
-      </c>
       <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
         <v>0.0553503255330637</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B50" t="e">
         <v>#N/A</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D50" t="n">
         <v>1.7968473065668</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H50" t="n">
         <v>0.615946272238565</v>
@@ -4213,61 +4363,64 @@
       <c r="I50" t="n">
         <v>4.58496250072116</v>
       </c>
-      <c r="J50" t="s">
-        <v>26</v>
-      </c>
-      <c r="K50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L50" t="n">
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M50" t="n">
         <v>0.145729053005684</v>
       </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
       <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
         <v>0.232068950362349</v>
       </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
         <v>0.338749311671368</v>
       </c>
-      <c r="R50" t="n">
+      <c r="S50" t="n">
         <v>0.11282083178813</v>
       </c>
-      <c r="S50" t="n">
-        <v>0</v>
-      </c>
       <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
         <v>0.170631853172469</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D51" t="n">
         <v>4.85940326913163</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H51" t="n">
         <v>1.00791208184492</v>
@@ -4275,61 +4428,64 @@
       <c r="I51" t="n">
         <v>5.4262647547021</v>
       </c>
-      <c r="J51" t="s">
-        <v>26</v>
-      </c>
-      <c r="K51" t="n">
+      <c r="J51" t="n">
+        <v>0.639832195</v>
+      </c>
+      <c r="K51" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" t="n">
         <v>0.76895318071392</v>
       </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
         <v>0.122334407250177</v>
       </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
       <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
         <v>0.125737972397606</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="R51" t="n">
         <v>0.501687310455756</v>
       </c>
-      <c r="R51" t="n">
+      <c r="S51" t="n">
         <v>0.15763891353997</v>
       </c>
-      <c r="S51" t="n">
-        <v>0</v>
-      </c>
       <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
         <v>0.0926013963564916</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D52" t="n">
         <v>1.0679414088142</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H52" t="n">
         <v>0.503956040922462</v>
@@ -4337,61 +4493,64 @@
       <c r="I52" t="n">
         <v>4.70043971814109</v>
       </c>
-      <c r="J52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K52" t="n">
+      <c r="J52" t="n">
+        <v>0.840418372</v>
+      </c>
+      <c r="K52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L52" t="n">
         <v>0.615773498394946</v>
       </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
         <v>0.135680831697954</v>
       </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
       <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
         <v>0.0657526009589426</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="R52" t="n">
         <v>0.503086529748005</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>0.124438935694344</v>
       </c>
-      <c r="S52" t="n">
+      <c r="T52" t="n">
         <v>0.112372336518937</v>
       </c>
-      <c r="T52" t="n">
+      <c r="U52" t="n">
         <v>0.0586687653818174</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D53" t="n">
         <v>0.330097988969208</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53" t="n">
         <v>0.615946272238565</v>
@@ -4399,61 +4558,64 @@
       <c r="I53" t="n">
         <v>5.16992500144231</v>
       </c>
-      <c r="J53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K53" t="n">
+      <c r="J53" t="n">
+        <v>0.689194982</v>
+      </c>
+      <c r="K53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L53" t="n">
         <v>0.427110862734588</v>
       </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
         <v>0.128228531676709</v>
       </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
       <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
         <v>0.108851598792196</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="R53" t="n">
         <v>0.425726991280174</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>0.0977156307044159</v>
       </c>
-      <c r="S53" t="n">
+      <c r="T53" t="n">
         <v>0.135875893808304</v>
       </c>
-      <c r="T53" t="n">
+      <c r="U53" t="n">
         <v>0.1036013537382</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D54" t="n">
         <v>0.407527437990096</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H54" t="n">
         <v>1.70785102757057</v>
@@ -4461,61 +4623,64 @@
       <c r="I54" t="n">
         <v>6.16992500144231</v>
       </c>
-      <c r="J54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K54" t="n">
+      <c r="J54" t="n">
+        <v>0.791845167</v>
+      </c>
+      <c r="K54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L54" t="n">
         <v>0.575505938760336</v>
       </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
       <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
         <v>0.0656738080631759</v>
       </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
       <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
         <v>0.152769056616453</v>
       </c>
-      <c r="P54" t="n">
+      <c r="Q54" t="n">
         <v>0.142720077322932</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="R54" t="n">
         <v>0.210609360603555</v>
       </c>
-      <c r="R54" t="n">
+      <c r="S54" t="n">
         <v>0.110994797722278</v>
       </c>
-      <c r="S54" t="n">
+      <c r="T54" t="n">
         <v>0.256001435543513</v>
       </c>
-      <c r="T54" t="n">
+      <c r="U54" t="n">
         <v>0.0612314641280916</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D55" t="n">
         <v>1.07733795771883</v>
       </c>
       <c r="E55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55" t="n">
         <v>1.23189254447713</v>
@@ -4523,18 +4688,18 @@
       <c r="I55" t="n">
         <v>5.64385618977472</v>
       </c>
-      <c r="J55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K55" t="n">
+      <c r="J55" t="n">
+        <v>0.791325964</v>
+      </c>
+      <c r="K55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L55" t="n">
         <v>0.449093295038004</v>
       </c>
-      <c r="L55" t="n">
+      <c r="M55" t="n">
         <v>0.08463789634056</v>
       </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
@@ -4542,42 +4707,45 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
         <v>0.223364362244255</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="R55" t="n">
         <v>0.407244606117607</v>
       </c>
-      <c r="R55" t="n">
+      <c r="S55" t="n">
         <v>0.115866562926195</v>
       </c>
-      <c r="S55" t="n">
+      <c r="T55" t="n">
         <v>0.112807377626826</v>
       </c>
-      <c r="T55" t="n">
+      <c r="U55" t="n">
         <v>0.0560791947445571</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D56" t="n">
         <v>0.953363674208554</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H56" t="n">
         <v>0.279975578290257</v>
@@ -4585,61 +4753,64 @@
       <c r="I56" t="n">
         <v>3.58496250072116</v>
       </c>
-      <c r="J56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K56" t="n">
+      <c r="J56" t="n">
+        <v>0.513892684</v>
+      </c>
+      <c r="K56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L56" t="n">
         <v>0.637965512856903</v>
       </c>
-      <c r="L56" t="n">
+      <c r="M56" t="n">
         <v>0.360043025825591</v>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>0.0697848667329232</v>
       </c>
-      <c r="N56" t="n">
+      <c r="O56" t="n">
         <v>0.323935720918134</v>
       </c>
-      <c r="O56" t="n">
+      <c r="P56" t="n">
         <v>0.0812577870084943</v>
       </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
       <c r="Q56" t="n">
         <v>0</v>
       </c>
       <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
         <v>0.126673366733137</v>
       </c>
-      <c r="S56" t="n">
-        <v>0</v>
-      </c>
       <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
         <v>0.0383052327817197</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B57" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D57" t="n">
         <v>0.882805463561211</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H57" t="n">
         <v>0.643943830067591</v>
@@ -4647,61 +4818,64 @@
       <c r="I57" t="n">
         <v>5.04439411935845</v>
       </c>
-      <c r="J57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K57" t="n">
+      <c r="J57" t="n">
+        <v>0.819701184</v>
+      </c>
+      <c r="K57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L57" t="n">
         <v>0.808473165895148</v>
       </c>
-      <c r="L57" t="n">
+      <c r="M57" t="n">
         <v>0.0793707864444697</v>
       </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
       <c r="N57" t="n">
         <v>0</v>
       </c>
       <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
         <v>0.0664122191873731</v>
       </c>
-      <c r="P57" t="n">
+      <c r="Q57" t="n">
         <v>0.212278883274887</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="R57" t="n">
         <v>0.354654181544493</v>
       </c>
-      <c r="R57" t="n">
+      <c r="S57" t="n">
         <v>0.202532629880316</v>
       </c>
-      <c r="S57" t="n">
-        <v>0</v>
-      </c>
       <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
         <v>0.084751299668461</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B58" t="e">
         <v>#N/A</v>
       </c>
       <c r="C58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D58" t="n">
         <v>0.708349747091901</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H58" t="n">
         <v>0.503956040922462</v>
@@ -4709,61 +4883,64 @@
       <c r="I58" t="n">
         <v>4.70043971814109</v>
       </c>
-      <c r="J58" t="e">
-        <v>#N/A</v>
+      <c r="J58" t="n">
+        <v>0.270006277</v>
       </c>
       <c r="K58" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L58" t="n">
-        <v>0</v>
+      <c r="L58" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
         <v>0.0764003435841411</v>
       </c>
-      <c r="N58" t="n">
+      <c r="O58" t="n">
         <v>0.264910091055278</v>
       </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
       <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
         <v>0.0935240193023368</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="R58" t="n">
         <v>0.267460645468661</v>
       </c>
-      <c r="R58" t="n">
+      <c r="S58" t="n">
         <v>0.147362327939145</v>
       </c>
-      <c r="S58" t="n">
+      <c r="T58" t="n">
         <v>0.108377354132105</v>
       </c>
-      <c r="T58" t="n">
+      <c r="U58" t="n">
         <v>0.0419652185183339</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B59" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D59" t="n">
         <v>1.73296055907925</v>
       </c>
       <c r="E59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H59" t="n">
         <v>0.223980462632206</v>
@@ -4771,61 +4948,64 @@
       <c r="I59" t="n">
         <v>3.8073549220576</v>
       </c>
-      <c r="J59" t="s">
-        <v>26</v>
-      </c>
-      <c r="K59" t="n">
+      <c r="J59" t="n">
+        <v>0.581368574</v>
+      </c>
+      <c r="K59" t="s">
+        <v>27</v>
+      </c>
+      <c r="L59" t="n">
         <v>0.62407659609205</v>
       </c>
-      <c r="L59" t="n">
+      <c r="M59" t="n">
         <v>0.0610205842784469</v>
       </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
       <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
         <v>0.095706354431257</v>
       </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
       <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
         <v>0.17693040358603</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="R59" t="n">
         <v>0.36292185578016</v>
       </c>
-      <c r="R59" t="n">
+      <c r="S59" t="n">
         <v>0.136420537475511</v>
       </c>
-      <c r="S59" t="n">
+      <c r="T59" t="n">
         <v>0.0895614154092224</v>
       </c>
-      <c r="T59" t="n">
+      <c r="U59" t="n">
         <v>0.0774388490393725</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B60" t="e">
         <v>#N/A</v>
       </c>
       <c r="C60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D60" t="n">
         <v>0.765076784764917</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H60" t="n">
         <v>0.111990231316103</v>
@@ -4833,61 +5013,64 @@
       <c r="I60" t="n">
         <v>3</v>
       </c>
-      <c r="J60" t="e">
-        <v>#N/A</v>
+      <c r="J60" t="n">
+        <v>1</v>
       </c>
       <c r="K60" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L60" t="n">
+      <c r="L60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M60" t="n">
         <v>0.279863412518065</v>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>0.0752031023131815</v>
       </c>
-      <c r="N60" t="n">
+      <c r="O60" t="n">
         <v>0.150503062695286</v>
       </c>
-      <c r="O60" t="n">
+      <c r="P60" t="n">
         <v>0.067722537083597</v>
       </c>
-      <c r="P60" t="n">
+      <c r="Q60" t="n">
         <v>0.111266978313812</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="R60" t="n">
         <v>0.211562747648098</v>
       </c>
-      <c r="R60" t="n">
+      <c r="S60" t="n">
         <v>0.103878135240894</v>
       </c>
-      <c r="S60" t="n">
-        <v>0</v>
-      </c>
       <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
         <v>0.0000000241870663497679</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B61" t="e">
         <v>#N/A</v>
       </c>
       <c r="C61" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D61" t="n">
         <v>1.08950264868542</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H61" t="n">
         <v>0.19598290480318</v>
@@ -4895,61 +5078,64 @@
       <c r="I61" t="n">
         <v>4</v>
       </c>
-      <c r="J61" t="e">
-        <v>#N/A</v>
+      <c r="J61" t="n">
+        <v>0.774655974</v>
       </c>
       <c r="K61" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L61" t="n">
-        <v>0</v>
+      <c r="L61" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
         <v>0.101573697014105</v>
       </c>
-      <c r="N61" t="n">
+      <c r="O61" t="n">
         <v>0.138200236936824</v>
       </c>
-      <c r="O61" t="n">
+      <c r="P61" t="n">
         <v>0.116267430491875</v>
       </c>
-      <c r="P61" t="n">
+      <c r="Q61" t="n">
         <v>0.114008341526327</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="R61" t="n">
         <v>0.238258311321791</v>
       </c>
-      <c r="R61" t="n">
+      <c r="S61" t="n">
         <v>0.103972013734983</v>
       </c>
-      <c r="S61" t="n">
+      <c r="T61" t="n">
         <v>0.136592620508165</v>
       </c>
-      <c r="T61" t="n">
+      <c r="U61" t="n">
         <v>0.0511273484659296</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B62" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C62" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D62" t="n">
         <v>3.04039166135154</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62" t="n">
         <v>0.643943830067591</v>
@@ -4957,61 +5143,64 @@
       <c r="I62" t="n">
         <v>4.75488750216347</v>
       </c>
-      <c r="J62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K62" t="n">
+      <c r="J62" t="n">
+        <v>0.164636624</v>
+      </c>
+      <c r="K62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L62" t="n">
         <v>0.49150485279403</v>
       </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
       <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
         <v>0.0663369339961934</v>
       </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
       <c r="O62" t="n">
         <v>0</v>
       </c>
       <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
         <v>0.425301172176932</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="R62" t="n">
         <v>0.35119215850877</v>
       </c>
-      <c r="R62" t="n">
+      <c r="S62" t="n">
         <v>0.113188256260382</v>
       </c>
-      <c r="S62" t="n">
-        <v>0</v>
-      </c>
       <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
         <v>0.0439814790577218</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B63" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D63" t="n">
         <v>0.828368248951573</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63" t="n">
         <v>0.0559951156580514</v>
@@ -5019,61 +5208,64 @@
       <c r="I63" t="n">
         <v>2.58496250072116</v>
       </c>
-      <c r="J63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K63" t="n">
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L63" t="n">
         <v>0.549162269366051</v>
       </c>
-      <c r="L63" t="n">
+      <c r="M63" t="n">
         <v>0.250782011206616</v>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>0.111471879530442</v>
       </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
       <c r="O63" t="n">
         <v>0</v>
       </c>
       <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
         <v>0.120779885111439</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="R63" t="n">
         <v>0.247115544963874</v>
       </c>
-      <c r="R63" t="n">
+      <c r="S63" t="n">
         <v>0.10315647754105</v>
       </c>
-      <c r="S63" t="n">
+      <c r="T63" t="n">
         <v>0.0874363754789994</v>
       </c>
-      <c r="T63" t="n">
+      <c r="U63" t="n">
         <v>0.0792578261675805</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C64" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D64" t="n">
         <v>0.388138255821767</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H64" t="n">
         <v>2.12781439500595</v>
@@ -5081,15 +5273,15 @@
       <c r="I64" t="n">
         <v>6.52356195605701</v>
       </c>
-      <c r="J64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K64" t="n">
+      <c r="J64" t="n">
+        <v>0.736531799</v>
+      </c>
+      <c r="K64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L64" t="n">
         <v>0.572644393416624</v>
       </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
@@ -5103,39 +5295,42 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
         <v>0.128839507628334</v>
       </c>
-      <c r="R64" t="n">
+      <c r="S64" t="n">
         <v>0.821218976440908</v>
       </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
       <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
         <v>0.0499415159307577</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C65" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D65" t="n">
         <v>0.674959180648736</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H65" t="n">
         <v>0.419963367435385</v>
@@ -5143,61 +5338,64 @@
       <c r="I65" t="n">
         <v>4</v>
       </c>
-      <c r="J65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K65" t="n">
+      <c r="J65" t="n">
+        <v>0.596162505</v>
+      </c>
+      <c r="K65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L65" t="n">
         <v>0.699064292560397</v>
       </c>
-      <c r="L65" t="n">
+      <c r="M65" t="n">
         <v>0.310140744362781</v>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>0.068936002813622</v>
       </c>
-      <c r="N65" t="n">
-        <v>0</v>
-      </c>
       <c r="O65" t="n">
         <v>0</v>
       </c>
       <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
         <v>0.213096875782795</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="R65" t="n">
         <v>0.135272839158107</v>
       </c>
-      <c r="R65" t="n">
+      <c r="S65" t="n">
         <v>0.128113552085235</v>
       </c>
-      <c r="S65" t="n">
+      <c r="T65" t="n">
         <v>0.0744813049292694</v>
       </c>
-      <c r="T65" t="n">
+      <c r="U65" t="n">
         <v>0.0699586808681902</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B66" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C66" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D66" t="n">
         <v>0.775241276378305</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66" t="n">
         <v>0.699938945725642</v>
@@ -5205,27 +5403,27 @@
       <c r="I66" t="n">
         <v>4.85798099512757</v>
       </c>
-      <c r="J66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K66" t="n">
+      <c r="J66" t="n">
+        <v>0.768791024</v>
+      </c>
+      <c r="K66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L66" t="n">
         <v>0.631004972671502</v>
       </c>
-      <c r="L66" t="n">
+      <c r="M66" t="n">
         <v>0.503332521636299</v>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>0.0614578925365872</v>
       </c>
-      <c r="N66" t="n">
+      <c r="O66" t="n">
         <v>0.213060726659897</v>
       </c>
-      <c r="O66" t="n">
+      <c r="P66" t="n">
         <v>0.155699962478648</v>
       </c>
-      <c r="P66" t="n">
-        <v>0</v>
-      </c>
       <c r="Q66" t="n">
         <v>0</v>
       </c>
@@ -5236,30 +5434,33 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
         <v>0.0664488966885677</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B67" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D67" t="n">
         <v>0.571514974019808</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H67" t="n">
         <v>0.615946272238565</v>
@@ -5267,61 +5468,64 @@
       <c r="I67" t="n">
         <v>4.70043971814109</v>
       </c>
-      <c r="J67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K67" t="n">
+      <c r="J67" t="n">
+        <v>0.736589344</v>
+      </c>
+      <c r="K67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L67" t="n">
         <v>0.64973853521711</v>
       </c>
-      <c r="L67" t="n">
+      <c r="M67" t="n">
         <v>0.143833959087215</v>
       </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
       <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
         <v>0.263583588377683</v>
       </c>
-      <c r="O67" t="n">
-        <v>0</v>
-      </c>
       <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
         <v>0.150606513852679</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="R67" t="n">
         <v>0.122545412020891</v>
       </c>
-      <c r="R67" t="n">
+      <c r="S67" t="n">
         <v>0.124270161895681</v>
       </c>
-      <c r="S67" t="n">
+      <c r="T67" t="n">
         <v>0.106552026574306</v>
       </c>
-      <c r="T67" t="n">
+      <c r="U67" t="n">
         <v>0.0886083381915452</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C68" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D68" t="n">
         <v>2.44907726867045</v>
       </c>
       <c r="E68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H68" t="n">
         <v>0.363968251777334</v>
@@ -5329,61 +5533,64 @@
       <c r="I68" t="n">
         <v>3.90689059560852</v>
       </c>
-      <c r="J68" t="s">
-        <v>26</v>
-      </c>
-      <c r="K68" t="n">
+      <c r="J68" t="n">
+        <v>0.846526187</v>
+      </c>
+      <c r="K68" t="s">
+        <v>27</v>
+      </c>
+      <c r="L68" t="n">
         <v>0.392024954986044</v>
       </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
         <v>0.156744106069701</v>
       </c>
-      <c r="O68" t="n">
+      <c r="P68" t="n">
         <v>0.37108376457957</v>
       </c>
-      <c r="P68" t="n">
+      <c r="Q68" t="n">
         <v>0.099895946681261</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="R68" t="n">
         <v>0.353708792576723</v>
       </c>
-      <c r="R68" t="n">
-        <v>0</v>
-      </c>
       <c r="S68" t="n">
         <v>0</v>
       </c>
       <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
         <v>0.0185673900927451</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C69" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D69" t="n">
         <v>0.729525469501158</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H69" t="n">
         <v>0.615946272238565</v>
@@ -5391,61 +5598,64 @@
       <c r="I69" t="n">
         <v>4.8073549220576</v>
       </c>
-      <c r="J69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K69" t="n">
+      <c r="J69" t="n">
+        <v>0.873444027</v>
+      </c>
+      <c r="K69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L69" t="n">
         <v>0.596633706208732</v>
       </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
       <c r="M69" t="n">
         <v>0</v>
       </c>
       <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
         <v>0.537439335647318</v>
       </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
       <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
         <v>0.106513851960041</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="R69" t="n">
         <v>0.348315999690963</v>
       </c>
-      <c r="R69" t="n">
-        <v>0</v>
-      </c>
       <c r="S69" t="n">
         <v>0</v>
       </c>
       <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
         <v>0.00773081270167775</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D70" t="n">
         <v>2.78010728661349</v>
       </c>
       <c r="E70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H70" t="n">
         <v>0.671941387896617</v>
@@ -5453,61 +5663,64 @@
       <c r="I70" t="n">
         <v>5</v>
       </c>
-      <c r="J70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K70" t="n">
+      <c r="J70" t="n">
+        <v>0.956636892</v>
+      </c>
+      <c r="K70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L70" t="n">
         <v>0.757810200911416</v>
       </c>
-      <c r="L70" t="n">
+      <c r="M70" t="n">
         <v>0.383538367367422</v>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>0.147447337305198</v>
       </c>
-      <c r="N70" t="n">
+      <c r="O70" t="n">
         <v>0.179699213983772</v>
       </c>
-      <c r="O70" t="n">
-        <v>0</v>
-      </c>
       <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
         <v>0.0945875981196528</v>
       </c>
-      <c r="Q70" t="n">
-        <v>0</v>
-      </c>
       <c r="R70" t="n">
         <v>0</v>
       </c>
       <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
         <v>0.169009918144339</v>
       </c>
-      <c r="T70" t="n">
+      <c r="U70" t="n">
         <v>0.0257175650796155</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B71" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C71" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D71" t="n">
         <v>1.3376016778781</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H71" t="n">
         <v>0.727936503554668</v>
@@ -5515,61 +5728,64 @@
       <c r="I71" t="n">
         <v>4.85798099512757</v>
       </c>
-      <c r="J71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K71" t="n">
+      <c r="J71" t="n">
+        <v>0.728103835</v>
+      </c>
+      <c r="K71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L71" t="n">
         <v>0.539957042295368</v>
       </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
       <c r="M71" t="n">
         <v>0</v>
       </c>
       <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
         <v>0.176730012408873</v>
       </c>
-      <c r="O71" t="n">
+      <c r="P71" t="n">
         <v>0.0913838694587305</v>
       </c>
-      <c r="P71" t="n">
+      <c r="Q71" t="n">
         <v>0.163511238499196</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="R71" t="n">
         <v>0.264571968989742</v>
       </c>
-      <c r="R71" t="n">
+      <c r="S71" t="n">
         <v>0.129770776550119</v>
       </c>
-      <c r="S71" t="n">
+      <c r="T71" t="n">
         <v>0.0826876733571825</v>
       </c>
-      <c r="T71" t="n">
+      <c r="U71" t="n">
         <v>0.0913444607361567</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B72" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C72" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D72" t="n">
         <v>1.65241546603447</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H72" t="n">
         <v>0.671941387896617</v>
@@ -5577,61 +5793,64 @@
       <c r="I72" t="n">
         <v>5.16992500144231</v>
       </c>
-      <c r="J72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K72" t="n">
+      <c r="J72" t="n">
+        <v>0.716432308</v>
+      </c>
+      <c r="K72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L72" t="n">
         <v>0.478867672178079</v>
       </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
       <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
         <v>0.0614018026497692</v>
       </c>
-      <c r="N72" t="n">
+      <c r="O72" t="n">
         <v>0.0930220195820889</v>
       </c>
-      <c r="O72" t="n">
+      <c r="P72" t="n">
         <v>0.0681766454197774</v>
       </c>
-      <c r="P72" t="n">
+      <c r="Q72" t="n">
         <v>0.21704226829776</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="R72" t="n">
         <v>0.28408838783251</v>
       </c>
-      <c r="R72" t="n">
+      <c r="S72" t="n">
         <v>0.108938565874563</v>
       </c>
-      <c r="S72" t="n">
+      <c r="T72" t="n">
         <v>0.119621131142618</v>
       </c>
-      <c r="T72" t="n">
+      <c r="U72" t="n">
         <v>0.0477091792009136</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C73" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D73" t="n">
         <v>0.390536916669804</v>
       </c>
       <c r="E73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H73" t="n">
         <v>0.307973136119283</v>
@@ -5639,61 +5858,64 @@
       <c r="I73" t="n">
         <v>3.90689059560852</v>
       </c>
-      <c r="J73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K73" t="n">
+      <c r="J73" t="n">
+        <v>0.29466917</v>
+      </c>
+      <c r="K73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L73" t="n">
         <v>0.666239527934617</v>
       </c>
-      <c r="L73" t="n">
+      <c r="M73" t="n">
         <v>0.216947225425474</v>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>0.0630713661457646</v>
       </c>
-      <c r="N73" t="n">
+      <c r="O73" t="n">
         <v>0.204830814562037</v>
       </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
       <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
         <v>0.122739282172645</v>
       </c>
-      <c r="Q73" t="n">
+      <c r="R73" t="n">
         <v>0.0958976712093112</v>
       </c>
-      <c r="R73" t="n">
+      <c r="S73" t="n">
         <v>0.113702072223855</v>
       </c>
-      <c r="S73" t="n">
+      <c r="T73" t="n">
         <v>0.1562966837089</v>
       </c>
-      <c r="T73" t="n">
+      <c r="U73" t="n">
         <v>0.0265148845520116</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B74" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D74" t="n">
         <v>0.517582750507118</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H74" t="n">
         <v>0.587948714409539</v>
@@ -5701,61 +5923,64 @@
       <c r="I74" t="n">
         <v>4.75488750216347</v>
       </c>
-      <c r="J74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K74" t="n">
+      <c r="J74" t="n">
+        <v>0.491655813</v>
+      </c>
+      <c r="K74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L74" t="n">
         <v>0.622731566582486</v>
       </c>
-      <c r="L74" t="n">
+      <c r="M74" t="n">
         <v>0.112368428954719</v>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>0.0693066811271542</v>
       </c>
-      <c r="N74" t="n">
+      <c r="O74" t="n">
         <v>0.365029513455725</v>
       </c>
-      <c r="O74" t="n">
+      <c r="P74" t="n">
         <v>0.0688816970853302</v>
       </c>
-      <c r="P74" t="n">
+      <c r="Q74" t="n">
         <v>0.0811070154889089</v>
       </c>
-      <c r="Q74" t="n">
-        <v>0</v>
-      </c>
       <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
         <v>0.0860055148062056</v>
       </c>
-      <c r="S74" t="n">
+      <c r="T74" t="n">
         <v>0.177750628613161</v>
       </c>
-      <c r="T74" t="n">
+      <c r="U74" t="n">
         <v>0.0395505204687959</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B75" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D75" t="n">
         <v>0.550419611007771</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75" t="n">
         <v>0.363968251777334</v>
@@ -5763,24 +5988,24 @@
       <c r="I75" t="n">
         <v>4</v>
       </c>
-      <c r="J75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K75" t="n">
+      <c r="J75" t="n">
+        <v>0.004680354</v>
+      </c>
+      <c r="K75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L75" t="n">
         <v>0.471068959090034</v>
       </c>
-      <c r="L75" t="n">
+      <c r="M75" t="n">
         <v>0.570559572604357</v>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>0.0625424071376501</v>
       </c>
-      <c r="N75" t="n">
+      <c r="O75" t="n">
         <v>0.253797297232868</v>
       </c>
-      <c r="O75" t="n">
-        <v>0</v>
-      </c>
       <c r="P75" t="n">
         <v>0</v>
       </c>
@@ -5788,36 +6013,39 @@
         <v>0</v>
       </c>
       <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
         <v>0.0872841014576835</v>
       </c>
-      <c r="S75" t="n">
-        <v>0</v>
-      </c>
       <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
         <v>0.0258166215674416</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C76" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D76" t="n">
         <v>0.785423033777577</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H76" t="n">
         <v>0.0839926734870771</v>
@@ -5825,61 +6053,64 @@
       <c r="I76" t="n">
         <v>2.58496250072116</v>
       </c>
-      <c r="J76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K76" t="n">
+      <c r="J76" t="n">
+        <v>0.79803084</v>
+      </c>
+      <c r="K76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L76" t="n">
         <v>0.543859344519963</v>
       </c>
-      <c r="L76" t="n">
+      <c r="M76" t="n">
         <v>0.270529990333797</v>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>0.103583873849176</v>
       </c>
-      <c r="N76" t="n">
+      <c r="O76" t="n">
         <v>0.121544192412978</v>
       </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
       <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
         <v>0.0999823299469701</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="R76" t="n">
         <v>0.118501312631777</v>
       </c>
-      <c r="R76" t="n">
+      <c r="S76" t="n">
         <v>0.129065599745378</v>
       </c>
-      <c r="S76" t="n">
+      <c r="T76" t="n">
         <v>0.156792701079924</v>
       </c>
-      <c r="T76" t="n">
+      <c r="U76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B77" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C77" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D77" t="n">
         <v>0.453305749936207</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H77" t="n">
         <v>0.0839926734870771</v>
@@ -5887,61 +6118,64 @@
       <c r="I77" t="n">
         <v>4.16992500144231</v>
       </c>
-      <c r="J77" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K77" t="n">
+      <c r="J77" t="n">
+        <v>0.207583615</v>
+      </c>
+      <c r="K77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L77" t="n">
         <v>0.356486627033376</v>
       </c>
-      <c r="L77" t="n">
+      <c r="M77" t="n">
         <v>0.520970687371845</v>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>0.0972256937625451</v>
       </c>
-      <c r="N77" t="n">
+      <c r="O77" t="n">
         <v>0.100545720341275</v>
       </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
       <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
         <v>0.151706099482703</v>
       </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
       <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
         <v>0.0970001044119977</v>
       </c>
-      <c r="S77" t="n">
-        <v>0</v>
-      </c>
       <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
         <v>0.032551694629633</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B78" t="e">
         <v>#N/A</v>
       </c>
       <c r="C78" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D78" t="n">
         <v>3.95948737822802</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H78" t="n">
         <v>0.39196580960636</v>
@@ -5949,61 +6183,64 @@
       <c r="I78" t="n">
         <v>4.32192809488736</v>
       </c>
-      <c r="J78" t="e">
-        <v>#N/A</v>
+      <c r="J78" t="n">
+        <v>0.259143504</v>
       </c>
       <c r="K78" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L78" t="n">
+      <c r="L78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M78" t="n">
         <v>0.0694034970885765</v>
       </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
       <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
         <v>0.157696415861318</v>
       </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
       <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
         <v>0.134587034365037</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="R78" t="n">
         <v>0.304079095973372</v>
       </c>
-      <c r="R78" t="n">
+      <c r="S78" t="n">
         <v>0.186264963370419</v>
       </c>
-      <c r="S78" t="n">
+      <c r="T78" t="n">
         <v>0.103474053638766</v>
       </c>
-      <c r="T78" t="n">
+      <c r="U78" t="n">
         <v>0.0444949397025116</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B79" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C79" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D79" t="n">
         <v>0.662451416600774</v>
       </c>
       <c r="E79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H79" t="n">
         <v>0.531953598751488</v>
@@ -6011,15 +6248,15 @@
       <c r="I79" t="n">
         <v>4.90689059560852</v>
       </c>
-      <c r="J79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K79" t="n">
+      <c r="J79" t="n">
+        <v>0.622311801</v>
+      </c>
+      <c r="K79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L79" t="n">
         <v>0.620267598057406</v>
       </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
@@ -6030,42 +6267,45 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
         <v>0.26528956872205</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="R79" t="n">
         <v>0.480445572632228</v>
       </c>
-      <c r="R79" t="n">
+      <c r="S79" t="n">
         <v>0.0631397529026997</v>
       </c>
-      <c r="S79" t="n">
-        <v>0</v>
-      </c>
       <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
         <v>0.191125105743023</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B80" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C80" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D80" t="n">
         <v>1.56346077095907</v>
       </c>
       <c r="E80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H80" t="n">
         <v>0.279975578290257</v>
@@ -6073,61 +6313,64 @@
       <c r="I80" t="n">
         <v>3.8073549220576</v>
       </c>
-      <c r="J80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K80" t="n">
+      <c r="J80" t="n">
+        <v>0.352670785</v>
+      </c>
+      <c r="K80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L80" t="n">
         <v>0.674694967634554</v>
       </c>
-      <c r="L80" t="n">
+      <c r="M80" t="n">
         <v>0.148760535083763</v>
       </c>
-      <c r="M80" t="n">
-        <v>0</v>
-      </c>
       <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
         <v>0.191419611143476</v>
       </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
       <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
         <v>0.0809454445061807</v>
       </c>
-      <c r="Q80" t="n">
+      <c r="R80" t="n">
         <v>0.198194819146278</v>
       </c>
-      <c r="R80" t="n">
+      <c r="S80" t="n">
         <v>0.0865242820025566</v>
       </c>
-      <c r="S80" t="n">
+      <c r="T80" t="n">
         <v>0.197385851722872</v>
       </c>
-      <c r="T80" t="n">
+      <c r="U80" t="n">
         <v>0.0967694563948739</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B81" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D81" t="n">
         <v>0.724248630404926</v>
       </c>
       <c r="E81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H81" t="n">
         <v>0.251978020461231</v>
@@ -6135,61 +6378,64 @@
       <c r="I81" t="n">
         <v>3.58496250072116</v>
       </c>
-      <c r="J81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K81" t="n">
+      <c r="J81" t="n">
+        <v>0.780880662</v>
+      </c>
+      <c r="K81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L81" t="n">
         <v>0.760571263751836</v>
       </c>
-      <c r="L81" t="n">
+      <c r="M81" t="n">
         <v>0.155508635964374</v>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>0.0916656313976989</v>
       </c>
-      <c r="N81" t="n">
+      <c r="O81" t="n">
         <v>0.204768824569179</v>
       </c>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
       <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
         <v>0.0868164302487179</v>
       </c>
-      <c r="Q81" t="n">
+      <c r="R81" t="n">
         <v>0.199049104167971</v>
       </c>
-      <c r="R81" t="n">
-        <v>0</v>
-      </c>
       <c r="S81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
         <v>0.210309335205238</v>
       </c>
-      <c r="T81" t="n">
+      <c r="U81" t="n">
         <v>0.0518820384468218</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B82" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C82" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D82" t="n">
         <v>0.988855477993912</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H82" t="n">
         <v>0.0279975578290257</v>
@@ -6197,61 +6443,64 @@
       <c r="I82" t="n">
         <v>2.8073549220576</v>
       </c>
-      <c r="J82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K82" t="n">
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L82" t="n">
         <v>0.257086835506525</v>
       </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
       <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
         <v>0.0764064458988235</v>
       </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
       <c r="P82" t="n">
         <v>0</v>
       </c>
       <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
         <v>0.923593554101176</v>
       </c>
-      <c r="R82" t="n">
-        <v>0</v>
-      </c>
       <c r="S82" t="n">
         <v>0</v>
       </c>
       <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
         <v>0.000000000000000111022302462516</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B83" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C83" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D83" t="n">
         <v>0.466801169472898</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H83" t="n">
         <v>0.363968251777334</v>
@@ -6259,61 +6508,64 @@
       <c r="I83" t="n">
         <v>4.32192809488736</v>
       </c>
-      <c r="J83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K83" t="n">
+      <c r="J83" t="n">
+        <v>0.824091125</v>
+      </c>
+      <c r="K83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L83" t="n">
         <v>0.48880709589267</v>
       </c>
-      <c r="L83" t="n">
+      <c r="M83" t="n">
         <v>0.0785783128295887</v>
       </c>
-      <c r="M83" t="n">
-        <v>0</v>
-      </c>
       <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
         <v>0.0750021473702883</v>
       </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
       <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
         <v>0.172962479086884</v>
       </c>
-      <c r="Q83" t="n">
+      <c r="R83" t="n">
         <v>0.44042006198329</v>
       </c>
-      <c r="R83" t="n">
+      <c r="S83" t="n">
         <v>0.115794368532733</v>
       </c>
-      <c r="S83" t="n">
+      <c r="T83" t="n">
         <v>0.0754232691319546</v>
       </c>
-      <c r="T83" t="n">
+      <c r="U83" t="n">
         <v>0.0418193610652614</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B84" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C84" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D84" t="n">
         <v>0.935436254064433</v>
       </c>
       <c r="E84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H84" t="n">
         <v>0.0839926734870771</v>
@@ -6321,61 +6573,64 @@
       <c r="I84" t="n">
         <v>2.58496250072116</v>
       </c>
-      <c r="J84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K84" t="n">
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L84" t="n">
         <v>0.263417416871963</v>
       </c>
-      <c r="L84" t="n">
+      <c r="M84" t="n">
         <v>0.421856281219284</v>
       </c>
-      <c r="M84" t="n">
-        <v>0</v>
-      </c>
       <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
         <v>0.238175344029036</v>
       </c>
-      <c r="O84" t="n">
+      <c r="P84" t="n">
         <v>0.122182560086</v>
       </c>
-      <c r="P84" t="n">
+      <c r="Q84" t="n">
         <v>0.0825144550173773</v>
       </c>
-      <c r="Q84" t="n">
-        <v>0</v>
-      </c>
       <c r="R84" t="n">
         <v>0</v>
       </c>
       <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
         <v>0.0840604798772543</v>
       </c>
-      <c r="T84" t="n">
+      <c r="U84" t="n">
         <v>0.0512108797710477</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B85" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C85" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D85" t="n">
         <v>0.574163528083403</v>
       </c>
       <c r="E85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H85" t="n">
         <v>0.0279975578290257</v>
@@ -6383,24 +6638,24 @@
       <c r="I85" t="n">
         <v>1.58496250072116</v>
       </c>
-      <c r="J85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K85" t="n">
+      <c r="J85" t="n">
+        <v>0.971830266</v>
+      </c>
+      <c r="K85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L85" t="n">
         <v>0.575590445721698</v>
       </c>
-      <c r="L85" t="n">
+      <c r="M85" t="n">
         <v>0.527771817465587</v>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>0.0872046483395278</v>
       </c>
-      <c r="N85" t="n">
+      <c r="O85" t="n">
         <v>0.117060508256837</v>
       </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
       <c r="P85" t="n">
         <v>0</v>
       </c>
@@ -6411,33 +6666,36 @@
         <v>0</v>
       </c>
       <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
         <v>0.165646281315747</v>
       </c>
-      <c r="T85" t="n">
+      <c r="U85" t="n">
         <v>0.102316744622302</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B86" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C86" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D86" t="n">
         <v>0.859182287154718</v>
       </c>
       <c r="E86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H86" t="n">
         <v>0.0279975578290257</v>
@@ -6445,37 +6703,40 @@
       <c r="I86" t="n">
         <v>1.58496250072116</v>
       </c>
-      <c r="J86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K86" t="n">
+      <c r="J86" t="n">
+        <v>0.492622854</v>
+      </c>
+      <c r="K86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L86" t="n">
         <v>0.479093805144225</v>
       </c>
-      <c r="L86" t="n">
+      <c r="M86" t="n">
         <v>0.415539791654947</v>
       </c>
-      <c r="M86" t="n">
-        <v>0</v>
-      </c>
       <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
         <v>0.158302221030284</v>
       </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
       <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
         <v>0.0773582255260954</v>
       </c>
-      <c r="Q86" t="n">
-        <v>0</v>
-      </c>
       <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
         <v>0.125230642953602</v>
       </c>
-      <c r="S86" t="n">
+      <c r="T86" t="n">
         <v>0.173313921586915</v>
       </c>
-      <c r="T86" t="n">
+      <c r="U86" t="n">
         <v>0.050255197248157</v>
       </c>
     </row>
